--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="14115" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ARM MCL1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
   <si>
     <t>DSP</t>
   </si>
@@ -149,6 +149,343 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HammingWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.1948278377083001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>58.591443634822838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AmplitudeOfSpectrum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.1032140202690979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.0650097594520815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0289935608454952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OctaveSpectralContrast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.016511186902193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="57435264"/>
+        <c:axId val="57437568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="57435264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="57437568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57437568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitanteil in [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="57435264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -901,8 +1238,69 @@
         <v>524.67000000000007</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <f>D2/$D$9*100</f>
+        <v>4.1948278377083001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B19" si="1">D3/$D$9*100</f>
+        <v>58.591443634822838</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>7.1032140202690979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>7.0650097594520815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2.0289935608454952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>21.016511186902193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1730,7 +2128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -162,46 +162,8 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HammingWindow</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.1948278377083001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'ARM MCL 2'!$A$15</c:f>
@@ -232,6 +194,44 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>58.591443634822838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OctaveSpectralContrast</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.016511186902193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -314,8 +314,46 @@
           </c:val>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HammingWindow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.1948278377083001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'ARM MCL 2'!$A$18</c:f>
@@ -351,49 +389,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OctaveSpectralContrast</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>21.016511186902193</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="57435264"/>
-        <c:axId val="57437568"/>
+        <c:axId val="78136448"/>
+        <c:axId val="78137984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57435264"/>
+        <c:axId val="78136448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,14 +401,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="57437568"/>
+        <c:crossAx val="78137984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57437568"/>
+        <c:axId val="78137984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +434,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="57435264"/>
+        <c:crossAx val="78136448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -447,8 +447,8 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -463,10 +463,10 @@
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1009,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1089,7 +1089,7 @@
         <v>843.5</v>
       </c>
       <c r="E3">
-        <v>383.54</v>
+        <v>1263.3800000000001</v>
       </c>
       <c r="F3">
         <v>373.07</v>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>2359.48</v>
+        <v>3239.3200000000006</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -1295,6 +1295,12 @@
       <c r="B19">
         <f t="shared" si="1"/>
         <v>21.016511186902193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21">
+        <f>SUM(B14:B19)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ARM MCL1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
   <si>
     <t>DSP</t>
   </si>
@@ -389,11 +389,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78136448"/>
-        <c:axId val="78137984"/>
+        <c:axId val="74878976"/>
+        <c:axId val="74880512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78136448"/>
+        <c:axId val="74878976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,14 +401,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78137984"/>
+        <c:crossAx val="74880512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78137984"/>
+        <c:axId val="74880512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +434,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78136448"/>
+        <c:crossAx val="74878976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -447,8 +447,108 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Libav ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Libav VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1263.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="77937280"/>
+        <c:axId val="81146240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77937280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81146240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81146240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77937280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -465,7 +565,7 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>752475</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -480,6 +580,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -775,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1009,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1270,7 +1400,7 @@
         <v>7.1032140202690979</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1279,7 +1409,7 @@
         <v>7.0650097594520815</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1288,7 +1418,7 @@
         <v>2.0289935608454952</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1297,10 +1427,41 @@
         <v>21.016511186902193</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4">
       <c r="B21">
         <f>SUM(B14:B19)</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="str">
+        <f>E1</f>
+        <v>Libav ARM</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:D24" si="2">F1</f>
+        <v>Libav VFP</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="2"/>
+        <v>Libav NEON</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <f>E3</f>
+        <v>1263.3800000000001</v>
+      </c>
+      <c r="C25">
+        <f>F3</f>
+        <v>373.07</v>
+      </c>
+      <c r="D25">
+        <f>G3</f>
+        <v>41.96</v>
       </c>
     </row>
   </sheetData>
@@ -1709,7 +1870,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -389,11 +389,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74878976"/>
-        <c:axId val="74880512"/>
+        <c:axId val="83180160"/>
+        <c:axId val="83194240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74878976"/>
+        <c:axId val="83180160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,14 +401,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="74880512"/>
+        <c:crossAx val="83194240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74880512"/>
+        <c:axId val="83194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,24 +430,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74878976"/>
+        <c:crossAx val="83180160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -513,24 +511,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77937280"/>
-        <c:axId val="81146240"/>
+        <c:axId val="83231104"/>
+        <c:axId val="83232640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77937280"/>
+        <c:axId val="83231104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81146240"/>
+        <c:crossAx val="83232640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81146240"/>
+        <c:axId val="83232640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +536,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77937280"/>
+        <c:crossAx val="83231104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -547,7 +545,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -903,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1093,7 +1091,7 @@
         <v>50.75</v>
       </c>
       <c r="G7">
-        <v>49.36</v>
+        <v>41.18</v>
       </c>
       <c r="H7">
         <v>49.36</v>
@@ -1125,11 +1123,25 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>144.89999999999998</v>
+        <v>136.72</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>119.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <f>B2/E2</f>
+        <v>1.3629692305188992</v>
+      </c>
+      <c r="C13">
+        <f>C2/F2</f>
+        <v>2.2446648793565682</v>
+      </c>
+      <c r="D13">
+        <f>D2/G2</f>
+        <v>19.241037735849059</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ARM MCL1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
   <si>
     <t>DSP</t>
   </si>
@@ -56,55 +56,55 @@
     <t>FFT</t>
   </si>
   <si>
-    <t>AmplitudeOfSpectrum</t>
-  </si>
-  <si>
-    <t>SpectralCentroid</t>
-  </si>
-  <si>
-    <t>SpectralRolloff</t>
-  </si>
-  <si>
-    <t>SpectralFlux</t>
-  </si>
-  <si>
     <t>MFCC</t>
   </si>
   <si>
     <t>Libav NEON + NEON Opt</t>
   </si>
   <si>
-    <t>HammingWindow</t>
-  </si>
-  <si>
-    <t>NormalizedAudioSpectrumEnvelope</t>
-  </si>
-  <si>
-    <t>OctaveSpectralContrast</t>
-  </si>
-  <si>
     <t>Gesamt</t>
   </si>
   <si>
-    <t>ZeroCrossingRate</t>
+    <t>MAG</t>
   </si>
   <si>
-    <t>RootMeanSquare</t>
+    <t>SC</t>
   </si>
   <si>
-    <t>LowEnergy</t>
+    <t>SR</t>
   </si>
   <si>
-    <t>SpectralCrestFactor</t>
+    <t>SF</t>
   </si>
   <si>
-    <t>SubBandEnergyRatio</t>
+    <t>HW</t>
   </si>
   <si>
-    <t>Chroma</t>
+    <t>NASE</t>
   </si>
   <si>
-    <t>AmplitudeOfMaximumInChromagram</t>
+    <t>OSC</t>
+  </si>
+  <si>
+    <t>ZCR</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>SCF</t>
+  </si>
+  <si>
+    <t>SBER</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>AOMIC</t>
   </si>
 </sst>
 </file>
@@ -208,7 +208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OctaveSpectralContrast</c:v>
+                  <c:v>OSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -246,7 +246,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AmplitudeOfSpectrum</c:v>
+                  <c:v>MAG</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -322,7 +322,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HammingWindow</c:v>
+                  <c:v>HW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -360,7 +360,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NormalizedAudioSpectrumEnvelope</c:v>
+                  <c:v>NASE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -389,11 +389,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83180160"/>
-        <c:axId val="83194240"/>
+        <c:axId val="48907392"/>
+        <c:axId val="48908928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83180160"/>
+        <c:axId val="48907392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -401,14 +401,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83194240"/>
+        <c:crossAx val="48908928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83194240"/>
+        <c:axId val="48908928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -430,22 +430,37 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83180160"/>
+        <c:crossAx val="48907392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -511,41 +526,384 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83231104"/>
-        <c:axId val="83232640"/>
+        <c:axId val="48933504"/>
+        <c:axId val="48943488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83231104"/>
+        <c:axId val="48933504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83232640"/>
+        <c:crossAx val="48943488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83232640"/>
+        <c:axId val="48943488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitmessung in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83231104"/>
+        <c:crossAx val="48933504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>102.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>101.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>302.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="56131968"/>
+        <c:axId val="56133504"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56131968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56133504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="56133504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitmessung in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56131968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -608,6 +966,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752474</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -903,8 +1291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -938,7 +1326,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -969,7 +1357,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>691.68</v>
@@ -995,7 +1383,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>42.27</v>
@@ -1021,7 +1409,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>39.01</v>
@@ -1047,7 +1435,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>20.86</v>
@@ -1073,7 +1461,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>80.28</v>
@@ -1099,7 +1487,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -1151,10 +1539,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1188,12 +1576,12 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>47.08</v>
@@ -1245,7 +1633,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1384.26</v>
@@ -1271,7 +1659,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>160.32</v>
@@ -1297,7 +1685,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6">
         <v>32.590000000000003</v>
@@ -1323,7 +1711,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7">
         <v>351.69</v>
@@ -1349,7 +1737,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -1386,8 +1774,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>17</v>
+      <c r="A14" t="str">
+        <f>A2</f>
+        <v>HW</v>
       </c>
       <c r="B14">
         <f>D2/$D$9*100</f>
@@ -1395,47 +1784,52 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>10</v>
+      <c r="A15" t="str">
+        <f t="shared" ref="A15:A19" si="1">A3</f>
+        <v>FFT</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B19" si="1">D3/$D$9*100</f>
+        <f t="shared" ref="B15:B19" si="2">D3/$D$9*100</f>
         <v>58.591443634822838</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>11</v>
+      <c r="A16" t="str">
+        <f t="shared" si="1"/>
+        <v>MAG</v>
       </c>
       <c r="B16">
+        <f t="shared" si="2"/>
+        <v>7.1032140202690979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="str">
         <f t="shared" si="1"/>
-        <v>7.1032140202690979</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" t="s">
-        <v>15</v>
+        <v>MFCC</v>
       </c>
       <c r="B17">
+        <f t="shared" si="2"/>
+        <v>7.0650097594520815</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="str">
         <f t="shared" si="1"/>
-        <v>7.0650097594520815</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" t="s">
-        <v>18</v>
+        <v>NASE</v>
       </c>
       <c r="B18">
+        <f t="shared" si="2"/>
+        <v>2.0289935608454952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="str">
         <f t="shared" si="1"/>
-        <v>2.0289935608454952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>19</v>
+        <v>OSC</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.016511186902193</v>
       </c>
     </row>
@@ -1451,11 +1845,11 @@
         <v>Libav ARM</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" ref="C24:D24" si="2">F1</f>
+        <f t="shared" ref="C24:D24" si="3">F1</f>
         <v>Libav VFP</v>
       </c>
       <c r="D24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>Libav NEON</v>
       </c>
     </row>
@@ -1474,6 +1868,72 @@
       <c r="D25">
         <f>G3</f>
         <v>41.96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="str">
+        <f>G1</f>
+        <v>Libav NEON</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="str">
+        <f>A2</f>
+        <v>HW</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:B36" si="4">G2</f>
+        <v>60.39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:A36" si="5">A3</f>
+        <v>FFT</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>41.96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="str">
+        <f t="shared" si="5"/>
+        <v>MAG</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>102.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="str">
+        <f t="shared" si="5"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>101.71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="str">
+        <f t="shared" si="5"/>
+        <v>NASE</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>29.21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="str">
+        <f t="shared" si="5"/>
+        <v>OSC</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>302.56</v>
       </c>
     </row>
   </sheetData>
@@ -1488,7 +1948,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1522,7 +1982,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1605,7 +2065,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
@@ -1646,7 +2106,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1680,7 +2140,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1711,7 +2171,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>691.93</v>
@@ -1841,7 +2301,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -1881,8 +2341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1909,8 +2369,9 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2" t="str">
+        <f>'ARM MCL1'!A2</f>
+        <v>FFT</v>
       </c>
       <c r="B2">
         <v>93.619</v>
@@ -1926,8 +2387,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A3" t="str">
+        <f>'ARM MCL1'!A3</f>
+        <v>MAG</v>
       </c>
       <c r="B3">
         <v>431.86799999999999</v>
@@ -1943,8 +2405,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>12</v>
+      <c r="A4" t="str">
+        <f>'ARM MCL1'!A4</f>
+        <v>SC</v>
       </c>
       <c r="B4">
         <v>2.5019999999999998</v>
@@ -1960,8 +2423,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>13</v>
+      <c r="A5" t="str">
+        <f>'ARM MCL1'!A5</f>
+        <v>SR</v>
       </c>
       <c r="B5">
         <v>3.1960000000000002</v>
@@ -1973,12 +2437,13 @@
         <v>3.1960000000000002</v>
       </c>
       <c r="E5">
-        <v>1.732</v>
+        <v>3.1960000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>14</v>
+      <c r="A6" t="str">
+        <f>'ARM MCL1'!A6</f>
+        <v>SF</v>
       </c>
       <c r="B6">
         <v>2.355</v>
@@ -1994,25 +2459,26 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>15</v>
+      <c r="A7" t="str">
+        <f>'ARM MCL1'!A7</f>
+        <v>MFCC</v>
       </c>
       <c r="B7">
         <v>46.320999999999998</v>
       </c>
       <c r="C7">
-        <v>46.325000000000003</v>
+        <v>15.096</v>
       </c>
       <c r="D7">
-        <v>46.325000000000003</v>
+        <v>15.096</v>
       </c>
       <c r="E7">
-        <v>15.429</v>
+        <v>15.096</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -2020,15 +2486,15 @@
       </c>
       <c r="C9">
         <f t="shared" ref="C9:E9" si="0">SUM(C2:C7)</f>
-        <v>156.53800000000001</v>
+        <v>125.30900000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>92.855999999999995</v>
+        <v>61.626999999999995</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>60.492999999999995</v>
+        <v>61.623999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -2041,7 +2507,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2068,8 +2534,9 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>17</v>
+      <c r="A2" t="str">
+        <f>'ARM MCL 2'!A2</f>
+        <v>HW</v>
       </c>
       <c r="B2">
         <v>2.714</v>
@@ -2085,8 +2552,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>10</v>
+      <c r="A3" t="str">
+        <f>'ARM MCL 2'!A3</f>
+        <v>FFT</v>
       </c>
       <c r="B3">
         <v>186.87299999999999</v>
@@ -2102,8 +2570,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>11</v>
+      <c r="A4" t="str">
+        <f>'ARM MCL 2'!A4</f>
+        <v>MAG</v>
       </c>
       <c r="B4">
         <v>863.40200000000004</v>
@@ -2119,25 +2588,27 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>15</v>
+      <c r="A5" t="str">
+        <f>'ARM MCL 2'!A5</f>
+        <v>MFCC</v>
       </c>
       <c r="B5">
         <v>92.701999999999998</v>
       </c>
       <c r="C5">
-        <v>92.623000000000005</v>
+        <v>30.175999999999998</v>
       </c>
       <c r="D5">
-        <v>92.623000000000005</v>
+        <v>30.175999999999998</v>
       </c>
       <c r="E5">
-        <v>30.84</v>
+        <v>30.175999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>18</v>
+      <c r="A6" t="str">
+        <f>'ARM MCL 2'!A6</f>
+        <v>NASE</v>
       </c>
       <c r="B6">
         <v>22.74</v>
@@ -2153,8 +2624,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>19</v>
+      <c r="A7" t="str">
+        <f>'ARM MCL 2'!A7</f>
+        <v>OSC</v>
       </c>
       <c r="B7">
         <v>189.47900000000001</v>
@@ -2171,7 +2643,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -2179,15 +2651,15 @@
       </c>
       <c r="C9">
         <f t="shared" ref="C9:E9" si="0">SUM(C2:C7)</f>
-        <v>397.221</v>
+        <v>334.774</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>259.58199999999999</v>
+        <v>197.13499999999999</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>197.79599999999999</v>
+        <v>197.13200000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2200,7 +2672,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2227,8 +2699,9 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>21</v>
+      <c r="A2" t="str">
+        <f>'ARM MCL3'!A2</f>
+        <v>ZCR</v>
       </c>
       <c r="B2">
         <v>25.626000000000001</v>
@@ -2244,8 +2717,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>22</v>
+      <c r="A3" t="str">
+        <f>'ARM MCL3'!A3</f>
+        <v>RMS</v>
       </c>
       <c r="B3">
         <v>384.822</v>
@@ -2261,8 +2735,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>23</v>
+      <c r="A4" t="str">
+        <f>'ARM MCL3'!A4</f>
+        <v>LE</v>
       </c>
       <c r="B4">
         <v>2.2789999999999999</v>
@@ -2279,7 +2754,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
@@ -2308,7 +2783,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2335,8 +2810,9 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
+      <c r="A2" t="str">
+        <f>'ARM MCL4'!A2</f>
+        <v>FFT</v>
       </c>
       <c r="B2">
         <v>93.498999999999995</v>
@@ -2352,8 +2828,9 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>11</v>
+      <c r="A3" t="str">
+        <f>'ARM MCL4'!A3</f>
+        <v>MAG</v>
       </c>
       <c r="B3">
         <v>431.86799999999999</v>
@@ -2369,8 +2846,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>24</v>
+      <c r="A4" t="str">
+        <f>'ARM MCL4'!A4</f>
+        <v>SCF</v>
       </c>
       <c r="B4">
         <v>3.9140000000000001</v>
@@ -2386,8 +2864,9 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>25</v>
+      <c r="A5" t="str">
+        <f>'ARM MCL4'!A5</f>
+        <v>SBER</v>
       </c>
       <c r="B5">
         <v>6.6509999999999998</v>
@@ -2403,8 +2882,9 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>26</v>
+      <c r="A6" t="str">
+        <f>'ARM MCL4'!A6</f>
+        <v>CV</v>
       </c>
       <c r="B6">
         <v>6.3630000000000004</v>
@@ -2420,8 +2900,9 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>27</v>
+      <c r="A7" t="str">
+        <f>'ARM MCL4'!A7</f>
+        <v>AOMIC</v>
       </c>
       <c r="B7">
         <v>0.61699999999999999</v>
@@ -2438,7 +2919,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -7,21 +7,22 @@
     <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="ARM MCL1" sheetId="1" r:id="rId1"/>
-    <sheet name="ARM MCL 2" sheetId="2" r:id="rId2"/>
-    <sheet name="ARM MCL3" sheetId="3" r:id="rId3"/>
-    <sheet name="ARM MCL4" sheetId="8" r:id="rId4"/>
-    <sheet name="DSP MCL1" sheetId="4" r:id="rId5"/>
-    <sheet name="DSP MCL2" sheetId="5" r:id="rId6"/>
-    <sheet name="DSP MCL3" sheetId="6" r:id="rId7"/>
-    <sheet name="DSP MCL4" sheetId="7" r:id="rId8"/>
+    <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
+    <sheet name="ARM MCL1" sheetId="1" r:id="rId2"/>
+    <sheet name="ARM MCL 2" sheetId="2" r:id="rId3"/>
+    <sheet name="ARM MCL3" sheetId="3" r:id="rId4"/>
+    <sheet name="ARM MCL4" sheetId="8" r:id="rId5"/>
+    <sheet name="DSP MCL1" sheetId="4" r:id="rId6"/>
+    <sheet name="DSP MCL2" sheetId="5" r:id="rId7"/>
+    <sheet name="DSP MCL3" sheetId="6" r:id="rId8"/>
+    <sheet name="DSP MCL4" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
   <si>
     <t>DSP</t>
   </si>
@@ -57,9 +58,6 @@
   </si>
   <si>
     <t>MFCC</t>
-  </si>
-  <si>
-    <t>Libav NEON + NEON Opt</t>
   </si>
   <si>
     <t>Gesamt</t>
@@ -105,6 +103,12 @@
   </si>
   <si>
     <t>AOMIC</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
+  <si>
+    <t>Libav NEON + Handopt.</t>
   </si>
 </sst>
 </file>
@@ -154,7 +158,190 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$C$2:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.639597834493426E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2242846094354215E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4470224284609439E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3201856148491878E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3361702127659575E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299806576402321E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11704448742746615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9118329466357307E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5290023201856148E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6040216550657389E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5127610208816705E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3689095127610209E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4795050270688321E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6395978344934262E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="71616000"/>
+        <c:axId val="70471680"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="71616000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="70471680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70471680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71616000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -162,253 +349,135 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$A$15</c:f>
+              <c:f>'Feature Überblick'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FFT</c:v>
+                  <c:v>ARM+NEON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ARM MCL 2'!$B$15</c:f>
+              <c:f>'Feature Überblick'!$B$22:$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>58.591443634822838</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31547563805104412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.817478731631864E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3361702127659575E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$A$19</c:f>
+              <c:f>'Feature Überblick'!$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OSC</c:v>
+                  <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ARM MCL 2'!$B$19</c:f>
+              <c:f>'Feature Überblick'!$C$22:$C$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>21.016511186902193</c:v>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.639597834493426E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9110595514307813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9013539651837522E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7.1032140202690979</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>7.0650097594520815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.1948278377083001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.0289935608454952</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="48907392"/>
-        <c:axId val="48908928"/>
+        <c:axId val="78333824"/>
+        <c:axId val="78335360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48907392"/>
+        <c:axId val="78333824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="48908928"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="78335360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48908928"/>
+        <c:axId val="78335360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -425,7 +494,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitanteil in [%]</a:t>
+                  <a:t>Lauftzeit in [ms/Fenster]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -434,450 +503,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48907392"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$24:$D$24</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Libav ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Libav VFP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$25:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1263.3800000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>373.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="48933504"/>
-        <c:axId val="48943488"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="48933504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48943488"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="48943488"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitmessung in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48933504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>41.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>102.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>101.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>302.56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="56131968"/>
-        <c:axId val="56133504"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="56131968"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56133504"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="56133504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitmessung in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56131968"/>
+        <c:crossAx val="78333824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,7 +535,830 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>58.591443634822838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.016511186902193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.1032140202690979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.0650097594520815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.1948278377083001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0289935608454952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75294976"/>
+        <c:axId val="75460608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75294976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="75460608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75460608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitanteil in [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75294976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Libav ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Libav VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1263.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="75476992"/>
+        <c:axId val="75478528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75476992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75478528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75478528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitmessung in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75476992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>102.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>101.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>302.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="43094784"/>
+        <c:axId val="43096320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="43094784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43096320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="43096320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitmessung in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="43094784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1289,10 +1738,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="str">
+        <f>'ARM MCL1'!D1</f>
+        <v>ARM+NEON</v>
+      </c>
+      <c r="C1" t="str">
+        <f>'ARM MCL1'!G1</f>
+        <v>Libav NEON</v>
+      </c>
+      <c r="D1" t="str">
+        <f>'ARM MCL1'!H1</f>
+        <v>Libav NEON + Handopt.</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="str">
+        <f>'ARM MCL1'!A2</f>
+        <v>FFT</v>
+      </c>
+      <c r="B2">
+        <f>'ARM MCL1'!D2/1293</f>
+        <v>0.31547563805104412</v>
+      </c>
+      <c r="C2">
+        <f>'ARM MCL1'!G2/1293</f>
+        <v>1.639597834493426E-2</v>
+      </c>
+      <c r="D2">
+        <f>'ARM MCL1'!H2/1293</f>
+        <v>1.639597834493426E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="str">
+        <f>'ARM MCL1'!A3</f>
+        <v>MAG</v>
+      </c>
+      <c r="B3">
+        <f>'ARM MCL1'!D3/1293</f>
+        <v>3.848414539829853E-2</v>
+      </c>
+      <c r="C3">
+        <f>'ARM MCL1'!G3/1293</f>
+        <v>3.848414539829853E-2</v>
+      </c>
+      <c r="D3">
+        <f>'ARM MCL1'!H3/1293</f>
+        <v>1.9110595514307813E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="str">
+        <f>'ARM MCL1'!A4</f>
+        <v>SC</v>
+      </c>
+      <c r="B4">
+        <f>'ARM MCL1'!D4/1293</f>
+        <v>1.2242846094354215E-2</v>
+      </c>
+      <c r="C4">
+        <f>'ARM MCL1'!G4/1293</f>
+        <v>1.2242846094354215E-2</v>
+      </c>
+      <c r="D4">
+        <f>'ARM MCL1'!H4/1293</f>
+        <v>1.2242846094354215E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="str">
+        <f>'ARM MCL1'!A5</f>
+        <v>SR</v>
+      </c>
+      <c r="B5">
+        <f>'ARM MCL1'!D5/1293</f>
+        <v>4.4470224284609439E-3</v>
+      </c>
+      <c r="C5">
+        <f>'ARM MCL1'!G5/1293</f>
+        <v>4.4470224284609439E-3</v>
+      </c>
+      <c r="D5">
+        <f>'ARM MCL1'!H5/1293</f>
+        <v>4.4470224284609439E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="str">
+        <f>'ARM MCL1'!A6</f>
+        <v>SF</v>
+      </c>
+      <c r="B6">
+        <f>'ARM MCL1'!D6/1293</f>
+        <v>2.3201856148491878E-3</v>
+      </c>
+      <c r="C6">
+        <f>'ARM MCL1'!G6/1293</f>
+        <v>2.3201856148491878E-3</v>
+      </c>
+      <c r="D6">
+        <f>'ARM MCL1'!H6/1293</f>
+        <v>2.3201856148491878E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="str">
+        <f>'ARM MCL1'!A7</f>
+        <v>MFCC</v>
+      </c>
+      <c r="B7">
+        <f>'ARM MCL1'!D7/1293</f>
+        <v>3.817478731631864E-2</v>
+      </c>
+      <c r="C7">
+        <f>'ARM MCL1'!G7/1293</f>
+        <v>3.1848414539829853E-2</v>
+      </c>
+      <c r="D7">
+        <f>'ARM MCL1'!H7/1293</f>
+        <v>3.1848414539829853E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="str">
+        <f>'ARM MCL 2'!A2</f>
+        <v>HW</v>
+      </c>
+      <c r="B8">
+        <f>'ARM MCL 2'!D2/2585</f>
+        <v>2.3361702127659575E-2</v>
+      </c>
+      <c r="C8">
+        <f>'ARM MCL 2'!G2/2585</f>
+        <v>2.3361702127659575E-2</v>
+      </c>
+      <c r="D8">
+        <f>'ARM MCL 2'!H2/2585</f>
+        <v>6.9013539651837522E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="str">
+        <f>'ARM MCL 2'!A6</f>
+        <v>NASE</v>
+      </c>
+      <c r="B9">
+        <f>'ARM MCL 2'!D6/2585</f>
+        <v>1.1299806576402321E-2</v>
+      </c>
+      <c r="C9">
+        <f>'ARM MCL 2'!G6/2585</f>
+        <v>1.1299806576402321E-2</v>
+      </c>
+      <c r="D9">
+        <f>'ARM MCL 2'!H6/2585</f>
+        <v>1.1961315280464218E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="str">
+        <f>'ARM MCL 2'!A7</f>
+        <v>OSC</v>
+      </c>
+      <c r="B10">
+        <f>'ARM MCL 2'!D7/2585</f>
+        <v>0.11704448742746615</v>
+      </c>
+      <c r="C10">
+        <f>'ARM MCL 2'!G7/2585</f>
+        <v>0.11704448742746615</v>
+      </c>
+      <c r="D10">
+        <f>'ARM MCL 2'!H7/2585</f>
+        <v>0.11659187620889748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="str">
+        <f>'ARM MCL3'!A2</f>
+        <v>ZCR</v>
+      </c>
+      <c r="B11">
+        <f>'ARM MCL3'!D2/1293</f>
+        <v>3.9118329466357307E-2</v>
+      </c>
+      <c r="C11">
+        <f>'ARM MCL3'!G2/1293</f>
+        <v>3.9118329466357307E-2</v>
+      </c>
+      <c r="D11">
+        <f>'ARM MCL3'!H2/1293</f>
+        <v>3.9118329466357307E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="str">
+        <f>'ARM MCL3'!A3</f>
+        <v>RMS</v>
+      </c>
+      <c r="B12">
+        <f>'ARM MCL3'!D3/1293</f>
+        <v>2.5290023201856148E-3</v>
+      </c>
+      <c r="C12">
+        <f>'ARM MCL3'!G3/1293</f>
+        <v>2.5290023201856148E-3</v>
+      </c>
+      <c r="D12">
+        <f>'ARM MCL3'!H3/1293</f>
+        <v>2.5290023201856148E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="str">
+        <f>'ARM MCL3'!A4</f>
+        <v>LE</v>
+      </c>
+      <c r="B13">
+        <f>'ARM MCL3'!D4/1293</f>
+        <v>3.6040216550657389E-3</v>
+      </c>
+      <c r="C13">
+        <f>'ARM MCL3'!G4/1293</f>
+        <v>3.6040216550657389E-3</v>
+      </c>
+      <c r="D13">
+        <f>'ARM MCL3'!H4/1293</f>
+        <v>3.6040216550657389E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="str">
+        <f>'ARM MCL4'!A4</f>
+        <v>SCF</v>
+      </c>
+      <c r="B14">
+        <f>'ARM MCL4'!D4/1293</f>
+        <v>9.5127610208816705E-4</v>
+      </c>
+      <c r="C14">
+        <f>'ARM MCL4'!G4/1293</f>
+        <v>9.5127610208816705E-4</v>
+      </c>
+      <c r="D14">
+        <f>'ARM MCL4'!H4/1293</f>
+        <v>1.0440835266821347E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="str">
+        <f>'ARM MCL4'!A5</f>
+        <v>SBER</v>
+      </c>
+      <c r="B15">
+        <f>'ARM MCL4'!D5/1293</f>
+        <v>1.3689095127610209E-3</v>
+      </c>
+      <c r="C15">
+        <f>'ARM MCL4'!G5/1293</f>
+        <v>1.3689095127610209E-3</v>
+      </c>
+      <c r="D15">
+        <f>'ARM MCL4'!H5/1293</f>
+        <v>1.4462490332559938E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="str">
+        <f>'ARM MCL4'!A6</f>
+        <v>CV</v>
+      </c>
+      <c r="B16">
+        <f>'ARM MCL4'!D6/1293</f>
+        <v>1.4795050270688321E-2</v>
+      </c>
+      <c r="C16">
+        <f>'ARM MCL4'!G6/1293</f>
+        <v>1.4795050270688321E-2</v>
+      </c>
+      <c r="D16">
+        <f>'ARM MCL4'!H6/1293</f>
+        <v>1.5212683681361177E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="str">
+        <f>'ARM MCL4'!A7</f>
+        <v>AOMIC</v>
+      </c>
+      <c r="B17">
+        <f>'ARM MCL4'!D7/1293</f>
+        <v>1.6395978344934262E-3</v>
+      </c>
+      <c r="C17">
+        <f>'ARM MCL4'!G7/1293</f>
+        <v>1.6395978344934262E-3</v>
+      </c>
+      <c r="D17">
+        <f>'ARM MCL4'!H7/1293</f>
+        <v>1.5313225058004641E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="str">
+        <f>B1</f>
+        <v>ARM+NEON</v>
+      </c>
+      <c r="C21" t="str">
+        <f>D1</f>
+        <v>Libav NEON + Handopt.</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="str">
+        <f>A2</f>
+        <v>FFT</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:C22" si="0">B2</f>
+        <v>0.31547563805104412</v>
+      </c>
+      <c r="C22">
+        <f>D2</f>
+        <v>1.639597834493426E-2</v>
+      </c>
+      <c r="D22">
+        <f>B22/C22</f>
+        <v>19.241037735849059</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="str">
+        <f>A3</f>
+        <v>MAG</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ref="B23:C23" si="1">B3</f>
+        <v>3.848414539829853E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:C25" si="2">D3</f>
+        <v>1.9110595514307813E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:D25" si="3">B23/C23</f>
+        <v>2.0137596114933225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="str">
+        <f>A7</f>
+        <v>MFCC</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:C24" si="4">B7</f>
+        <v>3.817478731631864E-2</v>
+      </c>
+      <c r="C24">
+        <f>D7</f>
+        <v>3.1848414539829853E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="3"/>
+        <v>1.1986401165614375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="str">
+        <f>A8</f>
+        <v>HW</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:C25" si="5">B8</f>
+        <v>2.3361702127659575E-2</v>
+      </c>
+      <c r="C25">
+        <f>D8</f>
+        <v>6.9013539651837522E-3</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>3.385089686098655</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1326,7 +2183,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1357,7 +2214,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>691.68</v>
@@ -1383,7 +2240,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>42.27</v>
@@ -1409,7 +2266,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>39.01</v>
@@ -1435,7 +2292,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>20.86</v>
@@ -1482,12 +2339,12 @@
         <v>41.18</v>
       </c>
       <c r="H7">
-        <v>49.36</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -1515,7 +2372,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>119.85</v>
+        <v>111.66999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1537,12 +2394,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1576,12 +2433,12 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>47.08</v>
@@ -1633,7 +2490,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <v>1384.26</v>
@@ -1685,7 +2542,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>32.590000000000003</v>
@@ -1711,7 +2568,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <v>351.69</v>
@@ -1737,7 +2594,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -1766,6 +2623,12 @@
       <c r="H9">
         <f t="shared" si="0"/>
         <v>524.67000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="C11">
+        <f>D9/H9</f>
+        <v>2.7438771037032796</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1943,12 +2806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1982,118 +2845,130 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2">
-        <v>107.75</v>
+        <v>88.34</v>
       </c>
       <c r="C2">
-        <v>53.97</v>
+        <v>50.53</v>
       </c>
       <c r="D2">
-        <v>52.51</v>
+        <v>50.58</v>
       </c>
       <c r="E2">
-        <v>107.75</v>
+        <f>B2</f>
+        <v>88.34</v>
       </c>
       <c r="F2">
-        <v>53.97</v>
+        <f>C2</f>
+        <v>50.53</v>
       </c>
       <c r="G2">
-        <v>52.51</v>
+        <f>$D$2</f>
+        <v>50.58</v>
       </c>
       <c r="H2">
-        <v>50.36</v>
+        <f>$D$2</f>
+        <v>50.58</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
-        <v>58.77</v>
+        <v>46.42</v>
       </c>
       <c r="C3">
-        <v>24.91</v>
+        <v>18.04</v>
       </c>
       <c r="D3">
-        <v>3.8</v>
+        <v>3.27</v>
       </c>
       <c r="E3">
-        <v>58.77</v>
+        <f t="shared" ref="E3:E4" si="0">B3</f>
+        <v>46.42</v>
       </c>
       <c r="F3">
-        <v>24.91</v>
+        <f t="shared" ref="F3:F4" si="1">C3</f>
+        <v>18.04</v>
       </c>
       <c r="G3">
-        <v>3.8</v>
+        <f>$D$3</f>
+        <v>3.27</v>
       </c>
       <c r="H3">
-        <v>4.01</v>
+        <f>$D$3</f>
+        <v>3.27</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
-        <v>9.5299999999999994</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="C4">
-        <v>6.57</v>
+        <v>6.71</v>
       </c>
       <c r="D4">
-        <v>4.5999999999999996</v>
+        <v>4.66</v>
       </c>
       <c r="E4">
-        <v>9.5299999999999994</v>
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F4">
-        <v>6.57</v>
+        <f t="shared" si="1"/>
+        <v>6.71</v>
       </c>
       <c r="G4">
-        <v>4.5999999999999996</v>
+        <f>$D$4</f>
+        <v>4.66</v>
       </c>
       <c r="H4">
-        <v>4.83</v>
+        <f>$D$4</f>
+        <v>4.66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
-        <v>176.05</v>
+        <v>143.95999999999998</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:H6" si="0">SUM(C2:C4)</f>
-        <v>85.449999999999989</v>
+        <f t="shared" ref="C6:H6" si="2">SUM(C2:C4)</f>
+        <v>75.279999999999987</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>60.91</v>
+        <f t="shared" si="2"/>
+        <v>58.510000000000005</v>
       </c>
       <c r="E6">
-        <f t="shared" si="0"/>
-        <v>176.05</v>
+        <f t="shared" si="2"/>
+        <v>143.95999999999998</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>85.449999999999989</v>
+        <f t="shared" si="2"/>
+        <v>75.279999999999987</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>60.91</v>
+        <f t="shared" si="2"/>
+        <v>58.510000000000005</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
-        <v>59.199999999999996</v>
+        <f t="shared" si="2"/>
+        <v>58.510000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2101,12 +2976,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2140,7 +3015,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2171,7 +3046,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>691.93</v>
@@ -2197,7 +3072,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>10.24</v>
@@ -2223,7 +3098,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>24.44</v>
@@ -2249,7 +3124,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6">
         <v>13.15</v>
@@ -2275,7 +3150,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>2.68</v>
@@ -2301,7 +3176,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -2337,11 +3212,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2478,7 +3353,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -2502,7 +3377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2643,7 +3518,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>
@@ -2667,12 +3542,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2722,7 +3597,7 @@
         <v>RMS</v>
       </c>
       <c r="B3">
-        <v>384.822</v>
+        <v>4.665</v>
       </c>
       <c r="C3">
         <v>3.5129999999999999</v>
@@ -2754,11 +3629,11 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <f>SUM(B2:B4)</f>
-        <v>412.72699999999998</v>
+        <v>32.57</v>
       </c>
       <c r="C6">
         <f>SUM(C2:C4)</f>
@@ -2778,7 +3653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -2919,7 +3794,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <f>SUM(B2:B7)</f>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -172,11 +172,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
+              <c:f>'Feature Überblick'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -239,80 +239,80 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$C$2:$C$17</c:f>
+              <c:f>'Feature Überblick'!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.639597834493426E-2</c:v>
+                  <c:v>7.2404485692188714E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.848414539829853E-2</c:v>
+                  <c:v>0.33400464037122968</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2242846094354215E-2</c:v>
+                  <c:v>1.9350348027842225E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4470224284609439E-3</c:v>
+                  <c:v>2.4717710750193351E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3201856148491878E-3</c:v>
+                  <c:v>1.8213457076566126E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1848414539829853E-2</c:v>
+                  <c:v>3.5824439288476409E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3361702127659575E-2</c:v>
+                  <c:v>1.0499032882011605E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1299806576402321E-2</c:v>
+                  <c:v>8.7969052224371371E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11704448742746615</c:v>
+                  <c:v>7.3299419729206963E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9118329466357307E-2</c:v>
+                  <c:v>1.9819025522041765E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5290023201856148E-3</c:v>
+                  <c:v>3.6078886310904872E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6040216550657389E-3</c:v>
+                  <c:v>1.762567672080433E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5127610208816705E-4</c:v>
+                  <c:v>3.0270688321732409E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3689095127610209E-3</c:v>
+                  <c:v>5.1438515081206494E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4795050270688321E-2</c:v>
+                  <c:v>4.9211136890951277E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6395978344934262E-3</c:v>
+                  <c:v>4.7718484145398301E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="71616000"/>
-        <c:axId val="70471680"/>
+        <c:axId val="87110016"/>
+        <c:axId val="87111552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71616000"/>
+        <c:axId val="87110016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70471680"/>
+        <c:crossAx val="87111552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70471680"/>
+        <c:axId val="87111552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,7 +320,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71616000"/>
+        <c:crossAx val="87110016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -333,7 +333,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -460,24 +460,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78333824"/>
-        <c:axId val="78335360"/>
+        <c:axId val="87137664"/>
+        <c:axId val="87143552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78333824"/>
+        <c:axId val="87137664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78335360"/>
+        <c:crossAx val="87143552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78335360"/>
+        <c:axId val="87143552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,1681 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78333824"/>
+        <c:crossAx val="87137664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$30:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SBER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$30:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>72.404485692188715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334.0046403712297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9350348027842226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8213457076566126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.824439288476412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7969052224371378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.29941972920696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.819025522041766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6078886310904874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7625676720804331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0270688321732409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1438515081206493</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$30:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SBER</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$C$30:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18.856148491879349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.538283062645013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3820572312451662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7362722351121422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.675174013921115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9288201160541587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.168278529980661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5699922660479504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7169373549883988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73859242072699149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4006187161639596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9311678267594741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="55908992"/>
+        <c:axId val="55939456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="55908992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55939456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="55939456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [µs/Fenster]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="55908992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>58.591443634822838</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>21.016511186902193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.1032140202690979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.0650097594520815</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4.1948278377083001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.0289935608454952</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="93291648"/>
+        <c:axId val="93293184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93291648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="93293184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93293184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitanteil in [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93291648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Libav ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Libav VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$25:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1263.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="93309184"/>
+        <c:axId val="93315072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93309184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93315072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93315072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitmessung in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93309184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>41.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>102.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>101.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.21</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>302.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="92895872"/>
+        <c:axId val="92901760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="92895872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92901760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92901760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitmessung in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="92895872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>63.58315352269296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.761810429262617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.953723000787976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.8268147373537271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6746323394039369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19986597049878119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="93438336"/>
+        <c:axId val="93439872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93438336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="93439872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93439872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitanteile in [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93438336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>186.87700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.156000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7440000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="93452160"/>
+        <c:axId val="93453696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="93452160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="93453696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="93453696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="93452160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -535,10 +2209,9 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
-  <c:style val="18"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -546,76 +2219,114 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
+              <c:f>'DSP MCL2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ARM MCL 2'!$B$15</c:f>
+              <c:f>'DSP MCL2'!$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58.591443634822838</c:v>
+                  <c:v>85.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
+              <c:f>'DSP MCL2'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZCR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ARM MCL 2'!$B$19</c:f>
+              <c:f>'DSP MCL2'!$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21.016511186902193</c:v>
+                  <c:v>51.246175560711528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48.723999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -623,10 +2334,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$A$16</c:f>
+              <c:f>'DSP MCL2'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -637,23 +2348,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ARM MCL 2'!$B$16</c:f>
+              <c:f>'DSP MCL2'!$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.1032140202690979</c:v>
+                  <c:v>29.673999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -661,10 +2372,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$A$17</c:f>
+              <c:f>'DSP MCL2'!$A$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,61 +2386,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ARM MCL 2'!$B$17</c:f>
+              <c:f>'DSP MCL2'!$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.0650097594520815</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>4.1948278377083001</c:v>
+                  <c:v>30.175999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -740,7 +2413,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$A$18</c:f>
+              <c:f>'DSP MCL2'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -751,48 +2424,84 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'ARM MCL 2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'ARM MCL 2'!$B$18</c:f>
+              <c:f>'DSP MCL2'!$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0289935608454952</c:v>
+                  <c:v>10.156000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="75294976"/>
-        <c:axId val="75460608"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4470000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="79664256"/>
+        <c:axId val="81030528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="75294976"/>
+        <c:axId val="79664256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="75460608"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81030528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75460608"/>
+        <c:axId val="81030528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -809,7 +2518,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitanteil in [%]</a:t>
+                  <a:t>Laufzeit in [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -818,7 +2527,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75294976"/>
+        <c:crossAx val="79664256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -844,450 +2553,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$24:$D$24</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Libav ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Libav VFP</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$25:$D$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1263.3800000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>373.07</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>41.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="75476992"/>
-        <c:axId val="75478528"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="75476992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75478528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75478528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitmessung in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75476992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60.39</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>41.96</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>102.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>101.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'ARM MCL 2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'ARM MCL 2'!$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>302.56</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="43094784"/>
-        <c:axId val="43096320"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="43094784"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43096320"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="43096320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitmessung in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43094784"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1350,6 +2616,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1432,6 +2728,101 @@
       <xdr:colOff>752474</xdr:colOff>
       <xdr:row>65</xdr:row>
       <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1738,10 +3129,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1750,7 +3141,7 @@
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" t="str">
         <f>'ARM MCL1'!D1</f>
         <v>ARM+NEON</v>
@@ -1763,8 +3154,16 @@
         <f>'ARM MCL1'!H1</f>
         <v>Libav NEON + Handopt.</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="str">
+        <f>'DSP MCL1'!B1</f>
+        <v>DSP</v>
+      </c>
+      <c r="F1" t="str">
+        <f>'DSP MCL1'!E1</f>
+        <v>MATHLIB+DSPLIB+SPLOOP</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>'ARM MCL1'!A2</f>
         <v>FFT</v>
@@ -1781,8 +3180,16 @@
         <f>'ARM MCL1'!H2/1293</f>
         <v>1.639597834493426E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>'DSP MCL1'!B2/1293</f>
+        <v>7.2404485692188714E-2</v>
+      </c>
+      <c r="F2">
+        <f>'DSP MCL1'!E2/1293</f>
+        <v>1.8856148491879349E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>'ARM MCL1'!A3</f>
         <v>MAG</v>
@@ -1799,8 +3206,16 @@
         <f>'ARM MCL1'!H3/1293</f>
         <v>1.9110595514307813E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f>'DSP MCL1'!B3/1293</f>
+        <v>0.33400464037122968</v>
+      </c>
+      <c r="F3">
+        <f>'DSP MCL1'!E3/1293</f>
+        <v>1.1538283062645012E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>'ARM MCL1'!A4</f>
         <v>SC</v>
@@ -1817,8 +3232,16 @@
         <f>'ARM MCL1'!H4/1293</f>
         <v>1.2242846094354215E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f>'DSP MCL1'!B4/1293</f>
+        <v>1.9350348027842225E-3</v>
+      </c>
+      <c r="F4">
+        <f>'DSP MCL1'!E4/1293</f>
+        <v>1.3820572312451661E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f>'ARM MCL1'!A5</f>
         <v>SR</v>
@@ -1835,8 +3258,16 @@
         <f>'ARM MCL1'!H5/1293</f>
         <v>4.4470224284609439E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f>'DSP MCL1'!B5/1293</f>
+        <v>2.4717710750193351E-3</v>
+      </c>
+      <c r="F5">
+        <f>'DSP MCL1'!E5/1293</f>
+        <v>2.4717710750193351E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f>'ARM MCL1'!A6</f>
         <v>SF</v>
@@ -1853,8 +3284,16 @@
         <f>'ARM MCL1'!H6/1293</f>
         <v>2.3201856148491878E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f>'DSP MCL1'!B6/1293</f>
+        <v>1.8213457076566126E-3</v>
+      </c>
+      <c r="F6">
+        <f>'DSP MCL1'!E6/1293</f>
+        <v>1.7362722351121423E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f>'ARM MCL1'!A7</f>
         <v>MFCC</v>
@@ -1871,8 +3310,16 @@
         <f>'ARM MCL1'!H7/1293</f>
         <v>3.1848414539829853E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f>'DSP MCL1'!B7/1293</f>
+        <v>3.5824439288476409E-2</v>
+      </c>
+      <c r="F7">
+        <f>'DSP MCL1'!E7/1293</f>
+        <v>1.1675174013921114E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="str">
         <f>'ARM MCL 2'!A2</f>
         <v>HW</v>
@@ -1889,8 +3336,16 @@
         <f>'ARM MCL 2'!H2/2585</f>
         <v>6.9013539651837522E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f>'DSP MCL2'!B2/2585</f>
+        <v>1.0499032882011605E-3</v>
+      </c>
+      <c r="F8">
+        <f>'DSP MCL2'!E2/2585</f>
+        <v>1.3342359767891682E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="str">
         <f>'ARM MCL 2'!A6</f>
         <v>NASE</v>
@@ -1907,8 +3362,16 @@
         <f>'ARM MCL 2'!H6/2585</f>
         <v>1.1961315280464218E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f>'DSP MCL2'!B6/2585</f>
+        <v>8.7969052224371371E-3</v>
+      </c>
+      <c r="F9">
+        <f>'DSP MCL2'!E6/2585</f>
+        <v>3.9288201160541589E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="str">
         <f>'ARM MCL 2'!A7</f>
         <v>OSC</v>
@@ -1925,8 +3388,16 @@
         <f>'ARM MCL 2'!H7/2585</f>
         <v>0.11659187620889748</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f>'DSP MCL2'!B7/2585</f>
+        <v>7.3299419729206963E-2</v>
+      </c>
+      <c r="F10">
+        <f>'DSP MCL2'!E7/2585</f>
+        <v>3.3168278529980659E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="str">
         <f>'ARM MCL3'!A2</f>
         <v>ZCR</v>
@@ -1943,8 +3414,16 @@
         <f>'ARM MCL3'!H2/1293</f>
         <v>3.9118329466357307E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f>'DSP MCL3'!B2/1293</f>
+        <v>1.9819025522041765E-2</v>
+      </c>
+      <c r="F11">
+        <f>'DSP MCL3'!E2/1293</f>
+        <v>2.5699922660479503E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="str">
         <f>'ARM MCL3'!A3</f>
         <v>RMS</v>
@@ -1961,8 +3440,16 @@
         <f>'ARM MCL3'!H3/1293</f>
         <v>2.5290023201856148E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <f>'DSP MCL3'!B3/1293</f>
+        <v>3.6078886310904872E-3</v>
+      </c>
+      <c r="F12">
+        <f>'DSP MCL3'!E3/1293</f>
+        <v>2.7169373549883989E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="str">
         <f>'ARM MCL3'!A4</f>
         <v>LE</v>
@@ -1979,8 +3466,16 @@
         <f>'ARM MCL3'!H4/1293</f>
         <v>3.6040216550657389E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <f>'DSP MCL3'!B4/1293</f>
+        <v>1.762567672080433E-3</v>
+      </c>
+      <c r="F13">
+        <f>'DSP MCL3'!E4/1293</f>
+        <v>7.3859242072699149E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="str">
         <f>'ARM MCL4'!A4</f>
         <v>SCF</v>
@@ -1997,8 +3492,16 @@
         <f>'ARM MCL4'!H4/1293</f>
         <v>1.0440835266821347E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <f>'DSP MCL4'!B4/1293</f>
+        <v>3.0270688321732409E-3</v>
+      </c>
+      <c r="F14">
+        <f>'DSP MCL4'!E4/1293</f>
+        <v>1.4006187161639597E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="str">
         <f>'ARM MCL4'!A5</f>
         <v>SBER</v>
@@ -2015,8 +3518,16 @@
         <f>'ARM MCL4'!H5/1293</f>
         <v>1.4462490332559938E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <f>'DSP MCL4'!B5/1293</f>
+        <v>5.1438515081206494E-3</v>
+      </c>
+      <c r="F15">
+        <f>'DSP MCL4'!E5/1293</f>
+        <v>2.931167826759474E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="str">
         <f>'ARM MCL4'!A6</f>
         <v>CV</v>
@@ -2033,8 +3544,16 @@
         <f>'ARM MCL4'!H6/1293</f>
         <v>1.5212683681361177E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <f>'DSP MCL4'!B6/1293</f>
+        <v>4.9211136890951277E-3</v>
+      </c>
+      <c r="F16">
+        <f>'DSP MCL4'!E6/1293</f>
+        <v>4.9211136890951277E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="str">
         <f>'ARM MCL4'!A7</f>
         <v>AOMIC</v>
@@ -2051,8 +3570,16 @@
         <f>'ARM MCL4'!H7/1293</f>
         <v>1.5313225058004641E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E17">
+        <f>'DSP MCL4'!B7/1293</f>
+        <v>4.7718484145398301E-4</v>
+      </c>
+      <c r="F17">
+        <f>'DSP MCL4'!E7/1293</f>
+        <v>4.7718484145398301E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="B21" t="str">
         <f>B1</f>
         <v>ARM+NEON</v>
@@ -2065,13 +3592,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:6">
       <c r="A22" t="str">
         <f>A2</f>
         <v>FFT</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:C22" si="0">B2</f>
+        <f t="shared" ref="B22" si="0">B2</f>
         <v>0.31547563805104412</v>
       </c>
       <c r="C22">
@@ -2083,17 +3610,17 @@
         <v>19.241037735849059</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:6">
       <c r="A23" t="str">
         <f>A3</f>
         <v>MAG</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:C23" si="1">B3</f>
+        <f t="shared" ref="B23" si="1">B3</f>
         <v>3.848414539829853E-2</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:C25" si="2">D3</f>
+        <f t="shared" ref="C23" si="2">D3</f>
         <v>1.9110595514307813E-2</v>
       </c>
       <c r="D23">
@@ -2101,13 +3628,13 @@
         <v>2.0137596114933225</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:6">
       <c r="A24" t="str">
         <f>A7</f>
         <v>MFCC</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:C24" si="4">B7</f>
+        <f t="shared" ref="B24" si="4">B7</f>
         <v>3.817478731631864E-2</v>
       </c>
       <c r="C24">
@@ -2119,13 +3646,13 @@
         <v>1.1986401165614375</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:6">
       <c r="A25" t="str">
         <f>A8</f>
         <v>HW</v>
       </c>
       <c r="B25">
-        <f t="shared" ref="B25:C25" si="5">B8</f>
+        <f t="shared" ref="B25" si="5">B8</f>
         <v>2.3361702127659575E-2</v>
       </c>
       <c r="C25">
@@ -2133,8 +3660,234 @@
         <v>6.9013539651837522E-3</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f>B25/C25</f>
         <v>3.385089686098655</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="B29" t="str">
+        <f>E1</f>
+        <v>DSP</v>
+      </c>
+      <c r="C29" t="str">
+        <f>F1</f>
+        <v>MATHLIB+DSPLIB+SPLOOP</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="str">
+        <f>A2</f>
+        <v>FFT</v>
+      </c>
+      <c r="B30">
+        <f>E2*1000</f>
+        <v>72.404485692188715</v>
+      </c>
+      <c r="C30">
+        <f>F2*1000</f>
+        <v>18.856148491879349</v>
+      </c>
+      <c r="D30">
+        <f>B30/C30</f>
+        <v>3.8398342971986388</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="str">
+        <f>A3</f>
+        <v>MAG</v>
+      </c>
+      <c r="B31">
+        <f>E3*1000</f>
+        <v>334.0046403712297</v>
+      </c>
+      <c r="C31">
+        <f>F3*1000</f>
+        <v>11.538283062645013</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D41" si="6">B31/C31</f>
+        <v>28.947516589583749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="str">
+        <f>A4</f>
+        <v>SC</v>
+      </c>
+      <c r="B32">
+        <f>E4*1000</f>
+        <v>1.9350348027842226</v>
+      </c>
+      <c r="C32">
+        <f>F4*1000</f>
+        <v>1.3820572312451662</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>1.4001119194180189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="str">
+        <f>A6</f>
+        <v>SF</v>
+      </c>
+      <c r="B33">
+        <f>E6*1000</f>
+        <v>1.8213457076566126</v>
+      </c>
+      <c r="C33">
+        <f>F6*1000</f>
+        <v>1.7362722351121422</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>1.0489977728285078</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="str">
+        <f>A7</f>
+        <v>MFCC</v>
+      </c>
+      <c r="B34">
+        <f>E7*1000</f>
+        <v>35.824439288476412</v>
+      </c>
+      <c r="C34">
+        <f>F7*1000</f>
+        <v>11.675174013921115</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>3.0684287228404874</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="str">
+        <f>A9</f>
+        <v>NASE</v>
+      </c>
+      <c r="B35">
+        <f>E9*1000</f>
+        <v>8.7969052224371378</v>
+      </c>
+      <c r="C35">
+        <f>F9*1000</f>
+        <v>3.9288201160541587</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>2.2390705001969278</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="str">
+        <f t="shared" ref="A36:A38" si="7">A10</f>
+        <v>OSC</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:C41" si="8">E10*1000</f>
+        <v>73.29941972920696</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="8"/>
+        <v>33.168278529980661</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>2.209925355726615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="str">
+        <f t="shared" si="7"/>
+        <v>ZCR</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="8"/>
+        <v>19.819025522041766</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="8"/>
+        <v>2.5699922660479504</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>7.7117062894974433</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="str">
+        <f t="shared" si="7"/>
+        <v>RMS</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="8"/>
+        <v>3.6078886310904874</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="8"/>
+        <v>2.7169373549883988</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="6"/>
+        <v>1.3279248505550814</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="str">
+        <f>A13</f>
+        <v>LE</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="8"/>
+        <v>1.7625676720804331</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="8"/>
+        <v>0.73859242072699149</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="6"/>
+        <v>2.3863874345549738</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="str">
+        <f>A14</f>
+        <v>SCF</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="8"/>
+        <v>3.0270688321732409</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="8"/>
+        <v>1.4006187161639596</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="6"/>
+        <v>2.1612368856985098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="str">
+        <f>A15</f>
+        <v>SBER</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="8"/>
+        <v>5.1438515081206493</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="8"/>
+        <v>2.9311678267594741</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="6"/>
+        <v>1.7548812664907651</v>
       </c>
     </row>
   </sheetData>
@@ -2980,7 +4733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
@@ -3217,7 +4970,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B14" sqref="A14:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3379,10 +5132,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:E5"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3492,10 +5245,10 @@
         <v>10.156000000000001</v>
       </c>
       <c r="D6">
-        <v>9.0909999999999993</v>
+        <v>10.156000000000001</v>
       </c>
       <c r="E6">
-        <v>9.0909999999999993</v>
+        <v>10.156000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3510,10 +5263,10 @@
         <v>85.74</v>
       </c>
       <c r="D7">
-        <v>76.022999999999996</v>
+        <v>85.74</v>
       </c>
       <c r="E7">
-        <v>76.024000000000001</v>
+        <v>85.74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3530,15 +5283,234 @@
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>197.13499999999999</v>
+        <v>207.917</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>197.13200000000001</v>
+        <v>207.91300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13" t="str">
+        <f>B1</f>
+        <v>DSP</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="str">
+        <f>A2</f>
+        <v>HW</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ref="B14:B19" si="1">B2/$B$9*100</f>
+        <v>0.19986597049878119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="str">
+        <f>A3</f>
+        <v>FFT</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>13.761810429262617</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="str">
+        <f>A4</f>
+        <v>MAG</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>63.58315352269296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="str">
+        <f>A5</f>
+        <v>MFCC</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>6.8268147373537271</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="str">
+        <f>A6</f>
+        <v>NASE</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>1.6746323394039369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="str">
+        <f>A7</f>
+        <v>OSC</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>13.953723000787976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="str">
+        <f>C1</f>
+        <v>MATHLIB</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="str">
+        <f>A2</f>
+        <v>HW</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B27" si="2">C2</f>
+        <v>2.7440000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="str">
+        <f t="shared" ref="A23:A27" si="3">A3</f>
+        <v>FFT</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="2"/>
+        <v>186.87700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="str">
+        <f t="shared" si="3"/>
+        <v>MAG</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="2"/>
+        <v>19.081</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="str">
+        <f t="shared" si="3"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="2"/>
+        <v>30.175999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="str">
+        <f t="shared" si="3"/>
+        <v>NASE</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="2"/>
+        <v>10.156000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="str">
+        <f t="shared" si="3"/>
+        <v>OSC</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="2"/>
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="str">
+        <f>'DSP MCL3'!A2</f>
+        <v>ZCR</v>
+      </c>
+      <c r="B28">
+        <f>'DSP MCL3'!D2/1293*2585</f>
+        <v>51.246175560711528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="str">
+        <f>D1</f>
+        <v>MATHLIB+DSPLIB</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="str">
+        <f>A22</f>
+        <v>HW</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:B36" si="4">D2</f>
+        <v>3.4470000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="str">
+        <f t="shared" ref="A32:A40" si="5">A23</f>
+        <v>FFT</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="4"/>
+        <v>48.723999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="str">
+        <f t="shared" si="5"/>
+        <v>MAG</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="4"/>
+        <v>29.673999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="str">
+        <f t="shared" si="5"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="4"/>
+        <v>30.175999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="str">
+        <f t="shared" si="5"/>
+        <v>NASE</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="4"/>
+        <v>10.156000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="str">
+        <f t="shared" si="5"/>
+        <v>OSC</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="4"/>
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="str">
+        <f t="shared" si="5"/>
+        <v>ZCR</v>
+      </c>
+      <c r="B37">
+        <f>B28</f>
+        <v>51.246175560711528</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3547,7 +5519,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -295,24 +295,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87110016"/>
-        <c:axId val="87111552"/>
+        <c:axId val="52035584"/>
+        <c:axId val="52037120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87110016"/>
+        <c:axId val="52035584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87111552"/>
+        <c:crossAx val="52037120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87111552"/>
+        <c:axId val="52037120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,7 +320,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87110016"/>
+        <c:crossAx val="52035584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -333,7 +333,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -460,24 +460,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87137664"/>
-        <c:axId val="87143552"/>
+        <c:axId val="52059136"/>
+        <c:axId val="52065024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87137664"/>
+        <c:axId val="52059136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87143552"/>
+        <c:crossAx val="52065024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87143552"/>
+        <c:axId val="52065024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -503,7 +503,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87137664"/>
+        <c:crossAx val="52059136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -529,7 +529,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -752,24 +752,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="55908992"/>
-        <c:axId val="55939456"/>
+        <c:axId val="52241536"/>
+        <c:axId val="52243072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="55908992"/>
+        <c:axId val="52241536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55939456"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="52243072"/>
+        <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="55939456"/>
+        <c:axId val="52243072"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -796,7 +796,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="55908992"/>
+        <c:crossAx val="52241536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,7 +822,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1066,11 +1066,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93291648"/>
-        <c:axId val="93293184"/>
+        <c:axId val="52218496"/>
+        <c:axId val="52228480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93291648"/>
+        <c:axId val="52218496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,14 +1078,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93293184"/>
+        <c:crossAx val="52228480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93293184"/>
+        <c:axId val="52228480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,7 +1110,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93291648"/>
+        <c:crossAx val="52218496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1135,7 +1135,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1201,24 +1201,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93309184"/>
-        <c:axId val="93315072"/>
+        <c:axId val="52321664"/>
+        <c:axId val="52339840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93309184"/>
+        <c:axId val="52321664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93315072"/>
+        <c:crossAx val="52339840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93315072"/>
+        <c:axId val="52339840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1243,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93309184"/>
+        <c:crossAx val="52321664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,7 +1265,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1508,24 +1508,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92895872"/>
-        <c:axId val="92901760"/>
+        <c:axId val="52371840"/>
+        <c:axId val="52373376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92895872"/>
+        <c:axId val="52371840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92901760"/>
+        <c:crossAx val="52373376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92901760"/>
+        <c:axId val="52373376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1550,320 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92895872"/>
+        <c:crossAx val="52371840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>63.58315352269296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.761810429262617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.953723000787976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.8268147373537271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6746323394039369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19986597049878119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="52574080"/>
+        <c:axId val="52575616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52574080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="52575616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52575616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitanteile in [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52574080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1581,7 +1894,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1591,76 +1904,38 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
+              <c:f>'DSP MCL2'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$16</c:f>
+              <c:f>'DSP MCL2'!$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>63.58315352269296</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13.761810429262617</c:v>
+                  <c:v>186.87700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1668,10 +1943,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$19</c:f>
+              <c:f>'DSP MCL2'!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1682,23 +1957,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$19</c:f>
+              <c:f>'DSP MCL2'!$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.953723000787976</c:v>
+                  <c:v>85.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1706,10 +1981,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$17</c:f>
+              <c:f>'DSP MCL2'!$A$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1720,23 +1995,61 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$17</c:f>
+              <c:f>'DSP MCL2'!$B$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6.8268147373537271</c:v>
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.081</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,7 +2060,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$18</c:f>
+              <c:f>'DSP MCL2'!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1758,23 +2071,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$18</c:f>
+              <c:f>'DSP MCL2'!$B$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.6746323394039369</c:v>
+                  <c:v>10.156000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,7 +2098,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$14</c:f>
+              <c:f>'DSP MCL2'!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1796,51 +2109,49 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$14</c:f>
+              <c:f>'DSP MCL2'!$B$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.19986597049878119</c:v>
+                  <c:v>2.7440000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93438336"/>
-        <c:axId val="93439872"/>
+        <c:axId val="52620288"/>
+        <c:axId val="52445952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93438336"/>
+        <c:axId val="52620288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93439872"/>
+        <c:crossAx val="52445952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93439872"/>
+        <c:axId val="52445952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1855,23 +2166,21 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitanteile in [%]</a:t>
+                  <a:t>Laufzeit in [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93438336"/>
+        <c:crossAx val="52620288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1896,7 +2205,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1906,114 +2215,114 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
+              <c:f>'DSP MCL2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$23</c:f>
+              <c:f>'DSP MCL2'!$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>186.87700000000001</c:v>
+                  <c:v>85.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
+              <c:f>'DSP MCL2'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZCR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$27</c:f>
+              <c:f>'DSP MCL2'!$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>85.74</c:v>
+                  <c:v>51.246175560711528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
+              <c:f>'DSP MCL2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$25</c:f>
+              <c:f>'DSP MCL2'!$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
+                  <c:v>48.723999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,7 +2333,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$24</c:f>
+              <c:f>'DSP MCL2'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2035,23 +2344,61 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$24</c:f>
+              <c:f>'DSP MCL2'!$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19.081</c:v>
+                  <c:v>29.673999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2059,10 +2406,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$26</c:f>
+              <c:f>'DSP MCL2'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2073,18 +2420,18 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$26</c:f>
+              <c:f>'DSP MCL2'!$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -2097,10 +2444,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$22</c:f>
+              <c:f>'DSP MCL2'!$A$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2111,47 +2458,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$22</c:f>
+              <c:f>'DSP MCL2'!$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7440000000000002</c:v>
+                  <c:v>3.4470000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93452160"/>
-        <c:axId val="93453696"/>
+        <c:axId val="52479104"/>
+        <c:axId val="52480640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93452160"/>
+        <c:axId val="52479104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="93453696"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52480640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93453696"/>
+        <c:axId val="52480640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,18 +2519,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93452160"/>
+        <c:crossAx val="52479104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2203,357 +2547,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>51.246175560711528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48.723999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.673999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.156000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.4470000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="79664256"/>
-        <c:axId val="81030528"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="79664256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81030528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="81030528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79664256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3131,7 +3125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
@@ -3624,7 +3618,7 @@
         <v>1.9110595514307813E-2</v>
       </c>
       <c r="D23">
-        <f t="shared" ref="D23:D25" si="3">B23/C23</f>
+        <f t="shared" ref="D23:D24" si="3">B23/C23</f>
         <v>2.0137596114933225</v>
       </c>
     </row>
@@ -3680,11 +3674,11 @@
         <v>FFT</v>
       </c>
       <c r="B30">
-        <f>E2*1000</f>
+        <f t="shared" ref="B30:C32" si="6">E2*1000</f>
         <v>72.404485692188715</v>
       </c>
       <c r="C30">
-        <f>F2*1000</f>
+        <f t="shared" si="6"/>
         <v>18.856148491879349</v>
       </c>
       <c r="D30">
@@ -3698,15 +3692,15 @@
         <v>MAG</v>
       </c>
       <c r="B31">
-        <f>E3*1000</f>
+        <f t="shared" si="6"/>
         <v>334.0046403712297</v>
       </c>
       <c r="C31">
-        <f>F3*1000</f>
+        <f t="shared" si="6"/>
         <v>11.538283062645013</v>
       </c>
       <c r="D31">
-        <f t="shared" ref="D31:D41" si="6">B31/C31</f>
+        <f t="shared" ref="D31:D41" si="7">B31/C31</f>
         <v>28.947516589583749</v>
       </c>
     </row>
@@ -3716,15 +3710,15 @@
         <v>SC</v>
       </c>
       <c r="B32">
-        <f>E4*1000</f>
+        <f t="shared" si="6"/>
         <v>1.9350348027842226</v>
       </c>
       <c r="C32">
-        <f>F4*1000</f>
+        <f t="shared" si="6"/>
         <v>1.3820572312451662</v>
       </c>
       <c r="D32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.4001119194180189</v>
       </c>
     </row>
@@ -3742,7 +3736,7 @@
         <v>1.7362722351121422</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0489977728285078</v>
       </c>
     </row>
@@ -3760,7 +3754,7 @@
         <v>11.675174013921115</v>
       </c>
       <c r="D34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.0684287228404874</v>
       </c>
     </row>
@@ -3778,61 +3772,61 @@
         <v>3.9288201160541587</v>
       </c>
       <c r="D35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.2390705001969278</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="str">
-        <f t="shared" ref="A36:A38" si="7">A10</f>
+        <f t="shared" ref="A36:A38" si="8">A10</f>
         <v>OSC</v>
       </c>
       <c r="B36">
-        <f t="shared" ref="B36:C41" si="8">E10*1000</f>
+        <f t="shared" ref="B36:C41" si="9">E10*1000</f>
         <v>73.29941972920696</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33.168278529980661</v>
       </c>
       <c r="D36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.209925355726615</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="str">
+        <f t="shared" si="8"/>
+        <v>ZCR</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="9"/>
+        <v>19.819025522041766</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="9"/>
+        <v>2.5699922660479504</v>
+      </c>
+      <c r="D37">
         <f t="shared" si="7"/>
-        <v>ZCR</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="8"/>
-        <v>19.819025522041766</v>
-      </c>
-      <c r="C37">
-        <f t="shared" si="8"/>
-        <v>2.5699922660479504</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="6"/>
         <v>7.7117062894974433</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="str">
+        <f t="shared" si="8"/>
+        <v>RMS</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="9"/>
+        <v>3.6078886310904874</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="9"/>
+        <v>2.7169373549883988</v>
+      </c>
+      <c r="D38">
         <f t="shared" si="7"/>
-        <v>RMS</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="8"/>
-        <v>3.6078886310904874</v>
-      </c>
-      <c r="C38">
-        <f t="shared" si="8"/>
-        <v>2.7169373549883988</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="6"/>
         <v>1.3279248505550814</v>
       </c>
     </row>
@@ -3842,15 +3836,15 @@
         <v>LE</v>
       </c>
       <c r="B39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.7625676720804331</v>
       </c>
       <c r="C39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.73859242072699149</v>
       </c>
       <c r="D39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.3863874345549738</v>
       </c>
     </row>
@@ -3860,15 +3854,15 @@
         <v>SCF</v>
       </c>
       <c r="B40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.0270688321732409</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4006187161639596</v>
       </c>
       <c r="D40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2.1612368856985098</v>
       </c>
     </row>
@@ -3878,15 +3872,15 @@
         <v>SBER</v>
       </c>
       <c r="B41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5.1438515081206493</v>
       </c>
       <c r="C41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9311678267594741</v>
       </c>
       <c r="D41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.7548812664907651</v>
       </c>
     </row>
@@ -5298,61 +5292,61 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="str">
-        <f>A2</f>
+        <f t="shared" ref="A14:A19" si="1">A2</f>
         <v>HW</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="1">B2/$B$9*100</f>
+        <f t="shared" ref="B14:B19" si="2">B2/$B$9*100</f>
         <v>0.19986597049878119</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="str">
-        <f>A3</f>
+        <f t="shared" si="1"/>
         <v>FFT</v>
       </c>
       <c r="B15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.761810429262617</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="str">
-        <f>A4</f>
+        <f t="shared" si="1"/>
         <v>MAG</v>
       </c>
       <c r="B16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.58315352269296</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="str">
-        <f>A5</f>
+        <f t="shared" si="1"/>
         <v>MFCC</v>
       </c>
       <c r="B17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8268147373537271</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="str">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>NASE</v>
       </c>
       <c r="B18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6746323394039369</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="str">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>OSC</v>
       </c>
       <c r="B19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.953723000787976</v>
       </c>
     </row>
@@ -5368,57 +5362,57 @@
         <v>HW</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B27" si="2">C2</f>
+        <f t="shared" ref="B22:B27" si="3">C2</f>
         <v>2.7440000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="str">
-        <f t="shared" ref="A23:A27" si="3">A3</f>
+        <f t="shared" ref="A23:A27" si="4">A3</f>
         <v>FFT</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>186.87700000000001</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="str">
+        <f t="shared" si="4"/>
+        <v>MAG</v>
+      </c>
+      <c r="B24">
         <f t="shared" si="3"/>
-        <v>MAG</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="2"/>
         <v>19.081</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="str">
+        <f t="shared" si="4"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B25">
         <f t="shared" si="3"/>
-        <v>MFCC</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="2"/>
         <v>30.175999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="str">
+        <f t="shared" si="4"/>
+        <v>NASE</v>
+      </c>
+      <c r="B26">
         <f t="shared" si="3"/>
-        <v>NASE</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="2"/>
         <v>10.156000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="str">
+        <f t="shared" si="4"/>
+        <v>OSC</v>
+      </c>
+      <c r="B27">
         <f t="shared" si="3"/>
-        <v>OSC</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="2"/>
         <v>85.74</v>
       </c>
     </row>
@@ -5444,63 +5438,63 @@
         <v>HW</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B36" si="4">D2</f>
+        <f t="shared" ref="B31:B36" si="5">D2</f>
         <v>3.4470000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="str">
-        <f t="shared" ref="A32:A40" si="5">A23</f>
+        <f t="shared" ref="A32:A37" si="6">A23</f>
         <v>FFT</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>48.723999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="str">
+        <f t="shared" si="6"/>
+        <v>MAG</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="5"/>
-        <v>MAG</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="4"/>
         <v>29.673999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="str">
+        <f t="shared" si="6"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="5"/>
-        <v>MFCC</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="4"/>
         <v>30.175999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="str">
+        <f t="shared" si="6"/>
+        <v>NASE</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="5"/>
-        <v>NASE</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="4"/>
         <v>10.156000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="str">
+        <f t="shared" si="6"/>
+        <v>OSC</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="5"/>
-        <v>OSC</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="4"/>
         <v>85.74</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>ZCR</v>
       </c>
       <c r="B37">

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -295,24 +295,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52035584"/>
-        <c:axId val="52037120"/>
+        <c:axId val="63108608"/>
+        <c:axId val="63110144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52035584"/>
+        <c:axId val="63108608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52037120"/>
+        <c:crossAx val="63110144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52037120"/>
+        <c:axId val="63110144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,7 +320,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52035584"/>
+        <c:crossAx val="63108608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -333,13 +333,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -349,135 +349,252 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
+              <c:f>'DSP MCL2'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HW</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$22:$B$25</c:f>
+              <c:f>'DSP MCL2'!$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.31547563805104412</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.848414539829853E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.817478731631864E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3361702127659575E-2</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>186.87700000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON + Handopt.</c:v>
+              <c:f>'DSP MCL2'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HW</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$C$22:$C$25</c:f>
+              <c:f>'DSP MCL2'!$B$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.639597834493426E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9110595514307813E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1848414539829853E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9013539651837522E-3</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52059136"/>
-        <c:axId val="52065024"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.156000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7440000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="68772992"/>
+        <c:axId val="68774528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52059136"/>
+        <c:axId val="68772992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52065024"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="68774528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52065024"/>
+        <c:axId val="68774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +611,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Lauftzeit in [ms/Fenster]</a:t>
+                  <a:t>Laufzeit in [ms]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -503,7 +620,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52059136"/>
+        <c:crossAx val="68772992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -535,6 +652,552 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>51.246175560711528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48.723999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.673999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.156000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4470000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="69168128"/>
+        <c:axId val="69174016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69168128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69174016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="69174016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69168128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$22:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31547563805104412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.817478731631864E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3361702127659575E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$C$22:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.639597834493426E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9110595514307813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9013539651837522E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="64095360"/>
+        <c:axId val="64096896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64095360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64096896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64096896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lauftzeit in [ms/Fenster]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64095360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
@@ -752,24 +1415,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52241536"/>
-        <c:axId val="52243072"/>
+        <c:axId val="64117760"/>
+        <c:axId val="64131840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52241536"/>
+        <c:axId val="64117760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52243072"/>
+        <c:crossAx val="64131840"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52243072"/>
+        <c:axId val="64131840"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -796,7 +1459,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52241536"/>
+        <c:crossAx val="64117760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -822,13 +1485,647 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.31547563805104412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2242846094354215E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4470224284609439E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3201856148491878E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.817478731631864E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3361702127659575E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299806576402321E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11704448742746615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9118329466357307E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5290023201856148E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6040216550657389E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5127610208816705E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3689095127610209E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4795050270688321E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6395978344934262E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.639597834493426E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9110595514307813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2242846094354215E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4470224284609439E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3201856148491878E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9013539651837522E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299806576402321E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11704448742746615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9118329466357307E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5290023201856148E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6040216550657389E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5127610208816705E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3689095127610209E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4795050270688321E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6395978344934262E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="52136960"/>
+        <c:axId val="52142848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52136960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52142848"/>
+        <c:crossesAt val="1.0000000000000002E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="52142848"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52136960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.2404485692188714E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33400464037122968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9350348027842225E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4717710750193351E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8213457076566126E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5824439288476409E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499032882011605E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7969052224371371E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3299419729206963E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9819025522041765E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6078886310904872E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.762567672080433E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0270688321732409E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1438515081206494E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9211136890951277E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7718484145398301E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.8856148491879349E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1538283062645012E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3820572312451661E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4717710750193351E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7362722351121423E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1675174013921114E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3342359767891682E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9288201160541589E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3168278529980659E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5699922660479503E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7169373549883989E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3859242072699149E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4006187161639597E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.931167826759474E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9211136890951277E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7718484145398301E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="97422336"/>
+        <c:axId val="101864960"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="97422336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="101864960"/>
+        <c:crossesAt val="1.0000000000000002E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="101864960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="97422336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -1066,11 +2363,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52218496"/>
-        <c:axId val="52228480"/>
+        <c:axId val="68514560"/>
+        <c:axId val="68516096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52218496"/>
+        <c:axId val="68514560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,14 +2375,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="52228480"/>
+        <c:crossAx val="68516096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52228480"/>
+        <c:axId val="68516096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,16 +2404,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52218496"/>
+        <c:crossAx val="68514560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1135,13 +2434,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1201,24 +2500,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52321664"/>
-        <c:axId val="52339840"/>
+        <c:axId val="68540288"/>
+        <c:axId val="68541824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52321664"/>
+        <c:axId val="68540288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52339840"/>
+        <c:crossAx val="68541824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52339840"/>
+        <c:axId val="68541824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,10 +2539,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52321664"/>
+        <c:crossAx val="68540288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,13 +2565,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1508,24 +2808,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52371840"/>
-        <c:axId val="52373376"/>
+        <c:axId val="68577920"/>
+        <c:axId val="68592000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52371840"/>
+        <c:axId val="68577920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52373376"/>
+        <c:crossAx val="68592000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52373376"/>
+        <c:axId val="68592000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1547,16 +2847,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52371840"/>
+        <c:crossAx val="68577920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1575,13 +2877,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1818,11 +3120,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52574080"/>
-        <c:axId val="52575616"/>
+        <c:axId val="68734976"/>
+        <c:axId val="68736512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52574080"/>
+        <c:axId val="68734976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1830,14 +3132,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="52575616"/>
+        <c:crossAx val="68736512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52575616"/>
+        <c:axId val="68736512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1860,16 +3162,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52574080"/>
+        <c:crossAx val="68734976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1888,666 +3192,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>186.87700000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19.081</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.156000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.7440000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="52620288"/>
-        <c:axId val="52445952"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="52620288"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="52445952"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52445952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52620288"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>51.246175560711528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48.723999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.673999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.156000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.4470000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="52479104"/>
-        <c:axId val="52480640"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="52479104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52480640"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52480640"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52479104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2640,6 +3285,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3125,8 +3830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3354,7 +4059,7 @@
       </c>
       <c r="D9">
         <f>'ARM MCL 2'!H6/2585</f>
-        <v>1.1961315280464218E-2</v>
+        <v>1.1299806576402321E-2</v>
       </c>
       <c r="E9">
         <f>'DSP MCL2'!B6/2585</f>
@@ -3380,7 +4085,7 @@
       </c>
       <c r="D10">
         <f>'ARM MCL 2'!H7/2585</f>
-        <v>0.11659187620889748</v>
+        <v>0.11704448742746615</v>
       </c>
       <c r="E10">
         <f>'DSP MCL2'!B7/2585</f>
@@ -3484,7 +4189,7 @@
       </c>
       <c r="D14">
         <f>'ARM MCL4'!H4/1293</f>
-        <v>1.0440835266821347E-3</v>
+        <v>9.5127610208816705E-4</v>
       </c>
       <c r="E14">
         <f>'DSP MCL4'!B4/1293</f>
@@ -3510,7 +4215,7 @@
       </c>
       <c r="D15">
         <f>'ARM MCL4'!H5/1293</f>
-        <v>1.4462490332559938E-3</v>
+        <v>1.3689095127610209E-3</v>
       </c>
       <c r="E15">
         <f>'DSP MCL4'!B5/1293</f>
@@ -3536,7 +4241,7 @@
       </c>
       <c r="D16">
         <f>'ARM MCL4'!H6/1293</f>
-        <v>1.5212683681361177E-2</v>
+        <v>1.4795050270688321E-2</v>
       </c>
       <c r="E16">
         <f>'DSP MCL4'!B6/1293</f>
@@ -3562,7 +4267,7 @@
       </c>
       <c r="D17">
         <f>'ARM MCL4'!H7/1293</f>
-        <v>1.5313225058004641E-3</v>
+        <v>1.6395978344934262E-3</v>
       </c>
       <c r="E17">
         <f>'DSP MCL4'!B7/1293</f>
@@ -4146,7 +4851,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4310,7 +5015,7 @@
         <v>29.21</v>
       </c>
       <c r="H6">
-        <v>30.92</v>
+        <v>29.21</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4336,7 +5041,7 @@
         <v>302.56</v>
       </c>
       <c r="H7">
-        <v>301.39</v>
+        <v>302.56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4369,13 +5074,13 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>524.67000000000007</v>
+        <v>524.13</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="C11">
         <f>D9/H9</f>
-        <v>2.7438771037032796</v>
+        <v>2.7467040619693583</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4728,7 +5433,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G7" sqref="G7:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4840,7 +5545,7 @@
         <v>1.23</v>
       </c>
       <c r="H4">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4866,7 +5571,7 @@
         <v>1.77</v>
       </c>
       <c r="H5">
-        <v>1.87</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -4892,7 +5597,7 @@
         <v>19.13</v>
       </c>
       <c r="H6">
-        <v>19.670000000000002</v>
+        <v>19.13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -4918,7 +5623,7 @@
         <v>2.12</v>
       </c>
       <c r="H7">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4951,7 +5656,7 @@
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
-        <v>70.7</v>
+        <v>70.08</v>
       </c>
     </row>
   </sheetData>
@@ -4963,7 +5668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="A14:B20"/>
     </sheetView>
   </sheetViews>
@@ -5513,7 +6218,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
   <si>
     <t>DSP</t>
   </si>
@@ -110,6 +110,27 @@
   <si>
     <t>Libav NEON + Handopt.</t>
   </si>
+  <si>
+    <t>FSet1</t>
+  </si>
+  <si>
+    <t>FSet4</t>
+  </si>
+  <si>
+    <t>FSet3</t>
+  </si>
+  <si>
+    <t>FSet2</t>
+  </si>
+  <si>
+    <t>LV ARM:</t>
+  </si>
+  <si>
+    <t>MDS</t>
+  </si>
+  <si>
+    <t>LV DSP:</t>
+  </si>
 </sst>
 </file>
 
@@ -159,9 +180,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -295,24 +314,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63108608"/>
-        <c:axId val="63110144"/>
+        <c:axId val="77411840"/>
+        <c:axId val="77413376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63108608"/>
+        <c:axId val="77411840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63110144"/>
+        <c:crossAx val="77413376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63110144"/>
+        <c:axId val="77413376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -320,1812 +339,25 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63108608"/>
+        <c:crossAx val="77411840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>186.87700000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$27</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>19.081</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.156000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2.7440000000000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="68772992"/>
-        <c:axId val="68774528"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="68772992"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="68774528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="68774528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68772992"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>51.246175560711528</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48.723999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.673999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.156000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.4470000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="69168128"/>
-        <c:axId val="69174016"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="69168128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69174016"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69174016"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69168128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$22:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.31547563805104412</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.848414539829853E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.817478731631864E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3361702127659575E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON + Handopt.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$C$22:$C$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.639597834493426E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9110595514307813E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.1848414539829853E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9013539651837522E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="64095360"/>
-        <c:axId val="64096896"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="64095360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64096896"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="64096896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Lauftzeit in [ms/Fenster]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64095360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$30:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NASE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OSC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>RMS</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LE</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SCF</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>SBER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$30:$B$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>72.404485692188715</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>334.0046403712297</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9350348027842226</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8213457076566126</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.824439288476412</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.7969052224371378</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>73.29941972920696</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19.819025522041766</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.6078886310904874</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7625676720804331</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0270688321732409</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.1438515081206493</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$C$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$30:$A$41</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>NASE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>OSC</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>RMS</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>LE</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>SCF</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>SBER</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$C$30:$C$41</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>18.856148491879349</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.538283062645013</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3820572312451662</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7362722351121422</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.675174013921115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.9288201160541587</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>33.168278529980661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5699922660479504</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.7169373549883988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.73859242072699149</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.4006187161639596</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9311678267594741</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="64117760"/>
-        <c:axId val="64131840"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="64117760"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64131840"/>
-        <c:crossesAt val="0.1"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="64131840"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [µs/Fenster]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64117760"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HW</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NASE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OSC</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RMS</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LE</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SCF</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SBER</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AOMIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$2:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.31547563805104412</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.848414539829853E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2242846094354215E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4470224284609439E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3201856148491878E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.817478731631864E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.3361702127659575E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1299806576402321E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11704448742746615</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9118329466357307E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5290023201856148E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6040216550657389E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.5127610208816705E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3689095127610209E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4795050270688321E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6395978344934262E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON + Handopt.</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HW</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NASE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OSC</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RMS</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LE</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SCF</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SBER</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AOMIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$D$2:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.639597834493426E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9110595514307813E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2242846094354215E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4470224284609439E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3201856148491878E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1848414539829853E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.9013539651837522E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.1299806576402321E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.11704448742746615</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.9118329466357307E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.5290023201856148E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.6040216550657389E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.5127610208816705E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.3689095127610209E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4795050270688321E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.6395978344934262E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="52136960"/>
-        <c:axId val="52142848"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="52136960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52142848"/>
-        <c:crossesAt val="1.0000000000000002E-4"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52142848"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52136960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HW</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NASE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OSC</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RMS</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LE</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SCF</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SBER</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AOMIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$E$2:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>7.2404485692188714E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.33400464037122968</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9350348027842225E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4717710750193351E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8213457076566126E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.5824439288476409E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0499032882011605E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.7969052224371371E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.3299419729206963E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.9819025522041765E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.6078886310904872E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.762567672080433E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.0270688321732409E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.1438515081206494E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.9211136890951277E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7718484145398301E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MAG</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SR</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>SF</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HW</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>NASE</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>OSC</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>RMS</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>LE</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>SCF</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>SBER</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>CV</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>AOMIC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$F$2:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>1.8856148491879349E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1538283062645012E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3820572312451661E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.4717710750193351E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.7362722351121423E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1675174013921114E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3342359767891682E-3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9288201160541589E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.3168278529980659E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.5699922660479503E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.7169373549883989E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.3859242072699149E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.4006187161639597E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.931167826759474E-3</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4.9211136890951277E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4.7718484145398301E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="97422336"/>
-        <c:axId val="101864960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="97422336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101864960"/>
-        <c:crossesAt val="1.0000000000000002E-4"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="101864960"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97422336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -2363,11 +595,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68514560"/>
-        <c:axId val="68516096"/>
+        <c:axId val="44668800"/>
+        <c:axId val="44670336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68514560"/>
+        <c:axId val="44668800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,14 +607,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68516096"/>
+        <c:crossAx val="44670336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68516096"/>
+        <c:axId val="44670336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,18 +636,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68514560"/>
+        <c:crossAx val="44668800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2434,13 +664,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -2500,24 +730,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68540288"/>
-        <c:axId val="68541824"/>
+        <c:axId val="44694528"/>
+        <c:axId val="44577536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68540288"/>
+        <c:axId val="44694528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68541824"/>
+        <c:crossAx val="44577536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68541824"/>
+        <c:axId val="44577536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2539,11 +769,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68540288"/>
+        <c:crossAx val="44694528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2571,7 +800,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -2808,24 +1037,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68577920"/>
-        <c:axId val="68592000"/>
+        <c:axId val="44617728"/>
+        <c:axId val="44619264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68577920"/>
+        <c:axId val="44617728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68592000"/>
+        <c:crossAx val="44619264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68592000"/>
+        <c:axId val="44619264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2847,11 +1076,1177 @@
               </a:p>
             </c:rich>
           </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44617728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>63.58315352269296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.761810429262617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>13.953723000787976</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.8268147373537271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.6746323394039369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.19986597049878119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44840448"/>
+        <c:axId val="44841984"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44840448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="44841984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44841984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="70"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeitanteile in [%]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44840448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>186.87700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>19.081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.156000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.7440000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44890752"/>
+        <c:axId val="44904832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44890752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="44904832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44904832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44890752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>51.246175560711528</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48.723999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.673999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.156000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4470000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44933888"/>
+        <c:axId val="44935424"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44933888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44935424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44935424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44933888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$22:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.31547563805104412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.817478731631864E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3361702127659575E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HW</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$C$22:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.639597834493426E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9110595514307813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9013539651837522E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="77874304"/>
+        <c:axId val="77875840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77874304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77875840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77875840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Lauftzeit in [ms/Fenster]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68577920"/>
+        <c:crossAx val="77874304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,13 +2272,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -2893,38 +2288,104 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
+              <c:f>'Feature Überblick'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
+              <c:f>'Feature Überblick'!$A$30:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SBER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$16</c:f>
+              <c:f>'Feature Überblick'!$B$30:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>63.58315352269296</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>72.404485692188715</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>334.0046403712297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9350348027842226</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8213457076566126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.824439288476412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.7969052224371378</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>73.29941972920696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.819025522041766</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6078886310904874</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7625676720804331</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0270688321732409</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1438515081206493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2935,214 +2396,126 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
+              <c:f>'Feature Überblick'!$C$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
+              <c:f>'Feature Überblick'!$A$30:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SBER</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$15</c:f>
+              <c:f>'Feature Überblick'!$C$30:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13.761810429262617</c:v>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>18.856148491879349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.538283062645013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3820572312451662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7362722351121422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.675174013921115</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9288201160541587</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.168278529980661</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5699922660479504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7169373549883988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73859242072699149</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4006187161639596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9311678267594741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>13.953723000787976</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>6.8268147373537271</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.6746323394039369</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.19986597049878119</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="68734976"/>
-        <c:axId val="68736512"/>
+        <c:axId val="77888512"/>
+        <c:axId val="77902592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68734976"/>
+        <c:axId val="77888512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="68736512"/>
-        <c:crosses val="autoZero"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77902592"/>
+        <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68736512"/>
+        <c:axId val="77902592"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="70"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3157,7 +2530,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Laufzeitanteile in [%]</a:t>
+                  <a:t>Laufzeit in [µs/Fenster]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3166,13 +2539,976 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68734976"/>
+        <c:crossAx val="77888512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$2:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.31547563805104412</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2242846094354215E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4470224284609439E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3201856148491878E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.817478731631864E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.3361702127659575E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299806576402321E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11704448742746615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9118329466357307E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5290023201856148E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6040216550657389E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5127610208816705E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3689095127610209E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4795050270688321E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6395978344934262E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.639597834493426E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9110595514307813E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2242846094354215E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4470224284609439E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3201856148491878E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1848414539829853E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.9013539651837522E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1299806576402321E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11704448742746615</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.9118329466357307E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.5290023201856148E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6040216550657389E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5127610208816705E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3689095127610209E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4795050270688321E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.6395978344934262E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44319872"/>
+        <c:axId val="44321408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44319872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44321408"/>
+        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44321408"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44319872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>7.2404485692188714E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33400464037122968</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9350348027842225E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4717710750193351E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8213457076566126E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5824439288476409E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0499032882011605E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.7969052224371371E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.3299419729206963E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9819025522041765E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6078886310904872E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.762567672080433E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0270688321732409E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1438515081206494E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9211136890951277E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7718484145398301E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>SF</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HW</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>ZCR</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>RMS</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SCF</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SBER</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>CV</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>AOMIC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$F$2:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1.8856148491879349E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1538283062645012E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3820572312451661E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4717710750193351E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7362722351121423E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1675174013921114E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3342359767891682E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9288201160541589E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3168278529980659E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5699922660479503E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7169373549883989E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3859242072699149E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4006187161639597E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.931167826759474E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9211136890951277E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.7718484145398301E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44353024"/>
+        <c:axId val="44354560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44353024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44354560"/>
+        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44354560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44353024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$44:$E$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>755.37172701461679</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2432.2341566185737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9457.2849619660628</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11578.758843019614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$45:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>706.65678896248562</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1795.6002583997279</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4051.152658715856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4931.9825234197624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$46:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8981.6615726590735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22098.786532216713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22098.786532216713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22098.786532216713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$47:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>818.40104816097107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2687.3675021823174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13606.229611701569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18450.342465753427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44462848"/>
+        <c:axId val="44464384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44462848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44464384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44464384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Extraktionsrate in [Fenster/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44462848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3193,6 +3529,933 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>318.85678641393702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1026.6923413332941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3992.1000261570543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4887.6145390542897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>298.29328364815768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>757.95705293361232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1710.0686613405892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2081.8837160910771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$53:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3791.3303388176751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9328.3185024131326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9328.3185024131326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9328.3185024131326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$54:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>345.46266279483791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1134.3889836143171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5743.4485486287749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7788.2408044548019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44368256"/>
+        <c:axId val="44369792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44368256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44369792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44369792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energieeffizienz in [Fenster/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44368256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$59:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2229.8447386528842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10318.49268608001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20981.06349489672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20982.084901986243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$60:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1903.6607728052668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7721.6271275547078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12432.845799044811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12433.084992280425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$61:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39699.10961007062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42955.383542075011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42955.383542075011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165960.72391220639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$62:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2381.601438170459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11189.186382595752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24958.017256355321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24960.426238369175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="44418176"/>
+        <c:axId val="44419712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44418176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44419712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="44419712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Extraktionsrate in [Fenster/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44418176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$65:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>660.69473737863234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3057.3311662459287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6216.6114058953244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6216.9140450329614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$66:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>564.04763638674569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2287.889519275469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3683.806162679944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3683.8770347497552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$67:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11762.699143724629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12727.521049503706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12727.521049503706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49173.547825838934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$68:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>705.6596853838397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3315.3144837320747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7394.968075957132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7395.6818484056812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="47075712"/>
+        <c:axId val="47077248"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="47075712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47077248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47077248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energieeffizienz in [Fenster/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="47075712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3345,6 +4608,126 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Diagramm 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Diagramm 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Diagramm 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Diagramm 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3828,10 +5211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="E126" workbookViewId="0">
+      <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4427,7 +5810,7 @@
         <v>1.4001119194180189</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33" t="str">
         <f>A6</f>
         <v>SF</v>
@@ -4445,7 +5828,7 @@
         <v>1.0489977728285078</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:5">
       <c r="A34" t="str">
         <f>A7</f>
         <v>MFCC</v>
@@ -4463,7 +5846,7 @@
         <v>3.0684287228404874</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:5">
       <c r="A35" t="str">
         <f>A9</f>
         <v>NASE</v>
@@ -4481,7 +5864,7 @@
         <v>2.2390705001969278</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:5">
       <c r="A36" t="str">
         <f t="shared" ref="A36:A38" si="8">A10</f>
         <v>OSC</v>
@@ -4499,7 +5882,7 @@
         <v>2.209925355726615</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:5">
       <c r="A37" t="str">
         <f t="shared" si="8"/>
         <v>ZCR</v>
@@ -4517,7 +5900,7 @@
         <v>7.7117062894974433</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:5">
       <c r="A38" t="str">
         <f t="shared" si="8"/>
         <v>RMS</v>
@@ -4535,7 +5918,7 @@
         <v>1.3279248505550814</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:5">
       <c r="A39" t="str">
         <f>A13</f>
         <v>LE</v>
@@ -4553,7 +5936,7 @@
         <v>2.3863874345549738</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:5">
       <c r="A40" t="str">
         <f>A14</f>
         <v>SCF</v>
@@ -4571,7 +5954,7 @@
         <v>2.1612368856985098</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:5">
       <c r="A41" t="str">
         <f>A15</f>
         <v>SBER</v>
@@ -4587,6 +5970,428 @@
       <c r="D41">
         <f t="shared" si="7"/>
         <v>1.7548812664907651</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="B43" t="str">
+        <f>'ARM MCL1'!B1</f>
+        <v>ARM</v>
+      </c>
+      <c r="C43" t="str">
+        <f>B1</f>
+        <v>ARM+NEON</v>
+      </c>
+      <c r="D43" t="str">
+        <f>C1</f>
+        <v>Libav NEON</v>
+      </c>
+      <c r="E43" t="str">
+        <f>C21</f>
+        <v>Libav NEON + Handopt.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <f>1000/('ARM MCL1'!B9/1293)</f>
+        <v>755.37172701461679</v>
+      </c>
+      <c r="C44">
+        <f>1000/('ARM MCL1'!D9/1293)</f>
+        <v>2432.2341566185737</v>
+      </c>
+      <c r="D44">
+        <f>1000/('ARM MCL1'!G9/1293)</f>
+        <v>9457.2849619660628</v>
+      </c>
+      <c r="E44">
+        <f>1000/('ARM MCL1'!H9/1293)</f>
+        <v>11578.758843019614</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <f>1000/('ARM MCL 2'!$B$9/2585)</f>
+        <v>706.65678896248562</v>
+      </c>
+      <c r="C45">
+        <f>1000/('ARM MCL 2'!$D$9/2585)</f>
+        <v>1795.6002583997279</v>
+      </c>
+      <c r="D45">
+        <f>1000/('ARM MCL 2'!$G$9/2585)</f>
+        <v>4051.152658715856</v>
+      </c>
+      <c r="E45">
+        <f>1000/('ARM MCL 2'!$H$9/2585)</f>
+        <v>4931.9825234197624</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <f>1000/('ARM MCL3'!$B$6/1293)</f>
+        <v>8981.6615726590735</v>
+      </c>
+      <c r="C46">
+        <f>1000/('ARM MCL3'!$D$6/1293)</f>
+        <v>22098.786532216713</v>
+      </c>
+      <c r="D46">
+        <f>1000/('ARM MCL3'!$G$6/1293)</f>
+        <v>22098.786532216713</v>
+      </c>
+      <c r="E46">
+        <f>1000/('ARM MCL3'!$H$6/1293)</f>
+        <v>22098.786532216713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <f>1000/('ARM MCL4'!$B$9/1293)</f>
+        <v>818.40104816097107</v>
+      </c>
+      <c r="C47">
+        <f>1000/('ARM MCL4'!$D$9/1293)</f>
+        <v>2687.3675021823174</v>
+      </c>
+      <c r="D47">
+        <f>1000/('ARM MCL4'!$G$9/1293)</f>
+        <v>13606.229611701569</v>
+      </c>
+      <c r="E47">
+        <f>1000/('ARM MCL4'!$H$9/1293)</f>
+        <v>18450.342465753427</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="B50" t="str">
+        <f>'ARM MCL1'!B1</f>
+        <v>ARM</v>
+      </c>
+      <c r="C50" t="str">
+        <f>B1</f>
+        <v>ARM+NEON</v>
+      </c>
+      <c r="D50" t="str">
+        <f>C1</f>
+        <v>Libav NEON</v>
+      </c>
+      <c r="E50" t="str">
+        <f>D1</f>
+        <v>Libav NEON + Handopt.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ref="B51:E54" si="10" xml:space="preserve"> B44/$B$56</f>
+        <v>318.85678641393702</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="10"/>
+        <v>1026.6923413332941</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="10"/>
+        <v>3992.1000261570543</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="10"/>
+        <v>4887.6145390542897</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="10"/>
+        <v>298.29328364815768</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="10"/>
+        <v>757.95705293361232</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="10"/>
+        <v>1710.0686613405892</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="10"/>
+        <v>2081.8837160910771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="10"/>
+        <v>3791.3303388176751</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="10"/>
+        <v>9328.3185024131326</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="10"/>
+        <v>9328.3185024131326</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="10"/>
+        <v>9328.3185024131326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="10"/>
+        <v>345.46266279483791</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="10"/>
+        <v>1134.3889836143171</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="10"/>
+        <v>5743.4485486287749</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="10"/>
+        <v>7788.2408044548019</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56">
+        <v>2.3690000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" t="str">
+        <f>E1</f>
+        <v>DSP</v>
+      </c>
+      <c r="C58" t="str">
+        <f>'DSP MCL1'!C1</f>
+        <v>MATHLIB</v>
+      </c>
+      <c r="D58" t="str">
+        <f>'DSP MCL1'!D1</f>
+        <v>MATHLIB+DSPLIB</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59">
+        <f>1000/('DSP MCL1'!B9/1293)</f>
+        <v>2229.8447386528842</v>
+      </c>
+      <c r="C59">
+        <f>1000/('DSP MCL1'!C9/1293)</f>
+        <v>10318.49268608001</v>
+      </c>
+      <c r="D59">
+        <f>1000/('DSP MCL1'!D9/1293)</f>
+        <v>20981.06349489672</v>
+      </c>
+      <c r="E59">
+        <f>1000/('DSP MCL1'!E9/1293)</f>
+        <v>20982.084901986243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60">
+        <f>1000/('DSP MCL2'!B9/2585)</f>
+        <v>1903.6607728052668</v>
+      </c>
+      <c r="C60">
+        <f>1000/('DSP MCL2'!C9/2585)</f>
+        <v>7721.6271275547078</v>
+      </c>
+      <c r="D60">
+        <f>1000/('DSP MCL2'!D9/2585)</f>
+        <v>12432.845799044811</v>
+      </c>
+      <c r="E60">
+        <f>1000/('DSP MCL2'!E9/2585)</f>
+        <v>12433.084992280425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61">
+        <f>1000/('DSP MCL3'!B6/1293)</f>
+        <v>39699.10961007062</v>
+      </c>
+      <c r="C61">
+        <f>1000/('DSP MCL3'!C6/1293)</f>
+        <v>42955.383542075011</v>
+      </c>
+      <c r="D61">
+        <f>1000/('DSP MCL3'!D6/1293)</f>
+        <v>42955.383542075011</v>
+      </c>
+      <c r="E61">
+        <f>1000/('DSP MCL3'!E6/1293)</f>
+        <v>165960.72391220639</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62">
+        <f>1000/('DSP MCL4'!B9/1293)</f>
+        <v>2381.601438170459</v>
+      </c>
+      <c r="C62">
+        <f>1000/('DSP MCL4'!C9/1293)</f>
+        <v>11189.186382595752</v>
+      </c>
+      <c r="D62">
+        <f>1000/('DSP MCL4'!D9/1293)</f>
+        <v>24958.017256355321</v>
+      </c>
+      <c r="E62">
+        <f>1000/('DSP MCL4'!E9/1293)</f>
+        <v>24960.426238369175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" t="str">
+        <f>E1</f>
+        <v>DSP</v>
+      </c>
+      <c r="C64" t="str">
+        <f>'DSP MCL1'!C1</f>
+        <v>MATHLIB</v>
+      </c>
+      <c r="D64" t="str">
+        <f>'DSP MCL1'!D1</f>
+        <v>MATHLIB+DSPLIB</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65">
+        <f>B59/$B$70</f>
+        <v>660.69473737863234</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:E65" si="11">C59/$B$70</f>
+        <v>3057.3311662459287</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="11"/>
+        <v>6216.6114058953244</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="11"/>
+        <v>6216.9140450329614</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>32</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ref="B66:E66" si="12">B60/$B$70</f>
+        <v>564.04763638674569</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="12"/>
+        <v>2287.889519275469</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="12"/>
+        <v>3683.806162679944</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="12"/>
+        <v>3683.8770347497552</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ref="B67:E67" si="13">B61/$B$70</f>
+        <v>11762.699143724629</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="13"/>
+        <v>12727.521049503706</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="13"/>
+        <v>12727.521049503706</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="13"/>
+        <v>49173.547825838934</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ref="B68:E68" si="14">B62/$B$70</f>
+        <v>705.6596853838397</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="14"/>
+        <v>3315.3144837320747</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="14"/>
+        <v>7394.968075957132</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="14"/>
+        <v>7395.6818484056812</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>35</v>
+      </c>
+      <c r="B70">
+        <v>3.375</v>
       </c>
     </row>
   </sheetData>
@@ -4848,10 +6653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4865,7 +6670,7 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -4888,7 +6693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4914,7 +6719,7 @@
         <v>17.84</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4940,7 +6745,7 @@
         <v>41.69</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4966,7 +6771,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4991,8 +6796,12 @@
       <c r="H5">
         <v>83.23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <f>H5/H9*100</f>
+        <v>15.879648178886917</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5018,7 +6827,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -5043,8 +6852,12 @@
       <c r="H7">
         <v>302.56</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7">
+        <f>H7*0.76</f>
+        <v>229.94560000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -5077,18 +6890,18 @@
         <v>524.13</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="C11">
         <f>D9/H9</f>
         <v>2.7467040619693583</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="str">
         <f>A2</f>
         <v>HW</v>
@@ -5098,7 +6911,7 @@
         <v>4.1948278377083001</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="str">
         <f t="shared" ref="A15:A19" si="1">A3</f>
         <v>FFT</v>
@@ -5108,7 +6921,7 @@
         <v>58.591443634822838</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>MAG</v>
@@ -5260,10 +7073,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5277,7 +7090,7 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -5300,7 +7113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -5329,8 +7142,12 @@
         <f>$D$2</f>
         <v>50.58</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <f>H2/H6*100</f>
+        <v>86.446761237395307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5360,7 +7177,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5390,7 +7207,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -5668,7 +7485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="A14:B20"/>
     </sheetView>
   </sheetViews>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>DSP</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>SF</t>
-  </si>
-  <si>
-    <t>HW</t>
   </si>
   <si>
     <t>NASE</t>
@@ -130,6 +127,18 @@
   </si>
   <si>
     <t>LV DSP:</t>
+  </si>
+  <si>
+    <t>HAM</t>
+  </si>
+  <si>
+    <t>Referenz-FFT</t>
+  </si>
+  <si>
+    <t>Libav-FFT</t>
+  </si>
+  <si>
+    <t>Referenz</t>
   </si>
 </sst>
 </file>
@@ -224,7 +233,7 @@
                   <c:v>MFCC</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NASE</c:v>
@@ -314,24 +323,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77411840"/>
-        <c:axId val="77413376"/>
+        <c:axId val="74987008"/>
+        <c:axId val="74988544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77411840"/>
+        <c:axId val="74987008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77413376"/>
+        <c:crossAx val="74988544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77413376"/>
+        <c:axId val="74988544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,7 +348,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77411840"/>
+        <c:crossAx val="74987008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -528,7 +537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -595,11 +604,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44668800"/>
-        <c:axId val="44670336"/>
+        <c:axId val="46159744"/>
+        <c:axId val="46161280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44668800"/>
+        <c:axId val="46159744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -607,14 +616,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="44670336"/>
+        <c:crossAx val="46161280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44670336"/>
+        <c:axId val="46161280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -636,16 +645,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44668800"/>
+        <c:crossAx val="46159744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -664,7 +675,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -673,6 +684,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
+  <c:style val="18"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -689,7 +701,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FFT</c:v>
+                  <c:v>Referenz-FFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -700,13 +712,13 @@
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Libav ARM</c:v>
+                  <c:v>ARM</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Libav VFP</c:v>
+                  <c:v>ARM+VFP</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
+                  <c:v>ARM+NEON</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -718,36 +730,86 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1263.3800000000001</c:v>
+                  <c:v>1682.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>373.07</c:v>
+                  <c:v>838.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41.96</c:v>
+                  <c:v>843.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44694528"/>
-        <c:axId val="44577536"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Libav-FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$24:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$26:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1263.3800000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="46198784"/>
+        <c:axId val="46200320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44694528"/>
+        <c:axId val="46198784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44577536"/>
+        <c:crossAx val="46200320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44577536"/>
+        <c:axId val="46200320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -769,14 +831,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44694528"/>
+        <c:crossAx val="46198784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:txPr>
@@ -818,7 +885,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1037,24 +1104,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44617728"/>
-        <c:axId val="44619264"/>
+        <c:axId val="46261376"/>
+        <c:axId val="46262912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44617728"/>
+        <c:axId val="46261376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44619264"/>
+        <c:crossAx val="46262912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44619264"/>
+        <c:axId val="46262912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,16 +1143,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44617728"/>
+        <c:crossAx val="46261376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1113,6 +1182,270 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1384.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>102.13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>102.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="46278912"/>
+        <c:axId val="46292992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46278912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46292992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46292992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46278912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'ARM MCL 2'!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+VFP</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ARM MCL 2'!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>47.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="46311296"/>
+        <c:axId val="46312832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46311296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46312832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46312832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46311296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1318,7 +1651,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1347,11 +1680,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44840448"/>
-        <c:axId val="44841984"/>
+        <c:axId val="46469120"/>
+        <c:axId val="46470656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44840448"/>
+        <c:axId val="46469120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,14 +1692,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="44841984"/>
+        <c:crossAx val="46470656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44841984"/>
+        <c:axId val="46470656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1389,16 +1722,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44840448"/>
+        <c:crossAx val="46469120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1423,7 +1758,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1433,114 +1768,114 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="5"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
+              <c:f>'DSP MCL2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$23</c:f>
+              <c:f>'DSP MCL2'!$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>186.87700000000001</c:v>
+                  <c:v>85.74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$27</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
+              <c:f>'DSP MCL2'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$27</c:f>
+              <c:f>'DSP MCL2'!$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>85.74</c:v>
+                  <c:v>1.9092614075792731</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="1"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
+              <c:f>'DSP MCL2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$25</c:f>
+              <c:f>'DSP MCL2'!$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
+                  <c:v>48.723999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1551,7 +1886,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$24</c:f>
+              <c:f>'DSP MCL2'!$A$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1562,23 +1897,61 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$24</c:f>
+              <c:f>'DSP MCL2'!$B$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19.081</c:v>
+                  <c:v>29.673999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,10 +1959,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$26</c:f>
+              <c:f>'DSP MCL2'!$A$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1600,18 +1973,18 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$26</c:f>
+              <c:f>'DSP MCL2'!$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1624,61 +1997,60 @@
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
+              <c:f>'DSP MCL2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB</c:v>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$22</c:f>
+              <c:f>'DSP MCL2'!$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.7440000000000002</c:v>
+                  <c:v>3.4470000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44890752"/>
-        <c:axId val="44904832"/>
+        <c:axId val="46570496"/>
+        <c:axId val="46584576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44890752"/>
+        <c:axId val="46570496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="44904832"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46584576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44904832"/>
+        <c:axId val="46584576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1700,16 +2072,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44890752"/>
+        <c:crossAx val="46570496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1734,7 +2108,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1744,76 +2118,74 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
+              <c:f>'DSP MCL2'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Referenz</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
+              <c:f>'DSP MCL2'!$A$22:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$36</c:f>
+              <c:f>'DSP MCL2'!$B$22:$B$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ZCR</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>51.246175560711528</c:v>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>863.40200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.87299999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>189.47900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.701999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5562374323279196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1821,213 +2193,98 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'DSP MCL2'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
+              <c:f>'DSP MCL2'!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
+              <c:f>'DSP MCL2'!$A$22:$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>FFT</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>OSC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>NASE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>LE</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'DSP MCL2'!$B$32</c:f>
+              <c:f>'DSP MCL2'!$C$22:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48.723999999999997</c:v>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>19.081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>186.87700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85.74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.156000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9092614075792731</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.673999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.156000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HW</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.4470000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="44933888"/>
-        <c:axId val="44935424"/>
+        <c:axId val="84265216"/>
+        <c:axId val="84435328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44933888"/>
+        <c:axId val="84265216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44935424"/>
+        <c:crossAx val="84435328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44935424"/>
+        <c:axId val="84435328"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -2048,35 +2305,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44933888"/>
+        <c:crossAx val="84265216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2120,7 +2366,7 @@
                   <c:v>MFCC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2176,7 +2422,7 @@
                   <c:v>MFCC</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2203,24 +2449,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77874304"/>
-        <c:axId val="77875840"/>
+        <c:axId val="76760192"/>
+        <c:axId val="76761728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77874304"/>
+        <c:axId val="76760192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77875840"/>
+        <c:crossAx val="76761728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77875840"/>
+        <c:axId val="76761728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,18 +2488,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77874304"/>
+        <c:crossAx val="76760192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2495,24 +2739,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77888512"/>
-        <c:axId val="77902592"/>
+        <c:axId val="76778496"/>
+        <c:axId val="76792576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77888512"/>
+        <c:axId val="76778496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77902592"/>
+        <c:crossAx val="76792576"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77902592"/>
+        <c:axId val="76792576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2535,18 +2779,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77888512"/>
+        <c:crossAx val="76778496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2618,7 +2860,7 @@
                   <c:v>MFCC</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NASE</c:v>
@@ -2746,7 +2988,7 @@
                   <c:v>MFCC</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NASE</c:v>
@@ -2836,24 +3078,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44319872"/>
-        <c:axId val="44321408"/>
+        <c:axId val="45827200"/>
+        <c:axId val="45828736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44319872"/>
+        <c:axId val="45827200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44321408"/>
-        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:crossAx val="45828736"/>
+        <c:crossesAt val="1.0000000000000015E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44321408"/>
+        <c:axId val="45828736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2862,14 +3104,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44319872"/>
+        <c:crossAx val="45827200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -2889,7 +3130,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2942,7 +3183,7 @@
                   <c:v>MFCC</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NASE</c:v>
@@ -3070,7 +3311,7 @@
                   <c:v>MFCC</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HW</c:v>
+                  <c:v>HAM</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>NASE</c:v>
@@ -3160,24 +3401,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44353024"/>
-        <c:axId val="44354560"/>
+        <c:axId val="45864448"/>
+        <c:axId val="45865984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44353024"/>
+        <c:axId val="45864448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44354560"/>
-        <c:crossesAt val="1.0000000000000011E-4"/>
+        <c:crossAx val="45865984"/>
+        <c:crossesAt val="1.0000000000000015E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44354560"/>
+        <c:axId val="45865984"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3186,20 +3427,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44353024"/>
+        <c:crossAx val="45864448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3459,24 +3699,640 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44462848"/>
-        <c:axId val="44464384"/>
+        <c:axId val="45971328"/>
+        <c:axId val="45972864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44462848"/>
+        <c:axId val="45971328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44464384"/>
+        <c:crossAx val="45972864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44464384"/>
+        <c:axId val="45972864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Extraktionsrate in [Fenster/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45971328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$51:$E$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>318.85678641393702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1026.6923413332941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3992.1000261570543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4887.6145390542897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$52:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>298.29328364815768</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>757.95705293361232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1710.0686613405892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2081.8837160910771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$53:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3791.3303388176751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9328.3185024131326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9328.3185024131326</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9328.3185024131326</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>ARM</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ARM+NEON</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Libav NEON</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Libav NEON + Handopt.</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$54:$E$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>345.46266279483791</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1134.3889836143171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5743.4485486287749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7788.2408044548019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45884928"/>
+        <c:axId val="45886464"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45884928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45886464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45886464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energieeffizienz in [Fenster/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45884928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$59:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2229.8447386528842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10318.49268608001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20981.06349489672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20982.084901986243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$60:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1903.6607728052668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7721.6271275547078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12432.845799044811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12433.084992280425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$61:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39699.10961007062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42955.383542075011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42955.383542075011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165960.72391220639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$62:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2381.601438170459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11189.186382595752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24958.017256355321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24960.426238369175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="45929600"/>
+        <c:axId val="45931136"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45929600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45931136"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="45931136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3502,7 +4358,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44462848"/>
+        <c:crossAx val="45929600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3534,7 +4390,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -3549,7 +4405,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$51</c:f>
+              <c:f>'Feature Überblick'!$A$65</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3560,41 +4416,41 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ARM</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Libav NEON + Handopt.</c:v>
+                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$51:$E$51</c:f>
+              <c:f>'Feature Überblick'!$B$65:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>318.85678641393702</c:v>
+                  <c:v>660.69473737863234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1026.6923413332941</c:v>
+                  <c:v>3057.3311662459287</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3992.1000261570543</c:v>
+                  <c:v>6216.6114058953244</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4887.6145390542897</c:v>
+                  <c:v>6216.9140450329614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3605,7 +4461,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$52</c:f>
+              <c:f>'Feature Überblick'!$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3616,41 +4472,41 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ARM</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Libav NEON + Handopt.</c:v>
+                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$52:$E$52</c:f>
+              <c:f>'Feature Überblick'!$B$66:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>298.29328364815768</c:v>
+                  <c:v>564.04763638674569</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>757.95705293361232</c:v>
+                  <c:v>2287.889519275469</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1710.0686613405892</c:v>
+                  <c:v>3683.806162679944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2081.8837160910771</c:v>
+                  <c:v>3683.8770347497552</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3661,7 +4517,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$53</c:f>
+              <c:f>'Feature Überblick'!$A$67</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3672,41 +4528,41 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ARM</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Libav NEON + Handopt.</c:v>
+                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$53:$E$53</c:f>
+              <c:f>'Feature Überblick'!$B$67:$E$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3791.3303388176751</c:v>
+                  <c:v>11762.699143724629</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9328.3185024131326</c:v>
+                  <c:v>12727.521049503706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9328.3185024131326</c:v>
+                  <c:v>12727.521049503706</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9328.3185024131326</c:v>
+                  <c:v>49173.547825838934</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3717,7 +4573,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$54</c:f>
+              <c:f>'Feature Überblick'!$A$68</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3728,64 +4584,64 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>ARM</c:v>
+                  <c:v>DSP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
+                  <c:v>MATHLIB</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
+                  <c:v>MATHLIB+DSPLIB</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Libav NEON + Handopt.</c:v>
+                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$54:$E$54</c:f>
+              <c:f>'Feature Überblick'!$B$68:$E$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>345.46266279483791</c:v>
+                  <c:v>705.6596853838397</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1134.3889836143171</c:v>
+                  <c:v>3315.3144837320747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5743.4485486287749</c:v>
+                  <c:v>7394.968075957132</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7788.2408044548019</c:v>
+                  <c:v>7395.6818484056812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="44368256"/>
-        <c:axId val="44369792"/>
+        <c:axId val="46039424"/>
+        <c:axId val="46040960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44368256"/>
+        <c:axId val="46039424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44369792"/>
+        <c:crossAx val="46040960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44369792"/>
+        <c:axId val="46040960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3807,18 +4663,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44368256"/>
+        <c:crossAx val="46039424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3837,625 +4691,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$59:$E$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2229.8447386528842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10318.49268608001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20981.06349489672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20982.084901986243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$60:$E$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1903.6607728052668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7721.6271275547078</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12432.845799044811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12433.084992280425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$61:$E$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>39699.10961007062</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42955.383542075011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42955.383542075011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165960.72391220639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$62:$E$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2381.601438170459</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11189.186382595752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24958.017256355321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24960.426238369175</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="44418176"/>
-        <c:axId val="44419712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="44418176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44419712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="44419712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Extraktionsrate in [Fenster/s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44418176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$65:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>660.69473737863234</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3057.3311662459287</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6216.6114058953244</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6216.9140450329614</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$66:$E$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>564.04763638674569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2287.889519275469</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3683.806162679944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3683.8770347497552</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$67:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11762.699143724629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12727.521049503706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12727.521049503706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49173.547825838934</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$68:$E$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>705.6596853838397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3315.3144837320747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7394.968075957132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7395.6818484056812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="47075712"/>
-        <c:axId val="47077248"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="47075712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47077248"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="47077248"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Energieeffizienz in [Fenster/J]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47075712"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4828,6 +5064,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4866,19 +5162,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4896,19 +5192,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvPr id="6" name="Diagramm 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5213,7 +5509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E126" workbookViewId="0">
+    <sheetView topLeftCell="E126" workbookViewId="0">
       <selection activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
@@ -5404,7 +5700,7 @@
     <row r="8" spans="1:6">
       <c r="A8" t="str">
         <f>'ARM MCL 2'!A2</f>
-        <v>HW</v>
+        <v>HAM</v>
       </c>
       <c r="B8">
         <f>'ARM MCL 2'!D2/2585</f>
@@ -5671,7 +5967,7 @@
         <v>Libav NEON + Handopt.</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -5731,7 +6027,7 @@
     <row r="25" spans="1:6">
       <c r="A25" t="str">
         <f>A8</f>
-        <v>HW</v>
+        <v>HAM</v>
       </c>
       <c r="B25">
         <f t="shared" ref="B25" si="5">B8</f>
@@ -5992,7 +6288,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B44">
         <f>1000/('ARM MCL1'!B9/1293)</f>
@@ -6013,7 +6309,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <f>1000/('ARM MCL 2'!$B$9/2585)</f>
@@ -6034,7 +6330,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <f>1000/('ARM MCL3'!$B$6/1293)</f>
@@ -6055,7 +6351,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47">
         <f>1000/('ARM MCL4'!$B$9/1293)</f>
@@ -6094,7 +6390,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B51">
         <f t="shared" ref="B51:E54" si="10" xml:space="preserve"> B44/$B$56</f>
@@ -6115,7 +6411,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <f t="shared" si="10"/>
@@ -6136,7 +6432,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <f t="shared" si="10"/>
@@ -6157,7 +6453,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <f t="shared" si="10"/>
@@ -6178,7 +6474,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56">
         <v>2.3690000000000002</v>
@@ -6198,12 +6494,12 @@
         <v>MATHLIB+DSPLIB</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B59">
         <f>1000/('DSP MCL1'!B9/1293)</f>
@@ -6224,7 +6520,7 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <f>1000/('DSP MCL2'!B9/2585)</f>
@@ -6245,7 +6541,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <f>1000/('DSP MCL3'!B6/1293)</f>
@@ -6266,7 +6562,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B62">
         <f>1000/('DSP MCL4'!B9/1293)</f>
@@ -6299,12 +6595,12 @@
         <v>MATHLIB+DSPLIB</v>
       </c>
       <c r="E64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B65">
         <f>B59/$B$70</f>
@@ -6325,7 +6621,7 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B66">
         <f t="shared" ref="B66:E66" si="12">B60/$B$70</f>
@@ -6346,7 +6642,7 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:E67" si="13">B61/$B$70</f>
@@ -6367,7 +6663,7 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B68">
         <f t="shared" ref="B68:E68" si="14">B62/$B$70</f>
@@ -6388,7 +6684,7 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B70">
         <v>3.375</v>
@@ -6403,10 +6699,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6440,7 +6736,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6644,6 +6940,32 @@
       <c r="D13">
         <f>D2/G2</f>
         <v>19.241037735849059</v>
+      </c>
+      <c r="E13">
+        <f>B9/H9</f>
+        <v>15.328557356496821</v>
+      </c>
+      <c r="F13">
+        <f>F7/H7</f>
+        <v>1.232394366197183</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18">
+        <f>B2/B9*100</f>
+        <v>48.935001811022701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19">
+        <f>G9/H9</f>
+        <v>1.2243216620399393</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20">
+        <f>'ARM MCL1'!H9/'DSP MCL1'!E9</f>
+        <v>1.8121186550694535</v>
       </c>
     </row>
   </sheetData>
@@ -6656,7 +6978,7 @@
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6690,12 +7012,12 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>47.08</v>
@@ -6803,7 +7125,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>32.590000000000003</v>
@@ -6829,7 +7151,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>351.69</v>
@@ -6892,8 +7214,24 @@
     </row>
     <row r="11" spans="1:9">
       <c r="C11">
-        <f>D9/H9</f>
-        <v>2.7467040619693583</v>
+        <f>G9/(G2+G3+H4+G5+G6+G7)</f>
+        <v>1.0899509762055242</v>
+      </c>
+      <c r="D11">
+        <f>B9/H9</f>
+        <v>6.9793181081029525</v>
+      </c>
+      <c r="E11">
+        <f>B2/H2</f>
+        <v>2.6390134529147979</v>
+      </c>
+      <c r="F11">
+        <f>G9/(H2+H3+H4+G5+H6+H7)</f>
+        <v>1.1759643205985881</v>
+      </c>
+      <c r="G11">
+        <f>G9/H9</f>
+        <v>1.2174269742239519</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6904,7 +7242,7 @@
     <row r="14" spans="1:9">
       <c r="A14" t="str">
         <f>A2</f>
-        <v>HW</v>
+        <v>HAM</v>
       </c>
       <c r="B14">
         <f>D2/$D$9*100</f>
@@ -6968,34 +7306,72 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" t="str">
-        <f>E1</f>
-        <v>Libav ARM</v>
-      </c>
-      <c r="C24" t="str">
-        <f t="shared" ref="C24:D24" si="3">F1</f>
-        <v>Libav VFP</v>
-      </c>
-      <c r="D24" t="str">
-        <f t="shared" si="3"/>
-        <v>Libav NEON</v>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B25">
+        <f>B3</f>
+        <v>1682.13</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:D25" si="3">C3</f>
+        <v>838.04</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="3"/>
+        <v>843.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
         <f>E3</f>
         <v>1263.3800000000001</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <f>F3</f>
         <v>373.07</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <f>G3</f>
         <v>41.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27">
+        <f>B25/B26</f>
+        <v>1.3314521363326948</v>
+      </c>
+      <c r="C27">
+        <f>C25/C26</f>
+        <v>2.2463344680622939</v>
+      </c>
+      <c r="D27">
+        <f>D25/D26</f>
+        <v>20.102478551000953</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28">
+        <f>C27/B27</f>
+        <v>1.6871312206907558</v>
+      </c>
+      <c r="D28">
+        <f>D27/B27</f>
+        <v>15.098160874464867</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7007,7 +7383,7 @@
     <row r="31" spans="1:4">
       <c r="A31" t="str">
         <f>A2</f>
-        <v>HW</v>
+        <v>HAM</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31:B36" si="4">G2</f>
@@ -7073,10 +7449,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7110,12 +7486,12 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>88.34</v>
@@ -7149,7 +7525,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>46.42</v>
@@ -7179,7 +7555,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>9.1999999999999993</v>
@@ -7238,6 +7614,12 @@
       <c r="H6">
         <f t="shared" si="2"/>
         <v>58.510000000000005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10">
+        <f>B6/H6</f>
+        <v>2.4604341138266959</v>
       </c>
     </row>
   </sheetData>
@@ -7247,16 +7629,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:H7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -7284,7 +7666,7 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7341,7 +7723,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>10.24</v>
@@ -7367,7 +7749,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5">
         <v>24.44</v>
@@ -7393,7 +7775,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6">
         <v>13.15</v>
@@ -7419,7 +7801,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>2.68</v>
@@ -7474,6 +7856,24 @@
       <c r="H9">
         <f t="shared" si="0"/>
         <v>70.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13">
+        <f>B2/B9*100</f>
+        <v>53.007449791443804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14">
+        <f>G9/H9</f>
+        <v>1.3560216894977168</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15">
+        <f>B9/H9</f>
+        <v>22.544377853881283</v>
       </c>
     </row>
   </sheetData>
@@ -7483,10 +7883,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="A14:B20"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7641,6 +8041,38 @@
         <v>61.623999999999995</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="B12">
+        <f>B9/E9</f>
+        <v>9.4096618200701023</v>
+      </c>
+      <c r="C12">
+        <f>B7/C7</f>
+        <v>3.0684287228404874</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <f>B3/C3</f>
+        <v>45.541284403669721</v>
+      </c>
+      <c r="C13">
+        <f>B4/C4</f>
+        <v>1.4001119194180189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14">
+        <f>B6/C6</f>
+        <v>1.0489977728285078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="C15">
+        <f>B9/C9</f>
+        <v>4.6274489462049804</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7648,10 +8080,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7663,7 +8095,7 @@
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -7677,10 +8109,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" t="str">
         <f>'ARM MCL 2'!A2</f>
-        <v>HW</v>
+        <v>HAM</v>
       </c>
       <c r="B2">
         <v>2.714</v>
@@ -7695,7 +8127,7 @@
         <v>3.4489999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3" t="str">
         <f>'ARM MCL 2'!A3</f>
         <v>FFT</v>
@@ -7713,7 +8145,7 @@
         <v>48.723999999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9">
       <c r="A4" t="str">
         <f>'ARM MCL 2'!A4</f>
         <v>MAG</v>
@@ -7731,7 +8163,7 @@
         <v>29.667999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9">
       <c r="A5" t="str">
         <f>'ARM MCL 2'!A5</f>
         <v>MFCC</v>
@@ -7749,7 +8181,7 @@
         <v>30.175999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:9">
       <c r="A6" t="str">
         <f>'ARM MCL 2'!A6</f>
         <v>NASE</v>
@@ -7767,7 +8199,7 @@
         <v>10.156000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9">
       <c r="A7" t="str">
         <f>'ARM MCL 2'!A7</f>
         <v>OSC</v>
@@ -7785,7 +8217,7 @@
         <v>85.74</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7805,24 +8237,52 @@
         <f t="shared" si="0"/>
         <v>207.91300000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F9">
+        <f>B4/C4</f>
+        <v>45.249305591950112</v>
+      </c>
+      <c r="G9">
+        <f>B5/C5</f>
+        <v>3.0720440084835632</v>
+      </c>
+      <c r="H9">
+        <f>B6/C6</f>
+        <v>2.2390705001969278</v>
+      </c>
+      <c r="I9">
+        <f>B7/C7</f>
+        <v>2.2099253557266159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="I10">
+        <f>B9/C9</f>
+        <v>4.0561991074575685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11">
+        <f>B9/E9</f>
+        <v>6.5311452386334672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="B13" t="str">
         <f>B1</f>
         <v>DSP</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:9">
       <c r="A14" t="str">
         <f t="shared" ref="A14:A19" si="1">A2</f>
-        <v>HW</v>
+        <v>HAM</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B19" si="2">B2/$B$9*100</f>
         <v>0.19986597049878119</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:9">
       <c r="A15" t="str">
         <f t="shared" si="1"/>
         <v>FFT</v>
@@ -7832,7 +8292,7 @@
         <v>13.761810429262617</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:9">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>MAG</v>
@@ -7842,7 +8302,7 @@
         <v>63.58315352269296</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="str">
         <f t="shared" si="1"/>
         <v>MFCC</v>
@@ -7852,7 +8312,7 @@
         <v>6.8268147373537271</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="str">
         <f t="shared" si="1"/>
         <v>NASE</v>
@@ -7862,7 +8322,7 @@
         <v>1.6746323394039369</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="str">
         <f t="shared" si="1"/>
         <v>OSC</v>
@@ -7872,156 +8332,186 @@
         <v>13.953723000787976</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="B21" t="str">
+    <row r="21" spans="1:3">
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="str">
         <f>C1</f>
         <v>MATHLIB</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="str">
+        <f>A4</f>
+        <v>MAG</v>
+      </c>
+      <c r="B22">
+        <f>B4</f>
+        <v>863.40200000000004</v>
+      </c>
+      <c r="C22">
+        <f>C4</f>
+        <v>19.081</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="str">
+        <f>A3</f>
+        <v>FFT</v>
+      </c>
+      <c r="B23">
+        <f>B3</f>
+        <v>186.87299999999999</v>
+      </c>
+      <c r="C23">
+        <f>C3</f>
+        <v>186.87700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="str">
+        <f>A7</f>
+        <v>OSC</v>
+      </c>
+      <c r="B24">
+        <f>B7</f>
+        <v>189.47900000000001</v>
+      </c>
+      <c r="C24">
+        <f>C7</f>
+        <v>85.74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="str">
+        <f>A5</f>
+        <v>MFCC</v>
+      </c>
+      <c r="B25">
+        <f>B5</f>
+        <v>92.701999999999998</v>
+      </c>
+      <c r="C25">
+        <f>C5</f>
+        <v>30.175999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="str">
+        <f>A6</f>
+        <v>NASE</v>
+      </c>
+      <c r="B26">
+        <f>B6</f>
+        <v>22.74</v>
+      </c>
+      <c r="C26">
+        <f>C6</f>
+        <v>10.156000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27">
+        <f>'DSP MCL3'!B4/1293*2585</f>
+        <v>4.5562374323279196</v>
+      </c>
+      <c r="C27">
+        <f>'DSP MCL3'!C4/1293*2585</f>
+        <v>1.9092614075792731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="str">
         <f>A2</f>
-        <v>HW</v>
-      </c>
-      <c r="B22">
-        <f t="shared" ref="B22:B27" si="3">C2</f>
-        <v>2.7440000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="str">
-        <f t="shared" ref="A23:A27" si="4">A3</f>
-        <v>FFT</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="3"/>
-        <v>186.87700000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="str">
-        <f t="shared" si="4"/>
-        <v>MAG</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="3"/>
-        <v>19.081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="str">
-        <f t="shared" si="4"/>
-        <v>MFCC</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="3"/>
-        <v>30.175999999999998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="str">
-        <f t="shared" si="4"/>
-        <v>NASE</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="3"/>
-        <v>10.156000000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="str">
-        <f t="shared" si="4"/>
-        <v>OSC</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="3"/>
-        <v>85.74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="str">
-        <f>'DSP MCL3'!A2</f>
-        <v>ZCR</v>
+        <v>HAM</v>
       </c>
       <c r="B28">
-        <f>'DSP MCL3'!D2/1293*2585</f>
-        <v>51.246175560711528</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <f>$B$2</f>
+        <v>2.714</v>
+      </c>
+      <c r="C28">
+        <f>$B$2</f>
+        <v>2.714</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="B30" t="str">
         <f>D1</f>
         <v>MATHLIB+DSPLIB</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" t="str">
-        <f>A22</f>
-        <v>HW</v>
+        <f>A28</f>
+        <v>HAM</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B36" si="5">D2</f>
+        <f t="shared" ref="B31:B36" si="3">D2</f>
         <v>3.4470000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="str">
-        <f t="shared" ref="A32:A37" si="6">A23</f>
+        <f>A23</f>
         <v>FFT</v>
       </c>
       <c r="B32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>48.723999999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="str">
-        <f t="shared" si="6"/>
+        <f>A22</f>
         <v>MAG</v>
       </c>
       <c r="B33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>29.673999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="str">
-        <f t="shared" si="6"/>
+        <f>A25</f>
         <v>MFCC</v>
       </c>
       <c r="B34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>30.175999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="str">
-        <f t="shared" si="6"/>
+        <f>A26</f>
         <v>NASE</v>
       </c>
       <c r="B35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10.156000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="str">
-        <f t="shared" si="6"/>
+        <f>A24</f>
         <v>OSC</v>
       </c>
       <c r="B36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>85.74</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="str">
-        <f t="shared" si="6"/>
-        <v>ZCR</v>
+        <f>A27</f>
+        <v>LE</v>
       </c>
       <c r="B37">
-        <f>B28</f>
-        <v>51.246175560711528</v>
+        <f>C27</f>
+        <v>1.9092614075792731</v>
       </c>
     </row>
   </sheetData>
@@ -8032,10 +8522,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8136,6 +8626,30 @@
         <v>7.7910000000000004</v>
       </c>
     </row>
+    <row r="8" spans="1:5">
+      <c r="B8">
+        <f>B6/E6</f>
+        <v>4.1804646386856632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="B9">
+        <f>B3/C3</f>
+        <v>1.3279248505550811</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10">
+        <f>B4/C4</f>
+        <v>2.3863874345549738</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="C11">
+        <f>B6/C6</f>
+        <v>1.0820238530281387</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8143,10 +8657,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8301,6 +8815,30 @@
         <v>51.802</v>
       </c>
     </row>
+    <row r="12" spans="1:5">
+      <c r="B12">
+        <f>B9/E9</f>
+        <v>10.480521987568046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="B13">
+        <f>B4/C4</f>
+        <v>2.1612368856985094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14">
+        <f>B5/C5</f>
+        <v>1.75441835927196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15">
+        <f>B9/C9</f>
+        <v>4.6981775385520681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -323,24 +323,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74987008"/>
-        <c:axId val="74988544"/>
+        <c:axId val="52901376"/>
+        <c:axId val="52902912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74987008"/>
+        <c:axId val="52901376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74988544"/>
+        <c:crossAx val="52902912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74988544"/>
+        <c:axId val="52902912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +348,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74987008"/>
+        <c:crossAx val="52901376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -604,11 +604,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46159744"/>
-        <c:axId val="46161280"/>
+        <c:axId val="64182144"/>
+        <c:axId val="64183680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46159744"/>
+        <c:axId val="64182144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,14 +616,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="46161280"/>
+        <c:crossAx val="64183680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46161280"/>
+        <c:axId val="64183680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,18 +645,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46159744"/>
+        <c:crossAx val="64182144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -675,7 +673,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -792,24 +790,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46198784"/>
-        <c:axId val="46200320"/>
+        <c:axId val="64221184"/>
+        <c:axId val="64222720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46198784"/>
+        <c:axId val="64221184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46200320"/>
+        <c:crossAx val="64222720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46200320"/>
+        <c:axId val="64222720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -831,18 +829,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46198784"/>
+        <c:crossAx val="64221184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1104,24 +1100,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46261376"/>
-        <c:axId val="46262912"/>
+        <c:axId val="66380928"/>
+        <c:axId val="66382464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46261376"/>
+        <c:axId val="66380928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46262912"/>
+        <c:crossAx val="66382464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46262912"/>
+        <c:axId val="66382464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1143,18 +1139,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46261376"/>
+        <c:crossAx val="66380928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1240,24 +1234,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46278912"/>
-        <c:axId val="46292992"/>
+        <c:axId val="66398464"/>
+        <c:axId val="66412544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46278912"/>
+        <c:axId val="66398464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46292992"/>
+        <c:crossAx val="66412544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46292992"/>
+        <c:axId val="66412544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,11 +1273,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46278912"/>
+        <c:crossAx val="66398464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1305,7 +1298,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1372,24 +1365,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46311296"/>
-        <c:axId val="46312832"/>
+        <c:axId val="66436096"/>
+        <c:axId val="66441984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46311296"/>
+        <c:axId val="66436096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46312832"/>
+        <c:crossAx val="66441984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46312832"/>
+        <c:axId val="66441984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1411,11 +1404,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46311296"/>
+        <c:crossAx val="66436096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1437,7 +1429,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1680,11 +1672,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46469120"/>
-        <c:axId val="46470656"/>
+        <c:axId val="67641728"/>
+        <c:axId val="67643264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46469120"/>
+        <c:axId val="67641728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,14 +1684,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="46470656"/>
+        <c:crossAx val="67643264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46470656"/>
+        <c:axId val="67643264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1726,7 +1718,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46469120"/>
+        <c:crossAx val="67641728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2033,24 +2025,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="46570496"/>
-        <c:axId val="46584576"/>
+        <c:axId val="67684608"/>
+        <c:axId val="68755456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46570496"/>
+        <c:axId val="67684608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46584576"/>
+        <c:crossAx val="68755456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46584576"/>
+        <c:axId val="68755456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2068,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46570496"/>
+        <c:crossAx val="67684608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2265,24 +2257,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84265216"/>
-        <c:axId val="84435328"/>
+        <c:axId val="68779008"/>
+        <c:axId val="68784896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84265216"/>
+        <c:axId val="68779008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84435328"/>
+        <c:crossAx val="68784896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84435328"/>
+        <c:axId val="68784896"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2309,7 +2301,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84265216"/>
+        <c:crossAx val="68779008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2322,7 +2314,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2449,24 +2441,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76760192"/>
-        <c:axId val="76761728"/>
+        <c:axId val="63521920"/>
+        <c:axId val="63523456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76760192"/>
+        <c:axId val="63521920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76761728"/>
+        <c:crossAx val="63523456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76761728"/>
+        <c:axId val="63523456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2483,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76760192"/>
+        <c:crossAx val="63521920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2739,24 +2731,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76778496"/>
-        <c:axId val="76792576"/>
+        <c:axId val="63536128"/>
+        <c:axId val="63550208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76778496"/>
+        <c:axId val="63536128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76792576"/>
+        <c:crossAx val="63550208"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76792576"/>
+        <c:axId val="63550208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2782,7 +2774,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76778496"/>
+        <c:crossAx val="63536128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3078,24 +3070,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45827200"/>
-        <c:axId val="45828736"/>
+        <c:axId val="51463296"/>
+        <c:axId val="51464832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45827200"/>
+        <c:axId val="51463296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45828736"/>
-        <c:crossesAt val="1.0000000000000015E-4"/>
+        <c:crossAx val="51464832"/>
+        <c:crossesAt val="1.0000000000000018E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45828736"/>
+        <c:axId val="51464832"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3104,7 +3096,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45827200"/>
+        <c:crossAx val="51463296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3401,24 +3393,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45864448"/>
-        <c:axId val="45865984"/>
+        <c:axId val="51500544"/>
+        <c:axId val="51502080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45864448"/>
+        <c:axId val="51500544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45865984"/>
-        <c:crossesAt val="1.0000000000000015E-4"/>
+        <c:crossAx val="51502080"/>
+        <c:crossesAt val="1.0000000000000018E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45865984"/>
+        <c:axId val="51502080"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3427,7 +3419,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45864448"/>
+        <c:crossAx val="51500544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3699,24 +3691,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45971328"/>
-        <c:axId val="45972864"/>
+        <c:axId val="63928192"/>
+        <c:axId val="63929728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45971328"/>
+        <c:axId val="63928192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45972864"/>
+        <c:crossAx val="63929728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45972864"/>
+        <c:axId val="63929728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3741,7 +3733,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45971328"/>
+        <c:crossAx val="63928192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3766,7 +3758,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4006,642 +3998,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="45884928"/>
-        <c:axId val="45886464"/>
+        <c:axId val="63579648"/>
+        <c:axId val="63581184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45884928"/>
+        <c:axId val="63579648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45886464"/>
+        <c:crossAx val="63581184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="45886464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Energieeffizienz in [Fenster/J]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45884928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup orientation="portrait"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$59</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$59:$E$59</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2229.8447386528842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10318.49268608001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20981.06349489672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20982.084901986243</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$60</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$60:$E$60</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1903.6607728052668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7721.6271275547078</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12432.845799044811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12433.084992280425</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$61</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$61:$E$61</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>39699.10961007062</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>42955.383542075011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42955.383542075011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165960.72391220639</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$62</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$62:$E$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2381.601438170459</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11189.186382595752</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>24958.017256355321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24960.426238369175</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="45929600"/>
-        <c:axId val="45931136"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="45929600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45931136"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="45931136"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Extraktionsrate in [Fenster/s]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45929600"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:style val="18"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$65</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$65:$E$65</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>660.69473737863234</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3057.3311662459287</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6216.6114058953244</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6216.9140450329614</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$66</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$66:$E$66</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>564.04763638674569</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2287.889519275469</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3683.806162679944</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3683.8770347497552</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$67:$E$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>11762.699143724629</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12727.521049503706</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12727.521049503706</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>49173.547825838934</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$A$68</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FSet4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Feature Überblick'!$B$68:$E$68</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>705.6596853838397</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3315.3144837320747</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7394.968075957132</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7395.6818484056812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="46039424"/>
-        <c:axId val="46040960"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="46039424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46040960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="46040960"/>
+        <c:axId val="63581184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4666,7 +4040,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46039424"/>
+        <c:crossAx val="63579648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4691,7 +4065,621 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$59</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$59:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2229.8447386528842</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10318.49268608001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20981.06349489672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20982.084901986243</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$60:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1903.6607728052668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7721.6271275547078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12432.845799044811</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12433.084992280425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$61</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$61:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>39699.10961007062</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42955.383542075011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42955.383542075011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165960.72391220639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$62:$E$62</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2381.601438170459</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11189.186382595752</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24958.017256355321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24960.426238369175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="63624320"/>
+        <c:axId val="63625856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="63624320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63625856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="63625856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Extraktionsrate in [Fenster/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63624320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$65:$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>660.69473737863234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3057.3311662459287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6216.6114058953244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6216.9140450329614</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$66:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>564.04763638674569</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2287.889519275469</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3683.806162679944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3683.8770347497552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$67:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>11762.699143724629</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12727.521049503706</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12727.521049503706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49173.547825838934</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$B$64:$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>DSP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>MATHLIB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$B$68:$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>705.6596853838397</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3315.3144837320747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7394.968075957132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7395.6818484056812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="64000384"/>
+        <c:axId val="64001920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64000384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64001920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64001920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energieeffizienz in [Fenster/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64000384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -7886,7 +7874,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8060,11 +8048,19 @@
         <f>B4/C4</f>
         <v>1.4001119194180189</v>
       </c>
+      <c r="D13">
+        <f>B2/D2</f>
+        <v>3.8398342971986383</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14">
         <f>B6/C6</f>
         <v>1.0489977728285078</v>
+      </c>
+      <c r="D14">
+        <f>C9/D9</f>
+        <v>2.0333457737679916</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -8082,8 +8078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8265,6 +8261,14 @@
         <f>B9/E9</f>
         <v>6.5311452386334672</v>
       </c>
+      <c r="C11">
+        <f>B3/D3</f>
+        <v>3.835337821196946</v>
+      </c>
+      <c r="D11">
+        <f>C9/D9</f>
+        <v>1.6101328895665097</v>
+      </c>
     </row>
     <row r="13" spans="1:9">
       <c r="B13" t="str">
@@ -8385,29 +8389,29 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="str">
-        <f>A5</f>
+        <f t="shared" ref="A25:C26" si="3">A5</f>
         <v>MFCC</v>
       </c>
       <c r="B25">
-        <f>B5</f>
+        <f t="shared" si="3"/>
         <v>92.701999999999998</v>
       </c>
       <c r="C25">
-        <f>C5</f>
+        <f t="shared" si="3"/>
         <v>30.175999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="str">
-        <f>A6</f>
+        <f t="shared" si="3"/>
         <v>NASE</v>
       </c>
       <c r="B26">
-        <f>B6</f>
+        <f t="shared" si="3"/>
         <v>22.74</v>
       </c>
       <c r="C26">
-        <f>C6</f>
+        <f t="shared" si="3"/>
         <v>10.156000000000001</v>
       </c>
     </row>
@@ -8450,7 +8454,7 @@
         <v>HAM</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B36" si="3">D2</f>
+        <f t="shared" ref="B31:B36" si="4">D2</f>
         <v>3.4470000000000001</v>
       </c>
     </row>
@@ -8460,7 +8464,7 @@
         <v>FFT</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48.723999999999997</v>
       </c>
     </row>
@@ -8470,7 +8474,7 @@
         <v>MAG</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29.673999999999999</v>
       </c>
     </row>
@@ -8480,7 +8484,7 @@
         <v>MFCC</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30.175999999999998</v>
       </c>
     </row>
@@ -8490,7 +8494,7 @@
         <v>NASE</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.156000000000001</v>
       </c>
     </row>
@@ -8500,7 +8504,7 @@
         <v>OSC</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>85.74</v>
       </c>
     </row>
@@ -8524,8 +8528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8631,11 +8635,19 @@
         <f>B6/E6</f>
         <v>4.1804646386856632</v>
       </c>
+      <c r="D8">
+        <f>D2/E2</f>
+        <v>7.7138128197411975</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9">
         <f>B3/C3</f>
         <v>1.3279248505550811</v>
+      </c>
+      <c r="D9">
+        <f>D6/E6</f>
+        <v>3.863560518547041</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -8657,10 +8669,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8820,6 +8832,10 @@
         <f>B9/E9</f>
         <v>10.480521987568046</v>
       </c>
+      <c r="C12">
+        <f>C9/D9</f>
+        <v>2.2305479954446312</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13">
@@ -8839,6 +8855,12 @@
         <v>4.6981775385520681</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="B16">
+        <f>B2/D2</f>
+        <v>3.8349124318116563</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -189,7 +189,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -323,24 +325,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52901376"/>
-        <c:axId val="52902912"/>
+        <c:axId val="79326208"/>
+        <c:axId val="79328000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52901376"/>
+        <c:axId val="79326208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52902912"/>
+        <c:crossAx val="79328000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52902912"/>
+        <c:axId val="79328000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,13 +350,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52901376"/>
+        <c:crossAx val="79326208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -604,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64182144"/>
-        <c:axId val="64183680"/>
+        <c:axId val="93154688"/>
+        <c:axId val="93164672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64182144"/>
+        <c:axId val="93154688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -616,14 +619,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="64183680"/>
+        <c:crossAx val="93164672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64183680"/>
+        <c:axId val="93164672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -648,7 +651,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64182144"/>
+        <c:crossAx val="93154688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -673,7 +676,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -790,24 +793,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64221184"/>
-        <c:axId val="64222720"/>
+        <c:axId val="93193728"/>
+        <c:axId val="93195264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64221184"/>
+        <c:axId val="93193728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64222720"/>
+        <c:crossAx val="93195264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64222720"/>
+        <c:axId val="93195264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -832,7 +835,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64221184"/>
+        <c:crossAx val="93193728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1100,24 +1103,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66380928"/>
-        <c:axId val="66382464"/>
+        <c:axId val="93252224"/>
+        <c:axId val="93270400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66380928"/>
+        <c:axId val="93252224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66382464"/>
+        <c:crossAx val="93270400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66382464"/>
+        <c:axId val="93270400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1142,7 +1145,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66380928"/>
+        <c:crossAx val="93252224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,24 +1237,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66398464"/>
-        <c:axId val="66412544"/>
+        <c:axId val="93302784"/>
+        <c:axId val="93304320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66398464"/>
+        <c:axId val="93302784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66412544"/>
+        <c:crossAx val="93304320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66412544"/>
+        <c:axId val="93304320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,7 +1279,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66398464"/>
+        <c:crossAx val="93302784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1298,7 +1301,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1365,24 +1368,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66436096"/>
-        <c:axId val="66441984"/>
+        <c:axId val="93315840"/>
+        <c:axId val="93317376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66436096"/>
+        <c:axId val="93315840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66441984"/>
+        <c:crossAx val="93317376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66441984"/>
+        <c:axId val="93317376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1407,7 +1410,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66436096"/>
+        <c:crossAx val="93315840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1429,7 +1432,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1672,11 +1675,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67641728"/>
-        <c:axId val="67643264"/>
+        <c:axId val="94508928"/>
+        <c:axId val="94510464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67641728"/>
+        <c:axId val="94508928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1684,14 +1687,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67643264"/>
+        <c:crossAx val="94510464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67643264"/>
+        <c:axId val="94510464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1714,18 +1717,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67641728"/>
+        <c:crossAx val="94508928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2025,24 +2026,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="67684608"/>
-        <c:axId val="68755456"/>
+        <c:axId val="94560256"/>
+        <c:axId val="94561792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67684608"/>
+        <c:axId val="94560256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68755456"/>
+        <c:crossAx val="94561792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68755456"/>
+        <c:axId val="94561792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2064,18 +2065,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67684608"/>
+        <c:crossAx val="94560256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2257,24 +2256,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68779008"/>
-        <c:axId val="68784896"/>
+        <c:axId val="94622464"/>
+        <c:axId val="94624000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68779008"/>
+        <c:axId val="94622464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68784896"/>
+        <c:crossAx val="94624000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68784896"/>
+        <c:axId val="94624000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2297,24 +2296,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68779008"/>
+        <c:crossAx val="94622464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2441,24 +2438,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63521920"/>
-        <c:axId val="63523456"/>
+        <c:axId val="79440512"/>
+        <c:axId val="79462784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63521920"/>
+        <c:axId val="79440512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63523456"/>
+        <c:crossAx val="79462784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63523456"/>
+        <c:axId val="79462784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,16 +2477,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63521920"/>
+        <c:crossAx val="79440512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2731,24 +2730,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63536128"/>
-        <c:axId val="63550208"/>
+        <c:axId val="79491840"/>
+        <c:axId val="79493376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63536128"/>
+        <c:axId val="79491840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63550208"/>
+        <c:crossAx val="79493376"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63550208"/>
+        <c:axId val="79493376"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2771,16 +2770,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63536128"/>
+        <c:crossAx val="79491840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3070,24 +3071,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51463296"/>
-        <c:axId val="51464832"/>
+        <c:axId val="81898112"/>
+        <c:axId val="81904000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51463296"/>
+        <c:axId val="81898112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51464832"/>
-        <c:crossesAt val="1.0000000000000018E-4"/>
+        <c:crossAx val="81904000"/>
+        <c:crossesAt val="1.0000000000000025E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51464832"/>
+        <c:axId val="81904000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3096,13 +3097,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51463296"/>
+        <c:crossAx val="81898112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -3393,24 +3395,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51500544"/>
-        <c:axId val="51502080"/>
+        <c:axId val="81910784"/>
+        <c:axId val="86446848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51500544"/>
+        <c:axId val="81910784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51502080"/>
-        <c:crossesAt val="1.0000000000000018E-4"/>
+        <c:crossAx val="86446848"/>
+        <c:crossesAt val="1.0000000000000025E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51502080"/>
+        <c:axId val="86446848"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3419,13 +3421,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51500544"/>
+        <c:crossAx val="81910784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3468,19 +3471,10 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3488,20 +3482,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$44:$E$44</c:f>
+              <c:f>'Feature Überblick'!$E$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>755.37172701461679</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2432.2341566185737</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9457.2849619660628</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>11578.758843019614</c:v>
                 </c:pt>
               </c:numCache>
@@ -3529,19 +3514,10 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3549,20 +3525,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$45:$E$45</c:f>
+              <c:f>'Feature Überblick'!$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>706.65678896248562</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1795.6002583997279</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4051.152658715856</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>4931.9825234197624</c:v>
                 </c:pt>
               </c:numCache>
@@ -3590,19 +3557,10 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3610,20 +3568,11 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$46:$E$46</c:f>
+              <c:f>'Feature Überblick'!$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8981.6615726590735</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22098.786532216713</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22098.786532216713</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>22098.786532216713</c:v>
                 </c:pt>
               </c:numCache>
@@ -3651,19 +3600,10 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$43:$E$43</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3671,44 +3611,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$47:$E$47</c:f>
+              <c:f>'Feature Überblick'!$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>818.40104816097107</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2687.3675021823174</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13606.229611701569</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>18450.342465753427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63928192"/>
-        <c:axId val="63929728"/>
+        <c:axId val="86482304"/>
+        <c:axId val="86492288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63928192"/>
+        <c:axId val="86482304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63929728"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="86492288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63929728"/>
+        <c:axId val="86492288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3730,16 +3662,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63928192"/>
+        <c:crossAx val="86482304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3790,19 +3724,10 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3810,21 +3735,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$51:$E$51</c:f>
+              <c:f>'Feature Überblick'!$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>318.85678641393702</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1026.6923413332941</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3992.1000261570543</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4887.6145390542897</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>68513.365935027294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3846,19 +3762,10 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3866,21 +3773,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$52:$E$52</c:f>
+              <c:f>'Feature Überblick'!$E$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>298.29328364815768</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>757.95705293361232</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1710.0686613405892</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2081.8837160910771</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29183.328540945338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3902,19 +3800,10 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3922,21 +3811,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$53:$E$53</c:f>
+              <c:f>'Feature Überblick'!$E$53</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>3791.3303388176751</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9328.3185024131326</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9328.3185024131326</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9328.3185024131326</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>130762.05048648942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3958,19 +3838,10 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$50:$E$50</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>ARM</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>ARM+NEON</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Libav NEON</c:v>
-                </c:pt>
-                <c:pt idx="3">
+              <c:f>'Feature Überblick'!$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>Libav NEON + Handopt.</c:v>
                 </c:pt>
               </c:strCache>
@@ -3978,44 +3849,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$54:$E$54</c:f>
+              <c:f>'Feature Überblick'!$E$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>345.46266279483791</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1134.3889836143171</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5743.4485486287749</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7788.2408044548019</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>109173.62405771257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63579648"/>
-        <c:axId val="63581184"/>
+        <c:axId val="86850560"/>
+        <c:axId val="86856448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63579648"/>
+        <c:axId val="86850560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63581184"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="86856448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63581184"/>
+        <c:axId val="86856448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,16 +3900,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63579648"/>
+        <c:crossAx val="86850560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4065,7 +3930,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4305,24 +4170,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63624320"/>
-        <c:axId val="63625856"/>
+        <c:axId val="87165568"/>
+        <c:axId val="87175552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63624320"/>
+        <c:axId val="87165568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63625856"/>
+        <c:crossAx val="87175552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63625856"/>
+        <c:axId val="87175552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4344,16 +4209,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63624320"/>
+        <c:crossAx val="87165568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4372,7 +4239,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4612,24 +4479,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64000384"/>
-        <c:axId val="64001920"/>
+        <c:axId val="87218048"/>
+        <c:axId val="87219584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64000384"/>
+        <c:axId val="87218048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64001920"/>
+        <c:crossAx val="87219584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64001920"/>
+        <c:axId val="87219584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4651,16 +4518,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64000384"/>
+        <c:crossAx val="87218048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4679,7 +4548,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5497,8 +5366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView topLeftCell="E126" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6381,20 +6250,20 @@
         <v>28</v>
       </c>
       <c r="B51">
-        <f t="shared" ref="B51:E54" si="10" xml:space="preserve"> B44/$B$56</f>
-        <v>318.85678641393702</v>
+        <f xml:space="preserve"> B44/$B$56</f>
+        <v>4469.6551894356016</v>
       </c>
       <c r="C51">
-        <f t="shared" si="10"/>
-        <v>1026.6923413332941</v>
+        <f t="shared" ref="B51:E54" si="10" xml:space="preserve"> C44/$B$56</f>
+        <v>14391.918086500435</v>
       </c>
       <c r="D51">
         <f t="shared" si="10"/>
-        <v>3992.1000261570543</v>
+        <v>55960.266047136465</v>
       </c>
       <c r="E51">
         <f t="shared" si="10"/>
-        <v>4887.6145390542897</v>
+        <v>68513.365935027294</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -6403,19 +6272,19 @@
       </c>
       <c r="B52">
         <f t="shared" si="10"/>
-        <v>298.29328364815768</v>
+        <v>4181.4011181212163</v>
       </c>
       <c r="C52">
         <f t="shared" si="10"/>
-        <v>757.95705293361232</v>
+        <v>10624.853599998389</v>
       </c>
       <c r="D52">
         <f t="shared" si="10"/>
-        <v>1710.0686613405892</v>
+        <v>23971.317507194413</v>
       </c>
       <c r="E52">
         <f t="shared" si="10"/>
-        <v>2081.8837160910771</v>
+        <v>29183.328540945338</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -6424,19 +6293,19 @@
       </c>
       <c r="B53">
         <f t="shared" si="10"/>
-        <v>3791.3303388176751</v>
+        <v>53145.926465438301</v>
       </c>
       <c r="C53">
         <f t="shared" si="10"/>
-        <v>9328.3185024131326</v>
+        <v>130762.05048648942</v>
       </c>
       <c r="D53">
         <f t="shared" si="10"/>
-        <v>9328.3185024131326</v>
+        <v>130762.05048648942</v>
       </c>
       <c r="E53">
         <f t="shared" si="10"/>
-        <v>9328.3185024131326</v>
+        <v>130762.05048648942</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -6445,19 +6314,19 @@
       </c>
       <c r="B54">
         <f t="shared" si="10"/>
-        <v>345.46266279483791</v>
+        <v>4842.6097524317811</v>
       </c>
       <c r="C54">
         <f t="shared" si="10"/>
-        <v>1134.3889836143171</v>
+        <v>15901.582853149806</v>
       </c>
       <c r="D54">
         <f t="shared" si="10"/>
-        <v>5743.4485486287749</v>
+        <v>80510.234388766679</v>
       </c>
       <c r="E54">
         <f t="shared" si="10"/>
-        <v>7788.2408044548019</v>
+        <v>109173.62405771257</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -6465,7 +6334,7 @@
         <v>32</v>
       </c>
       <c r="B56">
-        <v>2.3690000000000002</v>
+        <v>0.16900000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -8528,7 +8397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -325,24 +325,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79326208"/>
-        <c:axId val="79328000"/>
+        <c:axId val="63011840"/>
+        <c:axId val="63013632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79326208"/>
+        <c:axId val="63011840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79328000"/>
+        <c:crossAx val="63013632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79328000"/>
+        <c:axId val="63013632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +350,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79326208"/>
+        <c:crossAx val="63011840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -607,11 +607,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93154688"/>
-        <c:axId val="93164672"/>
+        <c:axId val="93023616"/>
+        <c:axId val="93033600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93154688"/>
+        <c:axId val="93023616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,14 +619,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93164672"/>
+        <c:crossAx val="93033600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93164672"/>
+        <c:axId val="93033600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +651,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93154688"/>
+        <c:crossAx val="93023616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -676,7 +676,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -793,24 +793,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93193728"/>
-        <c:axId val="93195264"/>
+        <c:axId val="93066752"/>
+        <c:axId val="93068288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93193728"/>
+        <c:axId val="93066752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93195264"/>
+        <c:crossAx val="93068288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93195264"/>
+        <c:axId val="93068288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +835,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93193728"/>
+        <c:crossAx val="93066752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1103,24 +1103,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93252224"/>
-        <c:axId val="93270400"/>
+        <c:axId val="93117056"/>
+        <c:axId val="93401472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93252224"/>
+        <c:axId val="93117056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93270400"/>
+        <c:crossAx val="93401472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93270400"/>
+        <c:axId val="93401472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1145,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93252224"/>
+        <c:crossAx val="93117056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,24 +1237,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93302784"/>
-        <c:axId val="93304320"/>
+        <c:axId val="93437952"/>
+        <c:axId val="93439488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93302784"/>
+        <c:axId val="93437952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93304320"/>
+        <c:crossAx val="93439488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93304320"/>
+        <c:axId val="93439488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1279,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93302784"/>
+        <c:crossAx val="93437952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,7 +1301,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1368,24 +1368,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93315840"/>
-        <c:axId val="93317376"/>
+        <c:axId val="93451008"/>
+        <c:axId val="93452544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93315840"/>
+        <c:axId val="93451008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93317376"/>
+        <c:crossAx val="93452544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93317376"/>
+        <c:axId val="93452544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1410,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93315840"/>
+        <c:crossAx val="93451008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,7 +1432,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1675,11 +1675,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94508928"/>
-        <c:axId val="94510464"/>
+        <c:axId val="94644096"/>
+        <c:axId val="94645632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94508928"/>
+        <c:axId val="94644096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,14 +1687,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="94510464"/>
+        <c:crossAx val="94645632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94510464"/>
+        <c:axId val="94645632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1720,7 +1720,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94508928"/>
+        <c:crossAx val="94644096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2026,24 +2026,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94560256"/>
-        <c:axId val="94561792"/>
+        <c:axId val="96669696"/>
+        <c:axId val="96671232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94560256"/>
+        <c:axId val="96669696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94561792"/>
+        <c:crossAx val="96671232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94561792"/>
+        <c:axId val="96671232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2068,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94560256"/>
+        <c:crossAx val="96669696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2256,24 +2256,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94622464"/>
-        <c:axId val="94624000"/>
+        <c:axId val="96719616"/>
+        <c:axId val="96721152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94622464"/>
+        <c:axId val="96719616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94624000"/>
+        <c:crossAx val="96721152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94624000"/>
+        <c:axId val="96721152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2299,7 +2299,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94622464"/>
+        <c:crossAx val="96719616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2311,7 +2311,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2438,24 +2438,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79440512"/>
-        <c:axId val="79462784"/>
+        <c:axId val="63400576"/>
+        <c:axId val="63414656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79440512"/>
+        <c:axId val="63400576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79462784"/>
+        <c:crossAx val="63414656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79462784"/>
+        <c:axId val="63414656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2481,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79440512"/>
+        <c:crossAx val="63400576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2730,24 +2730,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79491840"/>
-        <c:axId val="79493376"/>
+        <c:axId val="63701760"/>
+        <c:axId val="63703296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79491840"/>
+        <c:axId val="63701760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79493376"/>
+        <c:crossAx val="63703296"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79493376"/>
+        <c:axId val="63703296"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2774,7 +2774,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79491840"/>
+        <c:crossAx val="63701760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3071,24 +3071,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81898112"/>
-        <c:axId val="81904000"/>
+        <c:axId val="63748736"/>
+        <c:axId val="63754624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81898112"/>
+        <c:axId val="63748736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81904000"/>
-        <c:crossesAt val="1.0000000000000025E-4"/>
+        <c:crossAx val="63754624"/>
+        <c:crossesAt val="1.0000000000000026E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81904000"/>
+        <c:axId val="63754624"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3097,7 +3097,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81898112"/>
+        <c:crossAx val="63748736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3395,24 +3395,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81910784"/>
-        <c:axId val="86446848"/>
+        <c:axId val="63761408"/>
+        <c:axId val="64168704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81910784"/>
+        <c:axId val="63761408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86446848"/>
-        <c:crossesAt val="1.0000000000000025E-4"/>
+        <c:crossAx val="64168704"/>
+        <c:crossesAt val="1.0000000000000026E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86446848"/>
+        <c:axId val="64168704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3421,7 +3421,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81910784"/>
+        <c:crossAx val="63761408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3622,25 +3622,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86482304"/>
-        <c:axId val="86492288"/>
+        <c:axId val="64204160"/>
+        <c:axId val="64214144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86482304"/>
+        <c:axId val="64204160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="86492288"/>
+        <c:crossAx val="64214144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86492288"/>
+        <c:axId val="64214144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3666,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86482304"/>
+        <c:crossAx val="64204160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3860,25 +3860,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86850560"/>
-        <c:axId val="86856448"/>
+        <c:axId val="66079744"/>
+        <c:axId val="66085632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86850560"/>
+        <c:axId val="66079744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="86856448"/>
+        <c:crossAx val="66085632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86856448"/>
+        <c:axId val="66085632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +3904,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86850560"/>
+        <c:crossAx val="66079744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3930,7 +3930,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3962,41 +3962,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
+              <c:f>'Feature Überblick'!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$59:$E$59</c:f>
+              <c:f>'Feature Überblick'!$D$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2229.8447386528842</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10318.49268608001</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>20981.06349489672</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20982.084901986243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4018,41 +4000,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
+              <c:f>'Feature Überblick'!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$60:$E$60</c:f>
+              <c:f>'Feature Überblick'!$D$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1903.6607728052668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7721.6271275547078</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>12432.845799044811</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>12433.084992280425</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,41 +4038,23 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
+              <c:f>'Feature Überblick'!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$61:$E$61</c:f>
+              <c:f>'Feature Überblick'!$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>39699.10961007062</c:v>
-                </c:pt>
-                <c:pt idx="1">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>42955.383542075011</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42955.383542075011</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>165960.72391220639</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,64 +4076,46 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$58:$E$58</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>MATHLIB</c:v>
-                </c:pt>
-                <c:pt idx="2">
+              <c:f>'Feature Überblick'!$D$58</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>MDS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$62:$E$62</c:f>
+              <c:f>'Feature Überblick'!$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2381.601438170459</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11189.186382595752</c:v>
-                </c:pt>
-                <c:pt idx="2">
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
                   <c:v>24958.017256355321</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24960.426238369175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87165568"/>
-        <c:axId val="87175552"/>
+        <c:axId val="91822720"/>
+        <c:axId val="91832704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87165568"/>
+        <c:axId val="91822720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87175552"/>
+        <c:crossAx val="91832704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87175552"/>
+        <c:axId val="91832704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4213,7 +4141,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87165568"/>
+        <c:crossAx val="91822720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4296,16 +4224,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>660.69473737863234</c:v>
+                  <c:v>7193.0475440415621</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3057.3311662459287</c:v>
+                  <c:v>33285.460277677448</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6216.6114058953244</c:v>
+                  <c:v>67680.849983537802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6216.9140450329614</c:v>
+                  <c:v>67684.144845116913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4352,16 +4280,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>564.04763638674569</c:v>
+                  <c:v>6140.8412025976349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2287.889519275469</c:v>
+                  <c:v>24908.474605015188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3683.806162679944</c:v>
+                  <c:v>40105.954190467135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3683.8770347497552</c:v>
+                  <c:v>40106.725781549758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4408,16 +4336,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>11762.699143724629</c:v>
+                  <c:v>128061.64390345362</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12727.521049503706</c:v>
+                  <c:v>138565.75336153229</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12727.521049503706</c:v>
+                  <c:v>138565.75336153229</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49173.547825838934</c:v>
+                  <c:v>535357.1739103432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4464,39 +4392,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>705.6596853838397</c:v>
+                  <c:v>7682.5852844208357</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3315.3144837320747</c:v>
+                  <c:v>36094.149621276621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7394.968075957132</c:v>
+                  <c:v>80509.733085017157</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7395.6818484056812</c:v>
+                  <c:v>80517.50399473928</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="87218048"/>
-        <c:axId val="87219584"/>
+        <c:axId val="91875200"/>
+        <c:axId val="91876736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="87218048"/>
+        <c:axId val="91875200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87219584"/>
+        <c:crossAx val="91876736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="87219584"/>
+        <c:axId val="91876736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4522,7 +4450,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87218048"/>
+        <c:crossAx val="91875200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4548,7 +4476,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -5366,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6461,19 +6389,19 @@
       </c>
       <c r="B65">
         <f>B59/$B$70</f>
-        <v>660.69473737863234</v>
+        <v>7193.0475440415621</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:E65" si="11">C59/$B$70</f>
-        <v>3057.3311662459287</v>
+        <v>33285.460277677448</v>
       </c>
       <c r="D65">
         <f t="shared" si="11"/>
-        <v>6216.6114058953244</v>
+        <v>67680.849983537802</v>
       </c>
       <c r="E65">
         <f t="shared" si="11"/>
-        <v>6216.9140450329614</v>
+        <v>67684.144845116913</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6482,19 +6410,19 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:E66" si="12">B60/$B$70</f>
-        <v>564.04763638674569</v>
+        <v>6140.8412025976349</v>
       </c>
       <c r="C66">
         <f t="shared" si="12"/>
-        <v>2287.889519275469</v>
+        <v>24908.474605015188</v>
       </c>
       <c r="D66">
         <f t="shared" si="12"/>
-        <v>3683.806162679944</v>
+        <v>40105.954190467135</v>
       </c>
       <c r="E66">
         <f t="shared" si="12"/>
-        <v>3683.8770347497552</v>
+        <v>40106.725781549758</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6503,19 +6431,19 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:E67" si="13">B61/$B$70</f>
-        <v>11762.699143724629</v>
+        <v>128061.64390345362</v>
       </c>
       <c r="C67">
         <f t="shared" si="13"/>
-        <v>12727.521049503706</v>
+        <v>138565.75336153229</v>
       </c>
       <c r="D67">
         <f t="shared" si="13"/>
-        <v>12727.521049503706</v>
+        <v>138565.75336153229</v>
       </c>
       <c r="E67">
         <f t="shared" si="13"/>
-        <v>49173.547825838934</v>
+        <v>535357.1739103432</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6524,19 +6452,19 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:E68" si="14">B62/$B$70</f>
-        <v>705.6596853838397</v>
+        <v>7682.5852844208357</v>
       </c>
       <c r="C68">
         <f t="shared" si="14"/>
-        <v>3315.3144837320747</v>
+        <v>36094.149621276621</v>
       </c>
       <c r="D68">
         <f t="shared" si="14"/>
-        <v>7394.968075957132</v>
+        <v>80509.733085017157</v>
       </c>
       <c r="E68">
         <f t="shared" si="14"/>
-        <v>7395.6818484056812</v>
+        <v>80517.50399473928</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6544,7 +6472,7 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>3.375</v>
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
   <si>
     <t>DSP</t>
   </si>
@@ -140,6 +140,12 @@
   <si>
     <t>Referenz</t>
   </si>
+  <si>
+    <t>opt. DSP</t>
+  </si>
+  <si>
+    <t>opt. ARM</t>
+  </si>
 </sst>
 </file>
 
@@ -325,24 +331,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63011840"/>
-        <c:axId val="63013632"/>
+        <c:axId val="63321600"/>
+        <c:axId val="63323136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63011840"/>
+        <c:axId val="63321600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63013632"/>
+        <c:crossAx val="63323136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63013632"/>
+        <c:axId val="63323136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -350,7 +356,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63011840"/>
+        <c:crossAx val="63321600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -372,6 +378,243 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$65</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$E$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>67684.144845116913</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>42029.151159102199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>535357.1739103432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$A$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FSet4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Feature Überblick'!$E$64</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MDS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Feature Überblick'!$E$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>80517.50399473928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="65583360"/>
+        <c:axId val="67549440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65583360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="67549440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67549440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energie-Effizienz in [Fenster/J]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65583360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
   <c:style val="18"/>
   <c:chart>
     <c:plotArea>
@@ -607,11 +850,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93023616"/>
-        <c:axId val="93033600"/>
+        <c:axId val="64366464"/>
+        <c:axId val="64368000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93023616"/>
+        <c:axId val="64366464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -619,14 +862,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93033600"/>
+        <c:crossAx val="64368000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93033600"/>
+        <c:axId val="64368000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,7 +894,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93023616"/>
+        <c:crossAx val="64366464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -676,13 +919,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -793,24 +1036,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93066752"/>
-        <c:axId val="93068288"/>
+        <c:axId val="64417792"/>
+        <c:axId val="64419328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93066752"/>
+        <c:axId val="64417792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93068288"/>
+        <c:crossAx val="64419328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93068288"/>
+        <c:axId val="64419328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -835,7 +1078,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93066752"/>
+        <c:crossAx val="64417792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -866,7 +1109,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1103,24 +1346,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93117056"/>
-        <c:axId val="93401472"/>
+        <c:axId val="64480384"/>
+        <c:axId val="64481920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93117056"/>
+        <c:axId val="64480384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93401472"/>
+        <c:crossAx val="64481920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93401472"/>
+        <c:axId val="64481920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,7 +1388,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93117056"/>
+        <c:crossAx val="64480384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,7 +1419,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -1237,24 +1480,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93437952"/>
-        <c:axId val="93439488"/>
+        <c:axId val="64497920"/>
+        <c:axId val="64512000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93437952"/>
+        <c:axId val="64497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93439488"/>
+        <c:crossAx val="64512000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93439488"/>
+        <c:axId val="64512000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1279,7 +1522,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93437952"/>
+        <c:crossAx val="64497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1301,13 +1544,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:style val="18"/>
@@ -1368,24 +1611,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93451008"/>
-        <c:axId val="93452544"/>
+        <c:axId val="64535552"/>
+        <c:axId val="64541440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93451008"/>
+        <c:axId val="64535552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93452544"/>
+        <c:crossAx val="64541440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93452544"/>
+        <c:axId val="64541440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1653,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93451008"/>
+        <c:crossAx val="64535552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1432,13 +1675,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
@@ -1675,11 +1918,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94644096"/>
-        <c:axId val="94645632"/>
+        <c:axId val="64749952"/>
+        <c:axId val="64751488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94644096"/>
+        <c:axId val="64749952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1687,14 +1930,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="94645632"/>
+        <c:crossAx val="64751488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94645632"/>
+        <c:axId val="64751488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1717,364 +1960,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94644096"/>
+        <c:crossAx val="64749952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1100">
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup paperSize="9" orientation="landscape"/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
-  <c:chart>
-    <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OSC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>85.74</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>LE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.9092614075792731</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>FFT</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>48.723999999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MAG</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>29.673999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MFCC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>30.175999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NASE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10.156000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$A$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>HAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>'DSP MCL2'!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'DSP MCL2'!$B$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>3.4470000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="96669696"/>
-        <c:axId val="96671232"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="96669696"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96671232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="96671232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Laufzeit in [ms]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96669696"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2109,6 +2006,356 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OSC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>85.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.9092614075792731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FFT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48.723999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>29.673999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MFCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>30.175999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NASE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10.156000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HAM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'DSP MCL2'!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MATHLIB+DSPLIB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'DSP MCL2'!$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3.4470000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="64801024"/>
+        <c:axId val="64823296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64801024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64823296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="64823296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64801024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -2256,24 +2503,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="96719616"/>
-        <c:axId val="96721152"/>
+        <c:axId val="64842752"/>
+        <c:axId val="64852736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="96719616"/>
+        <c:axId val="64842752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96721152"/>
+        <c:crossAx val="64852736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="96721152"/>
+        <c:axId val="64852736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2296,22 +2543,24 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96719616"/>
+        <c:crossAx val="64842752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2438,24 +2687,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63400576"/>
-        <c:axId val="63414656"/>
+        <c:axId val="64046208"/>
+        <c:axId val="64047744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63400576"/>
+        <c:axId val="64046208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63414656"/>
+        <c:crossAx val="64047744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63414656"/>
+        <c:axId val="64047744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2481,7 +2730,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63400576"/>
+        <c:crossAx val="64046208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2709,7 +2958,7 @@
                   <c:v>3.9288201160541587</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.168278529980661</c:v>
+                  <c:v>29.48936170212766</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.5699922660479504</c:v>
@@ -2730,24 +2979,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63701760"/>
-        <c:axId val="63703296"/>
+        <c:axId val="64060416"/>
+        <c:axId val="64074496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63701760"/>
+        <c:axId val="64060416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63703296"/>
+        <c:crossAx val="64074496"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63703296"/>
+        <c:axId val="64074496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2774,7 +3023,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63701760"/>
+        <c:crossAx val="64060416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2820,7 +3069,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$B$1</c:f>
+              <c:f>'Feature Überblick'!$B$91</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2831,7 +3080,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:f>'Feature Überblick'!$A$92:$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -2887,57 +3136,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$B$2:$B$17</c:f>
+              <c:f>'Feature Überblick'!$B$92:$B$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.31547563805104412</c:v>
+                  <c:v>315.47563805104414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.848414539829853E-2</c:v>
+                  <c:v>38.48414539829853</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2242846094354215E-2</c:v>
+                  <c:v>12.242846094354215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4470224284609439E-3</c:v>
+                  <c:v>4.4470224284609436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3201856148491878E-3</c:v>
+                  <c:v>2.3201856148491879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.817478731631864E-2</c:v>
+                  <c:v>38.174787316318643</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3361702127659575E-2</c:v>
+                  <c:v>23.361702127659576</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1299806576402321E-2</c:v>
+                  <c:v>11.29980657640232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11704448742746615</c:v>
+                  <c:v>117.04448742746615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9118329466357307E-2</c:v>
+                  <c:v>39.118329466357309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5290023201856148E-3</c:v>
+                  <c:v>2.5290023201856147</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6040216550657389E-3</c:v>
+                  <c:v>3.6040216550657389</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5127610208816705E-4</c:v>
+                  <c:v>0.95127610208816704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3689095127610209E-3</c:v>
+                  <c:v>1.3689095127610209</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4795050270688321E-2</c:v>
+                  <c:v>14.795050270688321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6395978344934262E-3</c:v>
+                  <c:v>1.6395978344934261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2948,18 +3197,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Libav NEON + Handopt.</c:v>
+              <c:f>'Feature Überblick'!$C$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>opt. ARM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:f>'Feature Überblick'!$A$92:$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -3015,89 +3264,107 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$D$2:$D$17</c:f>
+              <c:f>'Feature Überblick'!$C$92:$C$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.639597834493426E-2</c:v>
+                  <c:v>16.39597834493426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9110595514307813E-2</c:v>
+                  <c:v>19.110595514307814</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2242846094354215E-2</c:v>
+                  <c:v>12.242846094354215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4470224284609439E-3</c:v>
+                  <c:v>4.4470224284609436</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3201856148491878E-3</c:v>
+                  <c:v>2.3201856148491879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1848414539829853E-2</c:v>
+                  <c:v>31.848414539829854</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.9013539651837522E-3</c:v>
+                  <c:v>6.9013539651837519</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1299806576402321E-2</c:v>
+                  <c:v>11.29980657640232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.11704448742746615</c:v>
+                  <c:v>117.04448742746615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.9118329466357307E-2</c:v>
+                  <c:v>39.118329466357309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.5290023201856148E-3</c:v>
+                  <c:v>2.5290023201856147</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.6040216550657389E-3</c:v>
+                  <c:v>3.6040216550657389</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.5127610208816705E-4</c:v>
+                  <c:v>0.95127610208816704</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3689095127610209E-3</c:v>
+                  <c:v>1.3689095127610209</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4795050270688321E-2</c:v>
+                  <c:v>14.795050270688321</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6395978344934262E-3</c:v>
+                  <c:v>1.6395978344934261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63748736"/>
-        <c:axId val="63754624"/>
+        <c:axId val="11289728"/>
+        <c:axId val="11291264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63748736"/>
+        <c:axId val="11289728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63754624"/>
-        <c:crossesAt val="1.0000000000000026E-4"/>
+        <c:crossAx val="11291264"/>
+        <c:crossesAt val="1.0000000000000029E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63754624"/>
+        <c:axId val="11291264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [µs]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63748736"/>
+        <c:crossAx val="11289728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3105,28 +3372,28 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3144,7 +3411,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$E$1</c:f>
+              <c:f>'Feature Überblick'!$B$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3155,7 +3422,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:f>'Feature Überblick'!$A$74:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -3211,57 +3478,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$E$2:$E$17</c:f>
+              <c:f>'Feature Überblick'!$B$74:$B$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>7.2404485692188714E-2</c:v>
+                  <c:v>72.404485692188715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33400464037122968</c:v>
+                  <c:v>334.0046403712297</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.9350348027842225E-3</c:v>
+                  <c:v>1.9350348027842226</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4717710750193351E-3</c:v>
+                  <c:v>2.4717710750193351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8213457076566126E-3</c:v>
+                  <c:v>1.8213457076566126</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5824439288476409E-2</c:v>
+                  <c:v>35.824439288476412</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0499032882011605E-3</c:v>
+                  <c:v>1.0499032882011605</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7969052224371371E-3</c:v>
+                  <c:v>8.7969052224371378</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.3299419729206963E-2</c:v>
+                  <c:v>73.29941972920696</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9819025522041765E-2</c:v>
+                  <c:v>19.819025522041766</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6078886310904872E-3</c:v>
+                  <c:v>3.6078886310904874</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.762567672080433E-3</c:v>
+                  <c:v>1.7625676720804331</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0270688321732409E-3</c:v>
+                  <c:v>3.0270688321732409</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1438515081206494E-3</c:v>
+                  <c:v>5.1438515081206493</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9211136890951277E-3</c:v>
+                  <c:v>4.9211136890951277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7718484145398301E-4</c:v>
+                  <c:v>0.47718484145398299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3272,18 +3539,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Feature Überblick'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MATHLIB+DSPLIB+SPLOOP</c:v>
+              <c:f>'Feature Überblick'!$C$73</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>opt. DSP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'Feature Überblick'!$A$2:$A$17</c:f>
+              <c:f>'Feature Überblick'!$A$74:$A$89</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
@@ -3339,89 +3606,107 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Feature Überblick'!$F$2:$F$17</c:f>
+              <c:f>'Feature Überblick'!$C$74:$C$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1.8856148491879349E-2</c:v>
+                  <c:v>18.856148491879349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1538283062645012E-2</c:v>
+                  <c:v>11.538283062645013</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3820572312451661E-3</c:v>
+                  <c:v>1.3820572312451662</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4717710750193351E-3</c:v>
+                  <c:v>2.4717710750193351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7362722351121423E-3</c:v>
+                  <c:v>1.7362722351121422</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1675174013921114E-2</c:v>
+                  <c:v>11.675174013921115</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3342359767891682E-3</c:v>
+                  <c:v>1.3342359767891683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9288201160541589E-3</c:v>
+                  <c:v>3.9288201160541587</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.3168278529980659E-2</c:v>
+                  <c:v>29.48936170212766</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5699922660479503E-3</c:v>
+                  <c:v>2.5699922660479504</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7169373549883989E-3</c:v>
+                  <c:v>2.7169373549883988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.3859242072699149E-4</c:v>
+                  <c:v>0.73859242072699149</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4006187161639597E-3</c:v>
+                  <c:v>1.4006187161639596</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.931167826759474E-3</c:v>
+                  <c:v>2.9311678267594741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9211136890951277E-3</c:v>
+                  <c:v>4.9211136890951277</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.7718484145398301E-4</c:v>
+                  <c:v>0.47718484145398299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63761408"/>
-        <c:axId val="64168704"/>
+        <c:axId val="11326976"/>
+        <c:axId val="11328512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63761408"/>
+        <c:axId val="11326976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64168704"/>
-        <c:crossesAt val="1.0000000000000026E-4"/>
+        <c:crossAx val="11328512"/>
+        <c:crossesAt val="1.0000000000000029E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64168704"/>
+        <c:axId val="11328512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Laufzeit in [µs]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63761408"/>
+        <c:crossAx val="11326976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3432,10 +3717,23 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100">
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -3622,25 +3920,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64204160"/>
-        <c:axId val="64214144"/>
+        <c:axId val="52590464"/>
+        <c:axId val="52592000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64204160"/>
+        <c:axId val="52590464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="64214144"/>
+        <c:crossAx val="52592000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64214144"/>
+        <c:axId val="52592000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3964,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64204160"/>
+        <c:crossAx val="52590464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3860,25 +4158,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66079744"/>
-        <c:axId val="66085632"/>
+        <c:axId val="52499968"/>
+        <c:axId val="52501504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66079744"/>
+        <c:axId val="52499968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66085632"/>
+        <c:crossAx val="52501504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66085632"/>
+        <c:axId val="52501504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3895,7 +4193,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Energieeffizienz in [Fenster/J]</a:t>
+                  <a:t>Energie-ffizienz in [Fenster/J]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3904,7 +4202,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66079744"/>
+        <c:crossAx val="52499968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3930,7 +4228,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4098,24 +4396,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91822720"/>
-        <c:axId val="91832704"/>
+        <c:axId val="52548736"/>
+        <c:axId val="52550272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91822720"/>
+        <c:axId val="52548736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91832704"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="52550272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91832704"/>
+        <c:axId val="52550272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4141,7 +4440,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91822720"/>
+        <c:crossAx val="52548736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4289,7 +4588,7 @@
                   <c:v>40105.954190467135</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40106.725781549758</c:v>
+                  <c:v>42029.151159102199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4407,24 +4706,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="91875200"/>
-        <c:axId val="91876736"/>
+        <c:axId val="52658560"/>
+        <c:axId val="52660096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91875200"/>
+        <c:axId val="52658560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91876736"/>
+        <c:crossAx val="52660096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="91876736"/>
+        <c:axId val="52660096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,7 +4749,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91875200"/>
+        <c:crossAx val="52658560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4754,10 +5053,91 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Diagramm 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.14894</cdr:x>
+      <cdr:y>0.4411</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.97796</cdr:x>
+      <cdr:y>0.4411</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Gerade Verbindung 2"/>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="933450" y="1533524"/>
+          <a:ext cx="5195887" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4912,7 +5292,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5292,10 +5672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="G48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -5557,7 +5937,7 @@
       </c>
       <c r="F10">
         <f>'DSP MCL2'!E7/2585</f>
-        <v>3.3168278529980659E-2</v>
+        <v>2.948936170212766E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5956,11 +6336,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="9"/>
-        <v>33.168278529980661</v>
+        <v>29.48936170212766</v>
       </c>
       <c r="D36">
         <f t="shared" si="7"/>
-        <v>2.209925355726615</v>
+        <v>2.4856224583497308</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6321,7 +6701,7 @@
       </c>
       <c r="E60">
         <f>1000/('DSP MCL2'!E9/2585)</f>
-        <v>12433.084992280425</v>
+        <v>13029.036859321683</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -6422,7 +6802,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="12"/>
-        <v>40106.725781549758</v>
+        <v>42029.151159102199</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6473,6 +6853,470 @@
       </c>
       <c r="B70">
         <v>0.31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="str">
+        <f>A2</f>
+        <v>FFT</v>
+      </c>
+      <c r="B74">
+        <f>E2*1000</f>
+        <v>72.404485692188715</v>
+      </c>
+      <c r="C74">
+        <f>F2*1000</f>
+        <v>18.856148491879349</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="str">
+        <f t="shared" ref="A75:A90" si="15">A3</f>
+        <v>MAG</v>
+      </c>
+      <c r="B75">
+        <f>E3*1000</f>
+        <v>334.0046403712297</v>
+      </c>
+      <c r="C75">
+        <f>F3*1000</f>
+        <v>11.538283062645013</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="str">
+        <f t="shared" si="15"/>
+        <v>SC</v>
+      </c>
+      <c r="B76">
+        <f>E4*1000</f>
+        <v>1.9350348027842226</v>
+      </c>
+      <c r="C76">
+        <f>F4*1000</f>
+        <v>1.3820572312451662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="str">
+        <f t="shared" si="15"/>
+        <v>SR</v>
+      </c>
+      <c r="B77">
+        <f>E5*1000</f>
+        <v>2.4717710750193351</v>
+      </c>
+      <c r="C77">
+        <f>F5*1000</f>
+        <v>2.4717710750193351</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="str">
+        <f t="shared" si="15"/>
+        <v>SF</v>
+      </c>
+      <c r="B78">
+        <f>E6*1000</f>
+        <v>1.8213457076566126</v>
+      </c>
+      <c r="C78">
+        <f>F6*1000</f>
+        <v>1.7362722351121422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="str">
+        <f t="shared" si="15"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B79">
+        <f>E7*1000</f>
+        <v>35.824439288476412</v>
+      </c>
+      <c r="C79">
+        <f>F7*1000</f>
+        <v>11.675174013921115</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="str">
+        <f t="shared" si="15"/>
+        <v>HAM</v>
+      </c>
+      <c r="B80">
+        <f>E8*1000</f>
+        <v>1.0499032882011605</v>
+      </c>
+      <c r="C80">
+        <f>F8*1000</f>
+        <v>1.3342359767891683</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="str">
+        <f t="shared" si="15"/>
+        <v>NASE</v>
+      </c>
+      <c r="B81">
+        <f>E9*1000</f>
+        <v>8.7969052224371378</v>
+      </c>
+      <c r="C81">
+        <f>F9*1000</f>
+        <v>3.9288201160541587</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="str">
+        <f t="shared" si="15"/>
+        <v>OSC</v>
+      </c>
+      <c r="B82">
+        <f>E10*1000</f>
+        <v>73.29941972920696</v>
+      </c>
+      <c r="C82">
+        <f>F10*1000</f>
+        <v>29.48936170212766</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="str">
+        <f t="shared" si="15"/>
+        <v>ZCR</v>
+      </c>
+      <c r="B83">
+        <f>E11*1000</f>
+        <v>19.819025522041766</v>
+      </c>
+      <c r="C83">
+        <f>F11*1000</f>
+        <v>2.5699922660479504</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="str">
+        <f t="shared" si="15"/>
+        <v>RMS</v>
+      </c>
+      <c r="B84">
+        <f>E12*1000</f>
+        <v>3.6078886310904874</v>
+      </c>
+      <c r="C84">
+        <f>F12*1000</f>
+        <v>2.7169373549883988</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="str">
+        <f t="shared" si="15"/>
+        <v>LE</v>
+      </c>
+      <c r="B85">
+        <f>E13*1000</f>
+        <v>1.7625676720804331</v>
+      </c>
+      <c r="C85">
+        <f>F13*1000</f>
+        <v>0.73859242072699149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="str">
+        <f t="shared" si="15"/>
+        <v>SCF</v>
+      </c>
+      <c r="B86">
+        <f>E14*1000</f>
+        <v>3.0270688321732409</v>
+      </c>
+      <c r="C86">
+        <f>F14*1000</f>
+        <v>1.4006187161639596</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="str">
+        <f t="shared" si="15"/>
+        <v>SBER</v>
+      </c>
+      <c r="B87">
+        <f>E15*1000</f>
+        <v>5.1438515081206493</v>
+      </c>
+      <c r="C87">
+        <f>F15*1000</f>
+        <v>2.9311678267594741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="str">
+        <f t="shared" si="15"/>
+        <v>CV</v>
+      </c>
+      <c r="B88">
+        <f>E16*1000</f>
+        <v>4.9211136890951277</v>
+      </c>
+      <c r="C88">
+        <f>F16*1000</f>
+        <v>4.9211136890951277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="str">
+        <f t="shared" si="15"/>
+        <v>AOMIC</v>
+      </c>
+      <c r="B89">
+        <f>E17*1000</f>
+        <v>0.47718484145398299</v>
+      </c>
+      <c r="C89">
+        <f>F17*1000</f>
+        <v>0.47718484145398299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="B91" t="s">
+        <v>6</v>
+      </c>
+      <c r="C91" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="str">
+        <f>A74</f>
+        <v>FFT</v>
+      </c>
+      <c r="B92">
+        <f>B2*1000</f>
+        <v>315.47563805104414</v>
+      </c>
+      <c r="C92">
+        <f>D2*1000</f>
+        <v>16.39597834493426</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="str">
+        <f t="shared" ref="A93:A106" si="16">A75</f>
+        <v>MAG</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ref="B93:B107" si="17">B3*1000</f>
+        <v>38.48414539829853</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ref="C93:C107" si="18">D3*1000</f>
+        <v>19.110595514307814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="str">
+        <f t="shared" si="16"/>
+        <v>SC</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="17"/>
+        <v>12.242846094354215</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="18"/>
+        <v>12.242846094354215</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="str">
+        <f t="shared" si="16"/>
+        <v>SR</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="17"/>
+        <v>4.4470224284609436</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="18"/>
+        <v>4.4470224284609436</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="str">
+        <f t="shared" si="16"/>
+        <v>SF</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="17"/>
+        <v>2.3201856148491879</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="18"/>
+        <v>2.3201856148491879</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="str">
+        <f t="shared" si="16"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="17"/>
+        <v>38.174787316318643</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="18"/>
+        <v>31.848414539829854</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="str">
+        <f t="shared" si="16"/>
+        <v>HAM</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="17"/>
+        <v>23.361702127659576</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="18"/>
+        <v>6.9013539651837519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="str">
+        <f t="shared" si="16"/>
+        <v>NASE</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="17"/>
+        <v>11.29980657640232</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="18"/>
+        <v>11.29980657640232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="str">
+        <f t="shared" si="16"/>
+        <v>OSC</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="17"/>
+        <v>117.04448742746615</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="18"/>
+        <v>117.04448742746615</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="str">
+        <f t="shared" si="16"/>
+        <v>ZCR</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="17"/>
+        <v>39.118329466357309</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="18"/>
+        <v>39.118329466357309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="str">
+        <f t="shared" si="16"/>
+        <v>RMS</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="17"/>
+        <v>2.5290023201856147</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="18"/>
+        <v>2.5290023201856147</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="str">
+        <f t="shared" si="16"/>
+        <v>LE</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="17"/>
+        <v>3.6040216550657389</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="18"/>
+        <v>3.6040216550657389</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="str">
+        <f t="shared" si="16"/>
+        <v>SCF</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="17"/>
+        <v>0.95127610208816704</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="18"/>
+        <v>0.95127610208816704</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="str">
+        <f>A87</f>
+        <v>SBER</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="17"/>
+        <v>1.3689095127610209</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="18"/>
+        <v>1.3689095127610209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="str">
+        <f t="shared" si="16"/>
+        <v>CV</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="17"/>
+        <v>14.795050270688321</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="18"/>
+        <v>14.795050270688321</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="str">
+        <f>A89</f>
+        <v>AOMIC</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="17"/>
+        <v>1.6395978344934261</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="18"/>
+        <v>1.6395978344934261</v>
       </c>
     </row>
   </sheetData>
@@ -7876,7 +8720,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8007,7 +8851,15 @@
         <v>85.74</v>
       </c>
       <c r="E7">
-        <v>85.74</v>
+        <v>76.23</v>
+      </c>
+      <c r="F7">
+        <f>D7/E7</f>
+        <v>1.1247540338449429</v>
+      </c>
+      <c r="G7">
+        <f>D9/E9</f>
+        <v>1.0479529039379445</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8028,7 +8880,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>207.91300000000001</v>
+        <v>198.40300000000002</v>
       </c>
       <c r="F9">
         <f>B4/C4</f>
@@ -8056,7 +8908,7 @@
     <row r="11" spans="1:9">
       <c r="B11">
         <f>B9/E9</f>
-        <v>6.5311452386334672</v>
+        <v>6.8442009445421688</v>
       </c>
       <c r="C11">
         <f>B3/D3</f>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -331,24 +331,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="63321600"/>
-        <c:axId val="63323136"/>
+        <c:axId val="66156032"/>
+        <c:axId val="66157568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63321600"/>
+        <c:axId val="66156032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63323136"/>
+        <c:crossAx val="66157568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63323136"/>
+        <c:axId val="66157568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +356,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63321600"/>
+        <c:crossAx val="66156032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -536,25 +536,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="65583360"/>
-        <c:axId val="67549440"/>
+        <c:axId val="68907776"/>
+        <c:axId val="68909312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="65583360"/>
+        <c:axId val="68907776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67549440"/>
+        <c:crossAx val="68909312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67549440"/>
+        <c:axId val="68909312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,18 +576,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="65583360"/>
+        <c:crossAx val="68907776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -606,7 +604,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -850,11 +848,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64366464"/>
-        <c:axId val="64368000"/>
+        <c:axId val="69102208"/>
+        <c:axId val="69108096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64366464"/>
+        <c:axId val="69102208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,14 +860,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="64368000"/>
+        <c:crossAx val="69108096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64368000"/>
+        <c:axId val="69108096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,16 +889,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64366464"/>
+        <c:crossAx val="69102208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1036,24 +1036,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64417792"/>
-        <c:axId val="64419328"/>
+        <c:axId val="69137152"/>
+        <c:axId val="69138688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64417792"/>
+        <c:axId val="69137152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64419328"/>
+        <c:crossAx val="69138688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64419328"/>
+        <c:axId val="69138688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,16 +1075,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64417792"/>
+        <c:crossAx val="69137152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1346,24 +1348,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64480384"/>
-        <c:axId val="64481920"/>
+        <c:axId val="69060480"/>
+        <c:axId val="69062016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64480384"/>
+        <c:axId val="69060480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64481920"/>
+        <c:crossAx val="69062016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64481920"/>
+        <c:axId val="69062016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1385,16 +1387,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64480384"/>
+        <c:crossAx val="69060480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1480,24 +1484,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64497920"/>
-        <c:axId val="64512000"/>
+        <c:axId val="69147648"/>
+        <c:axId val="69149440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64497920"/>
+        <c:axId val="69147648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64512000"/>
+        <c:crossAx val="69149440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64512000"/>
+        <c:axId val="69149440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1519,10 +1523,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64497920"/>
+        <c:crossAx val="69147648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1611,24 +1616,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64535552"/>
-        <c:axId val="64541440"/>
+        <c:axId val="69181440"/>
+        <c:axId val="69182976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64535552"/>
+        <c:axId val="69181440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64541440"/>
+        <c:crossAx val="69182976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64541440"/>
+        <c:axId val="69182976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1650,10 +1655,11 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64535552"/>
+        <c:crossAx val="69181440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,7 +1681,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1918,11 +1924,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64749952"/>
-        <c:axId val="64751488"/>
+        <c:axId val="69338240"/>
+        <c:axId val="69339776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64749952"/>
+        <c:axId val="69338240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,14 +1936,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="64751488"/>
+        <c:crossAx val="69339776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64751488"/>
+        <c:axId val="69339776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1960,18 +1966,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64749952"/>
+        <c:crossAx val="69338240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2271,24 +2275,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64801024"/>
-        <c:axId val="64823296"/>
+        <c:axId val="69393408"/>
+        <c:axId val="69399296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64801024"/>
+        <c:axId val="69393408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64823296"/>
+        <c:crossAx val="69399296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64823296"/>
+        <c:axId val="69399296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,18 +2314,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64801024"/>
+        <c:crossAx val="69393408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2503,24 +2505,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64842752"/>
-        <c:axId val="64852736"/>
+        <c:axId val="69427200"/>
+        <c:axId val="69428736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64842752"/>
+        <c:axId val="69427200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64852736"/>
+        <c:crossAx val="69428736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64852736"/>
+        <c:axId val="69428736"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2543,24 +2545,22 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64842752"/>
+        <c:crossAx val="69427200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000062" r="0.70000000000000062" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2687,24 +2687,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64046208"/>
-        <c:axId val="64047744"/>
+        <c:axId val="66348160"/>
+        <c:axId val="66349696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64046208"/>
+        <c:axId val="66348160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64047744"/>
+        <c:crossAx val="66349696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64047744"/>
+        <c:axId val="66349696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2730,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64046208"/>
+        <c:crossAx val="66348160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2979,24 +2979,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="64060416"/>
-        <c:axId val="64074496"/>
+        <c:axId val="66370560"/>
+        <c:axId val="66380544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64060416"/>
+        <c:axId val="66370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64074496"/>
+        <c:crossAx val="66380544"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64074496"/>
+        <c:axId val="66380544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3023,7 +3023,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64060416"/>
+        <c:crossAx val="66370560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3320,24 +3320,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11289728"/>
-        <c:axId val="11291264"/>
+        <c:axId val="68650112"/>
+        <c:axId val="68651648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11289728"/>
+        <c:axId val="68650112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11291264"/>
-        <c:crossesAt val="1.0000000000000029E-4"/>
+        <c:crossAx val="68651648"/>
+        <c:crossesAt val="1.0000000000000032E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11291264"/>
+        <c:axId val="68651648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3364,7 +3364,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11289728"/>
+        <c:crossAx val="68650112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3390,7 +3390,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -3662,24 +3662,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="11326976"/>
-        <c:axId val="11328512"/>
+        <c:axId val="68692992"/>
+        <c:axId val="68682496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="11326976"/>
+        <c:axId val="68692992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11328512"/>
-        <c:crossesAt val="1.0000000000000029E-4"/>
+        <c:crossAx val="68682496"/>
+        <c:crossesAt val="1.0000000000000032E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="11328512"/>
+        <c:axId val="68682496"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3706,7 +3706,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="11326976"/>
+        <c:crossAx val="68692992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3732,7 +3732,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3920,25 +3920,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52590464"/>
-        <c:axId val="52592000"/>
+        <c:axId val="68737664"/>
+        <c:axId val="68739456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52590464"/>
+        <c:axId val="68737664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="52592000"/>
+        <c:crossAx val="68739456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52592000"/>
+        <c:axId val="68739456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,18 +3960,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52590464"/>
+        <c:crossAx val="68737664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4158,25 +4156,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52499968"/>
-        <c:axId val="52501504"/>
+        <c:axId val="68770048"/>
+        <c:axId val="68780032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52499968"/>
+        <c:axId val="68770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="52501504"/>
+        <c:crossAx val="68780032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52501504"/>
+        <c:axId val="68780032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,18 +4196,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52499968"/>
+        <c:crossAx val="68770048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4228,7 +4224,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4396,25 +4392,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52548736"/>
-        <c:axId val="52550272"/>
+        <c:axId val="68818816"/>
+        <c:axId val="68820352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52548736"/>
+        <c:axId val="68818816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="52550272"/>
+        <c:crossAx val="68820352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52550272"/>
+        <c:axId val="68820352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4436,18 +4432,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52548736"/>
+        <c:crossAx val="68818816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4706,24 +4700,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="52658560"/>
-        <c:axId val="52660096"/>
+        <c:axId val="68863104"/>
+        <c:axId val="68864640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52658560"/>
+        <c:axId val="68863104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52660096"/>
+        <c:crossAx val="68864640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52660096"/>
+        <c:axId val="68864640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4749,7 +4743,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52658560"/>
+        <c:crossAx val="68863104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5674,7 +5668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G48" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R82" sqref="R82"/>
     </sheetView>
   </sheetViews>
@@ -6869,221 +6863,221 @@
         <v>FFT</v>
       </c>
       <c r="B74">
-        <f>E2*1000</f>
+        <f t="shared" ref="B74:B89" si="15">E2*1000</f>
         <v>72.404485692188715</v>
       </c>
       <c r="C74">
-        <f>F2*1000</f>
+        <f t="shared" ref="C74:C89" si="16">F2*1000</f>
         <v>18.856148491879349</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="str">
-        <f t="shared" ref="A75:A90" si="15">A3</f>
+        <f t="shared" ref="A75:A89" si="17">A3</f>
         <v>MAG</v>
       </c>
       <c r="B75">
-        <f>E3*1000</f>
+        <f t="shared" si="15"/>
         <v>334.0046403712297</v>
       </c>
       <c r="C75">
-        <f>F3*1000</f>
+        <f t="shared" si="16"/>
         <v>11.538283062645013</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="str">
+        <f t="shared" si="17"/>
+        <v>SC</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="15"/>
-        <v>SC</v>
-      </c>
-      <c r="B76">
-        <f>E4*1000</f>
         <v>1.9350348027842226</v>
       </c>
       <c r="C76">
-        <f>F4*1000</f>
+        <f t="shared" si="16"/>
         <v>1.3820572312451662</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="str">
+        <f t="shared" si="17"/>
+        <v>SR</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="15"/>
-        <v>SR</v>
-      </c>
-      <c r="B77">
-        <f>E5*1000</f>
         <v>2.4717710750193351</v>
       </c>
       <c r="C77">
-        <f>F5*1000</f>
+        <f t="shared" si="16"/>
         <v>2.4717710750193351</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="str">
+        <f t="shared" si="17"/>
+        <v>SF</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="15"/>
-        <v>SF</v>
-      </c>
-      <c r="B78">
-        <f>E6*1000</f>
         <v>1.8213457076566126</v>
       </c>
       <c r="C78">
-        <f>F6*1000</f>
+        <f t="shared" si="16"/>
         <v>1.7362722351121422</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="str">
+        <f t="shared" si="17"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="15"/>
-        <v>MFCC</v>
-      </c>
-      <c r="B79">
-        <f>E7*1000</f>
         <v>35.824439288476412</v>
       </c>
       <c r="C79">
-        <f>F7*1000</f>
+        <f t="shared" si="16"/>
         <v>11.675174013921115</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="str">
+        <f t="shared" si="17"/>
+        <v>HAM</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="15"/>
-        <v>HAM</v>
-      </c>
-      <c r="B80">
-        <f>E8*1000</f>
         <v>1.0499032882011605</v>
       </c>
       <c r="C80">
-        <f>F8*1000</f>
+        <f t="shared" si="16"/>
         <v>1.3342359767891683</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="str">
+        <f t="shared" si="17"/>
+        <v>NASE</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="15"/>
-        <v>NASE</v>
-      </c>
-      <c r="B81">
-        <f>E9*1000</f>
         <v>8.7969052224371378</v>
       </c>
       <c r="C81">
-        <f>F9*1000</f>
+        <f t="shared" si="16"/>
         <v>3.9288201160541587</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="str">
+        <f t="shared" si="17"/>
+        <v>OSC</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="15"/>
-        <v>OSC</v>
-      </c>
-      <c r="B82">
-        <f>E10*1000</f>
         <v>73.29941972920696</v>
       </c>
       <c r="C82">
-        <f>F10*1000</f>
+        <f t="shared" si="16"/>
         <v>29.48936170212766</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="str">
+        <f t="shared" si="17"/>
+        <v>ZCR</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="15"/>
-        <v>ZCR</v>
-      </c>
-      <c r="B83">
-        <f>E11*1000</f>
         <v>19.819025522041766</v>
       </c>
       <c r="C83">
-        <f>F11*1000</f>
+        <f t="shared" si="16"/>
         <v>2.5699922660479504</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="str">
+        <f t="shared" si="17"/>
+        <v>RMS</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="15"/>
-        <v>RMS</v>
-      </c>
-      <c r="B84">
-        <f>E12*1000</f>
         <v>3.6078886310904874</v>
       </c>
       <c r="C84">
-        <f>F12*1000</f>
+        <f t="shared" si="16"/>
         <v>2.7169373549883988</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="str">
+        <f t="shared" si="17"/>
+        <v>LE</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="15"/>
-        <v>LE</v>
-      </c>
-      <c r="B85">
-        <f>E13*1000</f>
         <v>1.7625676720804331</v>
       </c>
       <c r="C85">
-        <f>F13*1000</f>
+        <f t="shared" si="16"/>
         <v>0.73859242072699149</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="str">
+        <f t="shared" si="17"/>
+        <v>SCF</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="15"/>
-        <v>SCF</v>
-      </c>
-      <c r="B86">
-        <f>E14*1000</f>
         <v>3.0270688321732409</v>
       </c>
       <c r="C86">
-        <f>F14*1000</f>
+        <f t="shared" si="16"/>
         <v>1.4006187161639596</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="str">
+        <f t="shared" si="17"/>
+        <v>SBER</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="15"/>
-        <v>SBER</v>
-      </c>
-      <c r="B87">
-        <f>E15*1000</f>
         <v>5.1438515081206493</v>
       </c>
       <c r="C87">
-        <f>F15*1000</f>
+        <f t="shared" si="16"/>
         <v>2.9311678267594741</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="str">
+        <f t="shared" si="17"/>
+        <v>CV</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="15"/>
-        <v>CV</v>
-      </c>
-      <c r="B88">
-        <f>E16*1000</f>
         <v>4.9211136890951277</v>
       </c>
       <c r="C88">
-        <f>F16*1000</f>
+        <f t="shared" si="16"/>
         <v>4.9211136890951277</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="str">
+        <f t="shared" si="17"/>
+        <v>AOMIC</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="15"/>
-        <v>AOMIC</v>
-      </c>
-      <c r="B89">
-        <f>E17*1000</f>
         <v>0.47718484145398299</v>
       </c>
       <c r="C89">
-        <f>F17*1000</f>
+        <f t="shared" si="16"/>
         <v>0.47718484145398299</v>
       </c>
     </row>
@@ -7111,169 +7105,169 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="str">
-        <f t="shared" ref="A93:A106" si="16">A75</f>
+        <f t="shared" ref="A93:A106" si="18">A75</f>
         <v>MAG</v>
       </c>
       <c r="B93">
-        <f t="shared" ref="B93:B107" si="17">B3*1000</f>
+        <f t="shared" ref="B93:B107" si="19">B3*1000</f>
         <v>38.48414539829853</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:C107" si="18">D3*1000</f>
+        <f t="shared" ref="C93:C107" si="20">D3*1000</f>
         <v>19.110595514307814</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>SC</v>
       </c>
       <c r="B94">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>12.242846094354215</v>
       </c>
       <c r="C94">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>12.242846094354215</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>SR</v>
       </c>
       <c r="B95">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>4.4470224284609436</v>
       </c>
       <c r="C95">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>4.4470224284609436</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>SF</v>
       </c>
       <c r="B96">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.3201856148491879</v>
       </c>
       <c r="C96">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.3201856148491879</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>MFCC</v>
       </c>
       <c r="B97">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>38.174787316318643</v>
       </c>
       <c r="C97">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>31.848414539829854</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>HAM</v>
       </c>
       <c r="B98">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>23.361702127659576</v>
       </c>
       <c r="C98">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>6.9013539651837519</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>NASE</v>
       </c>
       <c r="B99">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>11.29980657640232</v>
       </c>
       <c r="C99">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>11.29980657640232</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>OSC</v>
       </c>
       <c r="B100">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>117.04448742746615</v>
       </c>
       <c r="C100">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>117.04448742746615</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>ZCR</v>
       </c>
       <c r="B101">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>39.118329466357309</v>
       </c>
       <c r="C101">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>39.118329466357309</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>RMS</v>
       </c>
       <c r="B102">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.5290023201856147</v>
       </c>
       <c r="C102">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.5290023201856147</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>LE</v>
       </c>
       <c r="B103">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>3.6040216550657389</v>
       </c>
       <c r="C103">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3.6040216550657389</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>SCF</v>
       </c>
       <c r="B104">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>0.95127610208816704</v>
       </c>
       <c r="C104">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.95127610208816704</v>
       </c>
     </row>
@@ -7283,25 +7277,25 @@
         <v>SBER</v>
       </c>
       <c r="B105">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.3689095127610209</v>
       </c>
       <c r="C105">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3689095127610209</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>CV</v>
       </c>
       <c r="B106">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>14.795050270688321</v>
       </c>
       <c r="C106">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>14.795050270688321</v>
       </c>
     </row>
@@ -7311,11 +7305,11 @@
         <v>AOMIC</v>
       </c>
       <c r="B107">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>1.6395978344934261</v>
       </c>
       <c r="C107">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6395978344934261</v>
       </c>
     </row>
@@ -7606,8 +7600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7839,6 +7833,10 @@
       <c r="H9">
         <f t="shared" si="0"/>
         <v>524.13</v>
+      </c>
+      <c r="I9">
+        <f>G7/G9</f>
+        <v>0.47416508642981403</v>
       </c>
     </row>
     <row r="11" spans="1:9">

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -331,24 +331,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66156032"/>
-        <c:axId val="66157568"/>
+        <c:axId val="76880896"/>
+        <c:axId val="76899072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66156032"/>
+        <c:axId val="76880896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66157568"/>
+        <c:crossAx val="76899072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66157568"/>
+        <c:axId val="76899072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +356,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66156032"/>
+        <c:crossAx val="76880896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -416,7 +416,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>67684.144845116913</c:v>
+                  <c:v>105970.1257676073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -454,7 +454,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42029.151159102199</c:v>
+                  <c:v>65803.216461220625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -492,7 +492,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>535357.1739103432</c:v>
+                  <c:v>838185.47430407279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,31 +530,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80517.50399473928</c:v>
+                  <c:v>126062.7587796423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68907776"/>
-        <c:axId val="68909312"/>
+        <c:axId val="77756288"/>
+        <c:axId val="77757824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68907776"/>
+        <c:axId val="77756288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68909312"/>
+        <c:crossAx val="77757824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68909312"/>
+        <c:axId val="77757824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,16 +576,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68907776"/>
+        <c:crossAx val="77756288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -604,7 +606,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -848,11 +850,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69102208"/>
-        <c:axId val="69108096"/>
+        <c:axId val="77824000"/>
+        <c:axId val="77825536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69102208"/>
+        <c:axId val="77824000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,14 +862,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69108096"/>
+        <c:crossAx val="77825536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69108096"/>
+        <c:axId val="77825536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,7 +895,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69102208"/>
+        <c:crossAx val="77824000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1036,24 +1038,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69137152"/>
-        <c:axId val="69138688"/>
+        <c:axId val="77854592"/>
+        <c:axId val="77856128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69137152"/>
+        <c:axId val="77854592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69138688"/>
+        <c:crossAx val="77856128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69138688"/>
+        <c:axId val="77856128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,7 +1081,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69137152"/>
+        <c:crossAx val="77854592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1348,24 +1350,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69060480"/>
-        <c:axId val="69062016"/>
+        <c:axId val="77970432"/>
+        <c:axId val="78000896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69060480"/>
+        <c:axId val="77970432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69062016"/>
+        <c:crossAx val="78000896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69062016"/>
+        <c:axId val="78000896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,18 +1389,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69060480"/>
+        <c:crossAx val="77970432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1484,24 +1484,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69147648"/>
-        <c:axId val="69149440"/>
+        <c:axId val="78020992"/>
+        <c:axId val="78022528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69147648"/>
+        <c:axId val="78020992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69149440"/>
+        <c:crossAx val="78022528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69149440"/>
+        <c:axId val="78022528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,11 +1523,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69147648"/>
+        <c:crossAx val="78020992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,24 +1615,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69181440"/>
-        <c:axId val="69182976"/>
+        <c:axId val="78038144"/>
+        <c:axId val="78039680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69181440"/>
+        <c:axId val="78038144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69182976"/>
+        <c:crossAx val="78039680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69182976"/>
+        <c:axId val="78039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1655,11 +1654,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69181440"/>
+        <c:crossAx val="78038144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,11 +1922,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69338240"/>
-        <c:axId val="69339776"/>
+        <c:axId val="78104832"/>
+        <c:axId val="83890176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69338240"/>
+        <c:axId val="78104832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,14 +1934,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69339776"/>
+        <c:crossAx val="83890176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69339776"/>
+        <c:axId val="83890176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1969,7 +1967,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69338240"/>
+        <c:crossAx val="78104832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2275,24 +2273,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69393408"/>
-        <c:axId val="69399296"/>
+        <c:axId val="83956096"/>
+        <c:axId val="83957632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69393408"/>
+        <c:axId val="83956096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69399296"/>
+        <c:crossAx val="83957632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69399296"/>
+        <c:axId val="83957632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2315,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69393408"/>
+        <c:crossAx val="83956096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2505,24 +2503,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="69427200"/>
-        <c:axId val="69428736"/>
+        <c:axId val="83977344"/>
+        <c:axId val="83978880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69427200"/>
+        <c:axId val="83977344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69428736"/>
+        <c:crossAx val="83978880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69428736"/>
+        <c:axId val="83978880"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2548,7 +2546,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69427200"/>
+        <c:crossAx val="83977344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2687,24 +2685,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66348160"/>
-        <c:axId val="66349696"/>
+        <c:axId val="76920704"/>
+        <c:axId val="76922240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66348160"/>
+        <c:axId val="76920704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66349696"/>
+        <c:crossAx val="76922240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66349696"/>
+        <c:axId val="76922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2730,7 +2728,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66348160"/>
+        <c:crossAx val="76920704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2979,24 +2977,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="66370560"/>
-        <c:axId val="66380544"/>
+        <c:axId val="77029376"/>
+        <c:axId val="77030912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66370560"/>
+        <c:axId val="77029376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66380544"/>
+        <c:crossAx val="77030912"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66380544"/>
+        <c:axId val="77030912"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3023,7 +3021,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66370560"/>
+        <c:crossAx val="77029376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3320,24 +3318,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68650112"/>
-        <c:axId val="68651648"/>
+        <c:axId val="77059968"/>
+        <c:axId val="77061504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68650112"/>
+        <c:axId val="77059968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68651648"/>
-        <c:crossesAt val="1.0000000000000032E-4"/>
+        <c:crossAx val="77061504"/>
+        <c:crossesAt val="1.0000000000000036E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68651648"/>
+        <c:axId val="77061504"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3364,7 +3362,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68650112"/>
+        <c:crossAx val="77059968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3390,10 +3388,9 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -3662,24 +3659,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68692992"/>
-        <c:axId val="68682496"/>
+        <c:axId val="77172736"/>
+        <c:axId val="77174272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68692992"/>
+        <c:axId val="77172736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68682496"/>
-        <c:crossesAt val="1.0000000000000032E-4"/>
+        <c:crossAx val="77174272"/>
+        <c:crossesAt val="1.0000000000000036E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68682496"/>
+        <c:axId val="77174272"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3706,7 +3703,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68692992"/>
+        <c:crossAx val="77172736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3732,7 +3729,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3920,25 +3917,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68737664"/>
-        <c:axId val="68739456"/>
+        <c:axId val="77196672"/>
+        <c:axId val="77599872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68737664"/>
+        <c:axId val="77196672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68739456"/>
+        <c:crossAx val="77599872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68739456"/>
+        <c:axId val="77599872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3960,16 +3957,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68737664"/>
+        <c:crossAx val="77196672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4156,25 +4155,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68770048"/>
-        <c:axId val="68780032"/>
+        <c:axId val="77634560"/>
+        <c:axId val="77648640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68770048"/>
+        <c:axId val="77634560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68780032"/>
+        <c:crossAx val="77648640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68780032"/>
+        <c:axId val="77648640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,16 +4195,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68770048"/>
+        <c:crossAx val="77634560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4224,7 +4225,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000007" r="0.70000000000000007" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4392,25 +4393,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68818816"/>
-        <c:axId val="68820352"/>
+        <c:axId val="77679232"/>
+        <c:axId val="77693312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68818816"/>
+        <c:axId val="77679232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68820352"/>
+        <c:crossAx val="77693312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68820352"/>
+        <c:axId val="77693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4432,16 +4433,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68818816"/>
+        <c:crossAx val="77679232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4517,16 +4520,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7193.0475440415621</c:v>
+                  <c:v>11261.842114408508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>33285.460277677448</c:v>
+                  <c:v>52113.59942464652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67680.849983537802</c:v>
+                  <c:v>105964.96714594304</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67684.144845116913</c:v>
+                  <c:v>105970.1257676073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4573,16 +4576,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6140.8412025976349</c:v>
+                  <c:v>9614.4483475013476</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24908.474605015188</c:v>
+                  <c:v>38998.116805831858</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40105.954190467135</c:v>
+                  <c:v>62792.150500226329</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42029.151159102199</c:v>
+                  <c:v>65803.216461220625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4629,16 +4632,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>128061.64390345362</c:v>
+                  <c:v>200500.55358621528</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>138565.75336153229</c:v>
+                  <c:v>216946.38152563138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>138565.75336153229</c:v>
+                  <c:v>216946.38152563138</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>535357.1739103432</c:v>
+                  <c:v>838185.47430407279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4685,39 +4688,39 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7682.5852844208357</c:v>
+                  <c:v>12028.290091769995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36094.149621276621</c:v>
+                  <c:v>56511.042336342187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80509.733085017157</c:v>
+                  <c:v>126050.59220381477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80517.50399473928</c:v>
+                  <c:v>126062.7587796423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68863104"/>
-        <c:axId val="68864640"/>
+        <c:axId val="77723904"/>
+        <c:axId val="77733888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68863104"/>
+        <c:axId val="77723904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68864640"/>
+        <c:crossAx val="77733888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68864640"/>
+        <c:axId val="77733888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4743,7 +4746,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68863104"/>
+        <c:crossAx val="77723904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5081,57 +5084,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.14894</cdr:x>
-      <cdr:y>0.4411</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.97796</cdr:x>
-      <cdr:y>0.4411</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="Gerade Verbindung 2"/>
-        <cdr:cNvSpPr/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="933450" y="1533524"/>
-          <a:ext cx="5195887" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5286,7 +5238,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5668,8 +5620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="G18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R82" sqref="R82"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6763,19 +6715,19 @@
       </c>
       <c r="B65">
         <f>B59/$B$70</f>
-        <v>7193.0475440415621</v>
+        <v>11261.842114408508</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:E65" si="11">C59/$B$70</f>
-        <v>33285.460277677448</v>
+        <v>52113.59942464652</v>
       </c>
       <c r="D65">
         <f t="shared" si="11"/>
-        <v>67680.849983537802</v>
+        <v>105964.96714594304</v>
       </c>
       <c r="E65">
         <f t="shared" si="11"/>
-        <v>67684.144845116913</v>
+        <v>105970.1257676073</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6784,19 +6736,19 @@
       </c>
       <c r="B66">
         <f t="shared" ref="B66:E66" si="12">B60/$B$70</f>
-        <v>6140.8412025976349</v>
+        <v>9614.4483475013476</v>
       </c>
       <c r="C66">
         <f t="shared" si="12"/>
-        <v>24908.474605015188</v>
+        <v>38998.116805831858</v>
       </c>
       <c r="D66">
         <f t="shared" si="12"/>
-        <v>40105.954190467135</v>
+        <v>62792.150500226329</v>
       </c>
       <c r="E66">
         <f t="shared" si="12"/>
-        <v>42029.151159102199</v>
+        <v>65803.216461220625</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -6805,19 +6757,19 @@
       </c>
       <c r="B67">
         <f t="shared" ref="B67:E67" si="13">B61/$B$70</f>
-        <v>128061.64390345362</v>
+        <v>200500.55358621528</v>
       </c>
       <c r="C67">
         <f t="shared" si="13"/>
-        <v>138565.75336153229</v>
+        <v>216946.38152563138</v>
       </c>
       <c r="D67">
         <f t="shared" si="13"/>
-        <v>138565.75336153229</v>
+        <v>216946.38152563138</v>
       </c>
       <c r="E67">
         <f t="shared" si="13"/>
-        <v>535357.1739103432</v>
+        <v>838185.47430407279</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -6826,19 +6778,19 @@
       </c>
       <c r="B68">
         <f t="shared" ref="B68:E68" si="14">B62/$B$70</f>
-        <v>7682.5852844208357</v>
+        <v>12028.290091769995</v>
       </c>
       <c r="C68">
         <f t="shared" si="14"/>
-        <v>36094.149621276621</v>
+        <v>56511.042336342187</v>
       </c>
       <c r="D68">
         <f t="shared" si="14"/>
-        <v>80509.733085017157</v>
+        <v>126050.59220381477</v>
       </c>
       <c r="E68">
         <f t="shared" si="14"/>
-        <v>80517.50399473928</v>
+        <v>126062.7587796423</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -6846,7 +6798,8 @@
         <v>34</v>
       </c>
       <c r="B70">
-        <v>0.31</v>
+        <f>0.367-B56</f>
+        <v>0.19799999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -6870,6 +6823,10 @@
         <f t="shared" ref="C74:C89" si="16">F2*1000</f>
         <v>18.856148491879349</v>
       </c>
+      <c r="D74">
+        <f>SUM(C74:C89)</f>
+        <v>98.167731020028981</v>
+      </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="str">
@@ -6883,6 +6840,10 @@
       <c r="C75">
         <f t="shared" si="16"/>
         <v>11.538283062645013</v>
+      </c>
+      <c r="D75">
+        <f>(C74+C75+C79+C82)/D74</f>
+        <v>0.728945922728652</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -7598,10 +7559,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7615,7 +7576,7 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -7638,7 +7599,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7664,7 +7625,7 @@
         <v>17.84</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7689,8 +7650,12 @@
       <c r="H3">
         <v>41.69</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f>(0.76*G7)/2+0.24*G7</f>
+        <v>187.5872</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7716,7 +7681,7 @@
         <v>49.6</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -7745,8 +7710,12 @@
         <f>H5/H9*100</f>
         <v>15.879648178886917</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <f>J3/G9</f>
+        <v>0.29398235358648472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7772,7 +7741,7 @@
         <v>29.21</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7802,7 +7771,7 @@
         <v>229.94560000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7839,7 +7808,7 @@
         <v>0.47416508642981403</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="C11">
         <f>G9/(G2+G3+H4+G5+G6+G7)</f>
         <v>1.0899509762055242</v>
@@ -7861,12 +7830,12 @@
         <v>1.2174269742239519</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="str">
         <f>A2</f>
         <v>HAM</v>
@@ -7876,7 +7845,7 @@
         <v>4.1948278377083001</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="str">
         <f t="shared" ref="A15:A19" si="1">A3</f>
         <v>FFT</v>
@@ -7886,7 +7855,7 @@
         <v>58.591443634822838</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="str">
         <f t="shared" si="1"/>
         <v>MAG</v>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -151,6 +151,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -180,8 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -195,9 +199,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -331,24 +333,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76880896"/>
-        <c:axId val="76899072"/>
+        <c:axId val="92846336"/>
+        <c:axId val="92848128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76880896"/>
+        <c:axId val="92846336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76899072"/>
+        <c:crossAx val="92848128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76899072"/>
+        <c:axId val="92848128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,14 +358,13 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76880896"/>
+        <c:crossAx val="92846336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -413,7 +414,7 @@
             <c:numRef>
               <c:f>'Feature Überblick'!$E$65</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>105970.1257676073</c:v>
@@ -489,7 +490,7 @@
             <c:numRef>
               <c:f>'Feature Überblick'!$E$67</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>838185.47430407279</c:v>
@@ -527,7 +528,7 @@
             <c:numRef>
               <c:f>'Feature Überblick'!$E$68</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>126062.7587796423</c:v>
@@ -536,25 +537,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77756288"/>
-        <c:axId val="77757824"/>
+        <c:axId val="93390336"/>
+        <c:axId val="93391872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77756288"/>
+        <c:axId val="93390336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77757824"/>
+        <c:crossAx val="93391872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77757824"/>
+        <c:axId val="93391872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -576,18 +577,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77756288"/>
+        <c:crossAx val="93390336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -606,7 +605,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -850,11 +849,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77824000"/>
-        <c:axId val="77825536"/>
+        <c:axId val="93584768"/>
+        <c:axId val="93467776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77824000"/>
+        <c:axId val="93584768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -862,14 +861,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77825536"/>
+        <c:crossAx val="93467776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77825536"/>
+        <c:axId val="93467776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -891,18 +890,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77824000"/>
+        <c:crossAx val="93584768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1038,24 +1035,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77854592"/>
-        <c:axId val="77856128"/>
+        <c:axId val="93492736"/>
+        <c:axId val="93494272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77854592"/>
+        <c:axId val="93492736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77856128"/>
+        <c:crossAx val="93494272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77856128"/>
+        <c:axId val="93494272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,18 +1074,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77854592"/>
+        <c:crossAx val="93492736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1350,24 +1345,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77970432"/>
-        <c:axId val="78000896"/>
+        <c:axId val="93514368"/>
+        <c:axId val="93614464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77970432"/>
+        <c:axId val="93514368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78000896"/>
+        <c:crossAx val="93614464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78000896"/>
+        <c:axId val="93614464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,7 +1387,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77970432"/>
+        <c:crossAx val="93514368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1484,24 +1479,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78020992"/>
-        <c:axId val="78022528"/>
+        <c:axId val="93626368"/>
+        <c:axId val="93627904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78020992"/>
+        <c:axId val="93626368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78022528"/>
+        <c:crossAx val="93627904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78022528"/>
+        <c:axId val="93627904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1521,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78020992"/>
+        <c:crossAx val="93626368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1615,24 +1610,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78038144"/>
-        <c:axId val="78039680"/>
+        <c:axId val="93922048"/>
+        <c:axId val="93923584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78038144"/>
+        <c:axId val="93922048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78039680"/>
+        <c:crossAx val="93923584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78039680"/>
+        <c:axId val="93923584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1652,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78038144"/>
+        <c:crossAx val="93922048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1922,11 +1917,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="78104832"/>
-        <c:axId val="83890176"/>
+        <c:axId val="94013312"/>
+        <c:axId val="94014848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78104832"/>
+        <c:axId val="94013312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,14 +1929,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="83890176"/>
+        <c:crossAx val="94014848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83890176"/>
+        <c:axId val="94014848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1967,7 +1962,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78104832"/>
+        <c:crossAx val="94013312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2273,24 +2268,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83956096"/>
-        <c:axId val="83957632"/>
+        <c:axId val="94142464"/>
+        <c:axId val="94144000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83956096"/>
+        <c:axId val="94142464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83957632"/>
+        <c:crossAx val="94144000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83957632"/>
+        <c:axId val="94144000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2310,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83956096"/>
+        <c:crossAx val="94142464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2503,24 +2498,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="83977344"/>
-        <c:axId val="83978880"/>
+        <c:axId val="94159616"/>
+        <c:axId val="94161152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83977344"/>
+        <c:axId val="94159616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83978880"/>
+        <c:crossAx val="94161152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83978880"/>
+        <c:axId val="94161152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2546,7 +2541,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83977344"/>
+        <c:crossAx val="94159616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2685,24 +2680,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="76920704"/>
-        <c:axId val="76922240"/>
+        <c:axId val="92763648"/>
+        <c:axId val="92765184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="76920704"/>
+        <c:axId val="92763648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76922240"/>
+        <c:crossAx val="92765184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76922240"/>
+        <c:axId val="92765184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2723,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76920704"/>
+        <c:crossAx val="92763648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2977,24 +2972,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77029376"/>
-        <c:axId val="77030912"/>
+        <c:axId val="92790144"/>
+        <c:axId val="92791936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77029376"/>
+        <c:axId val="92790144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77030912"/>
+        <c:crossAx val="92791936"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77030912"/>
+        <c:axId val="92791936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3021,7 +3016,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77029376"/>
+        <c:crossAx val="92790144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3318,24 +3313,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77059968"/>
-        <c:axId val="77061504"/>
+        <c:axId val="92685824"/>
+        <c:axId val="92687360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77059968"/>
+        <c:axId val="92685824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77061504"/>
-        <c:crossesAt val="1.0000000000000036E-4"/>
+        <c:crossAx val="92687360"/>
+        <c:crossesAt val="1.000000000000004E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77061504"/>
+        <c:axId val="92687360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3362,7 +3357,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77059968"/>
+        <c:crossAx val="92685824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3388,7 +3383,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3659,24 +3654,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77172736"/>
-        <c:axId val="77174272"/>
+        <c:axId val="92704128"/>
+        <c:axId val="92718208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77172736"/>
+        <c:axId val="92704128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77174272"/>
-        <c:crossesAt val="1.0000000000000036E-4"/>
+        <c:crossAx val="92718208"/>
+        <c:crossesAt val="1.000000000000004E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77174272"/>
+        <c:axId val="92718208"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3703,7 +3698,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77172736"/>
+        <c:crossAx val="92704128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3729,7 +3724,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3917,25 +3912,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77196672"/>
-        <c:axId val="77599872"/>
+        <c:axId val="92879872"/>
+        <c:axId val="92885760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77196672"/>
+        <c:axId val="92879872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77599872"/>
+        <c:crossAx val="92885760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77599872"/>
+        <c:axId val="92885760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3957,18 +3952,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77196672"/>
+        <c:crossAx val="92879872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4108,7 +4101,7 @@
             <c:numRef>
               <c:f>'Feature Überblick'!$E$53</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>130762.05048648942</c:v>
@@ -4146,7 +4139,7 @@
             <c:numRef>
               <c:f>'Feature Überblick'!$E$54</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>109173.62405771257</c:v>
@@ -4155,25 +4148,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77634560"/>
-        <c:axId val="77648640"/>
+        <c:axId val="92928640"/>
+        <c:axId val="92938624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77634560"/>
+        <c:axId val="92928640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77648640"/>
+        <c:crossAx val="92938624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77648640"/>
+        <c:axId val="92938624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4195,18 +4188,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77634560"/>
+        <c:crossAx val="92928640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4225,7 +4216,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000018" r="0.70000000000000018" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4393,25 +4384,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77679232"/>
-        <c:axId val="77693312"/>
+        <c:axId val="92989696"/>
+        <c:axId val="93327360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77679232"/>
+        <c:axId val="92989696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="77693312"/>
+        <c:crossAx val="93327360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77693312"/>
+        <c:axId val="93327360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4433,18 +4424,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77679232"/>
+        <c:crossAx val="92989696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -4528,7 +4517,7 @@
                 <c:pt idx="2">
                   <c:v>105964.96714594304</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0000">
                   <c:v>105970.1257676073</c:v>
                 </c:pt>
               </c:numCache>
@@ -4640,7 +4629,7 @@
                 <c:pt idx="2">
                   <c:v>216946.38152563138</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0000">
                   <c:v>838185.47430407279</c:v>
                 </c:pt>
               </c:numCache>
@@ -4696,31 +4685,31 @@
                 <c:pt idx="2">
                   <c:v>126050.59220381477</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="3" formatCode="0.0000">
                   <c:v>126062.7587796423</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="77723904"/>
-        <c:axId val="77733888"/>
+        <c:axId val="93341568"/>
+        <c:axId val="93343104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77723904"/>
+        <c:axId val="93341568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77733888"/>
+        <c:crossAx val="93343104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77733888"/>
+        <c:axId val="93343104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4746,7 +4735,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77723904"/>
+        <c:crossAx val="93341568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5620,14 +5609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -6557,7 +6547,7 @@
         <f t="shared" si="10"/>
         <v>130762.05048648942</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <f t="shared" si="10"/>
         <v>130762.05048648942</v>
       </c>
@@ -6578,7 +6568,7 @@
         <f t="shared" si="10"/>
         <v>80510.234388766679</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <f t="shared" si="10"/>
         <v>109173.62405771257</v>
       </c>
@@ -6666,7 +6656,7 @@
         <f>1000/('DSP MCL3'!D6/1293)</f>
         <v>42955.383542075011</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="1">
         <f>1000/('DSP MCL3'!E6/1293)</f>
         <v>165960.72391220639</v>
       </c>
@@ -6725,7 +6715,7 @@
         <f t="shared" si="11"/>
         <v>105964.96714594304</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="1">
         <f t="shared" si="11"/>
         <v>105970.1257676073</v>
       </c>
@@ -6767,7 +6757,7 @@
         <f t="shared" si="13"/>
         <v>216946.38152563138</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="1">
         <f t="shared" si="13"/>
         <v>838185.47430407279</v>
       </c>
@@ -6788,7 +6778,7 @@
         <f t="shared" si="14"/>
         <v>126050.59220381477</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="1">
         <f t="shared" si="14"/>
         <v>126062.7587796423</v>
       </c>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -199,7 +199,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -333,24 +335,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92846336"/>
-        <c:axId val="92848128"/>
+        <c:axId val="74798592"/>
+        <c:axId val="74800128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92846336"/>
+        <c:axId val="74798592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92848128"/>
+        <c:crossAx val="74800128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92848128"/>
+        <c:axId val="74800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,13 +360,14 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92846336"/>
+        <c:crossAx val="74798592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -537,25 +540,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93390336"/>
-        <c:axId val="93391872"/>
+        <c:axId val="80765696"/>
+        <c:axId val="80767232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93390336"/>
+        <c:axId val="80765696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93391872"/>
+        <c:crossAx val="80767232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93391872"/>
+        <c:axId val="80767232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +583,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93390336"/>
+        <c:crossAx val="80765696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -605,7 +608,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -849,11 +852,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93584768"/>
-        <c:axId val="93467776"/>
+        <c:axId val="80894592"/>
+        <c:axId val="80904576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93584768"/>
+        <c:axId val="80894592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,14 +864,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93467776"/>
+        <c:crossAx val="80904576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93467776"/>
+        <c:axId val="80904576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -890,16 +893,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93584768"/>
+        <c:crossAx val="80894592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1035,24 +1040,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93492736"/>
-        <c:axId val="93494272"/>
+        <c:axId val="80925440"/>
+        <c:axId val="80926976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93492736"/>
+        <c:axId val="80925440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93494272"/>
+        <c:crossAx val="80926976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93494272"/>
+        <c:axId val="80926976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,16 +1079,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93492736"/>
+        <c:crossAx val="80925440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1345,24 +1352,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93514368"/>
-        <c:axId val="93614464"/>
+        <c:axId val="80971648"/>
+        <c:axId val="80973184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93514368"/>
+        <c:axId val="80971648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93614464"/>
+        <c:crossAx val="80973184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93614464"/>
+        <c:axId val="80973184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1394,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93514368"/>
+        <c:crossAx val="80971648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1479,24 +1486,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93626368"/>
-        <c:axId val="93627904"/>
+        <c:axId val="81001472"/>
+        <c:axId val="81003264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93626368"/>
+        <c:axId val="81001472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93627904"/>
+        <c:crossAx val="81003264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93627904"/>
+        <c:axId val="81003264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1521,7 +1528,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93626368"/>
+        <c:crossAx val="81001472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1610,24 +1617,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93922048"/>
-        <c:axId val="93923584"/>
+        <c:axId val="81027072"/>
+        <c:axId val="81028608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93922048"/>
+        <c:axId val="81027072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93923584"/>
+        <c:crossAx val="81028608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93923584"/>
+        <c:axId val="81028608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1659,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93922048"/>
+        <c:crossAx val="81027072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1917,11 +1924,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94013312"/>
-        <c:axId val="94014848"/>
+        <c:axId val="82318464"/>
+        <c:axId val="82320000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94013312"/>
+        <c:axId val="82318464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1929,14 +1936,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="94014848"/>
+        <c:crossAx val="82320000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94014848"/>
+        <c:axId val="82320000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1959,16 +1966,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94013312"/>
+        <c:crossAx val="82318464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2268,24 +2277,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94142464"/>
-        <c:axId val="94144000"/>
+        <c:axId val="82369536"/>
+        <c:axId val="82379520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94142464"/>
+        <c:axId val="82369536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94144000"/>
+        <c:crossAx val="82379520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94144000"/>
+        <c:axId val="82379520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,16 +2316,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94142464"/>
+        <c:crossAx val="82369536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2498,24 +2509,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94159616"/>
-        <c:axId val="94161152"/>
+        <c:axId val="82411520"/>
+        <c:axId val="82413056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94159616"/>
+        <c:axId val="82411520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94161152"/>
+        <c:crossAx val="82413056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94161152"/>
+        <c:axId val="82413056"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2538,16 +2549,18 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94159616"/>
+        <c:crossAx val="82411520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2680,24 +2693,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92763648"/>
-        <c:axId val="92765184"/>
+        <c:axId val="79123584"/>
+        <c:axId val="79125120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92763648"/>
+        <c:axId val="79123584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92765184"/>
+        <c:crossAx val="79125120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92765184"/>
+        <c:axId val="79125120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2723,7 +2736,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92763648"/>
+        <c:crossAx val="79123584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2972,24 +2985,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92790144"/>
-        <c:axId val="92791936"/>
+        <c:axId val="79145984"/>
+        <c:axId val="79151872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92790144"/>
+        <c:axId val="79145984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92791936"/>
+        <c:crossAx val="79151872"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92791936"/>
+        <c:axId val="79151872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3016,7 +3029,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92790144"/>
+        <c:crossAx val="79145984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3313,24 +3326,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92685824"/>
-        <c:axId val="92687360"/>
+        <c:axId val="79385728"/>
+        <c:axId val="79387264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92685824"/>
+        <c:axId val="79385728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92687360"/>
-        <c:crossesAt val="1.000000000000004E-4"/>
+        <c:crossAx val="79387264"/>
+        <c:crossesAt val="1.0000000000000042E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92687360"/>
+        <c:axId val="79387264"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3357,7 +3370,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92685824"/>
+        <c:crossAx val="79385728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,7 +3396,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3654,24 +3667,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92704128"/>
-        <c:axId val="92718208"/>
+        <c:axId val="79420416"/>
+        <c:axId val="80544512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92704128"/>
+        <c:axId val="79420416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92718208"/>
-        <c:crossesAt val="1.000000000000004E-4"/>
+        <c:crossAx val="80544512"/>
+        <c:crossesAt val="1.0000000000000042E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92718208"/>
+        <c:axId val="80544512"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3698,7 +3711,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92704128"/>
+        <c:crossAx val="79420416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3724,7 +3737,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3912,25 +3925,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92879872"/>
-        <c:axId val="92885760"/>
+        <c:axId val="80587392"/>
+        <c:axId val="80601472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92879872"/>
+        <c:axId val="80587392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92885760"/>
+        <c:crossAx val="80601472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92885760"/>
+        <c:axId val="80601472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3955,7 +3968,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92879872"/>
+        <c:crossAx val="80587392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4148,25 +4161,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92928640"/>
-        <c:axId val="92938624"/>
+        <c:axId val="80623872"/>
+        <c:axId val="80629760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92928640"/>
+        <c:axId val="80623872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="92938624"/>
+        <c:crossAx val="80629760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92938624"/>
+        <c:axId val="80629760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4191,7 +4204,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92928640"/>
+        <c:crossAx val="80623872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4216,7 +4229,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.70000000000000029" r="0.70000000000000029" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4384,25 +4397,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92989696"/>
-        <c:axId val="93327360"/>
+        <c:axId val="80680832"/>
+        <c:axId val="80682368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92989696"/>
+        <c:axId val="80680832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="93327360"/>
+        <c:crossAx val="80682368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93327360"/>
+        <c:axId val="80682368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4427,7 +4440,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92989696"/>
+        <c:crossAx val="80680832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4692,24 +4705,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="93341568"/>
-        <c:axId val="93343104"/>
+        <c:axId val="80721024"/>
+        <c:axId val="80722560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="93341568"/>
+        <c:axId val="80721024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93343104"/>
+        <c:crossAx val="80722560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93343104"/>
+        <c:axId val="80722560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4735,7 +4748,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="93341568"/>
+        <c:crossAx val="80721024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5609,7 +5622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
@@ -7273,10 +7286,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I2" sqref="I2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7290,7 +7303,7 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -7313,7 +7326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -7338,8 +7351,12 @@
       <c r="H2">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <f>B2/H2</f>
+        <v>39.511320754716984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -7364,8 +7381,12 @@
       <c r="H3">
         <v>24.71</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <f>B3/H3</f>
+        <v>27.991906110886276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -7390,8 +7411,12 @@
       <c r="H4">
         <v>15.83</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <f>B4/H4</f>
+        <v>2.670246367656349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -7416,8 +7441,12 @@
       <c r="H5">
         <v>5.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <f t="shared" ref="I5:I7" si="0">B5/H5</f>
+        <v>6.7843478260869565</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7442,8 +7471,12 @@
       <c r="H6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>6.9533333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -7468,8 +7501,12 @@
       <c r="H7">
         <v>41.18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.9494900437105391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7478,31 +7515,31 @@
         <v>1711.7399999999998</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:H9" si="0">SUM(C2:C7)</f>
+        <f t="shared" ref="C9:H9" si="1">SUM(C2:C7)</f>
         <v>560.03</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>531.61</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1488.6699999999998</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327.90000000000003</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>136.72</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>111.66999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="B13">
         <f>B2/E2</f>
         <v>1.3629692305188992</v>
@@ -7549,10 +7586,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7566,7 +7603,7 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -7589,7 +7626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -7615,7 +7652,7 @@
         <v>17.84</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -7644,8 +7681,12 @@
         <f>(0.76*G7)/2+0.24*G7</f>
         <v>187.5872</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <f>B3/H3</f>
+        <v>40.348524826097389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -7670,8 +7711,12 @@
       <c r="H4">
         <v>49.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <f>B4/H4</f>
+        <v>27.908467741935482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -7704,8 +7749,12 @@
         <f>J3/G9</f>
         <v>0.29398235358648472</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5">
+        <f>B5/H5</f>
+        <v>1.9262285233689773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -7730,8 +7779,12 @@
       <c r="H6">
         <v>29.21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <f t="shared" ref="K6:K7" si="0">B6/H6</f>
+        <v>1.1157137966449846</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7760,8 +7813,12 @@
         <f>H7*0.76</f>
         <v>229.94560000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.1623810153358012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -7770,27 +7827,27 @@
         <v>3658.0700000000006</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:H9" si="0">SUM(C2:C7)</f>
+        <f t="shared" ref="C9:H9" si="1">SUM(C2:C7)</f>
         <v>1439.36</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1439.6299999999999</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3239.3200000000006</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>974.38999999999987</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>638.08999999999992</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524.13</v>
       </c>
       <c r="I9">
@@ -7798,7 +7855,7 @@
         <v>0.47416508642981403</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="C11">
         <f>G9/(G2+G3+H4+G5+G6+G7)</f>
         <v>1.0899509762055242</v>
@@ -7820,12 +7877,12 @@
         <v>1.2174269742239519</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" t="str">
         <f>A2</f>
         <v>HAM</v>
@@ -7835,53 +7892,53 @@
         <v>4.1948278377083001</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" t="str">
-        <f t="shared" ref="A15:A19" si="1">A3</f>
+        <f t="shared" ref="A15:A19" si="2">A3</f>
         <v>FFT</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B19" si="2">D3/$D$9*100</f>
+        <f t="shared" ref="B15:B19" si="3">D3/$D$9*100</f>
         <v>58.591443634822838</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MAG</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.1032140202690979</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>MFCC</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0650097594520815</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>NASE</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.0289935608454952</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>OSC</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>21.016511186902193</v>
       </c>
     </row>
@@ -7911,11 +7968,11 @@
         <v>1682.13</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:D25" si="3">C3</f>
+        <f t="shared" ref="C25:D25" si="4">C3</f>
         <v>838.04</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>843.5</v>
       </c>
     </row>
@@ -7972,57 +8029,57 @@
         <v>HAM</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B36" si="4">G2</f>
+        <f t="shared" ref="B31:B36" si="5">G2</f>
         <v>60.39</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="str">
-        <f t="shared" ref="A32:A36" si="5">A3</f>
+        <f t="shared" ref="A32:A36" si="6">A3</f>
         <v>FFT</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.96</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="str">
+        <f t="shared" si="6"/>
+        <v>MAG</v>
+      </c>
+      <c r="B33">
         <f t="shared" si="5"/>
-        <v>MAG</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="4"/>
         <v>102.26</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="str">
+        <f t="shared" si="6"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B34">
         <f t="shared" si="5"/>
-        <v>MFCC</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="4"/>
         <v>101.71</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="str">
+        <f t="shared" si="6"/>
+        <v>NASE</v>
+      </c>
+      <c r="B35">
         <f t="shared" si="5"/>
-        <v>NASE</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="4"/>
         <v>29.21</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="str">
+        <f t="shared" si="6"/>
+        <v>OSC</v>
+      </c>
+      <c r="B36">
         <f t="shared" si="5"/>
-        <v>OSC</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="4"/>
         <v>302.56</v>
       </c>
     </row>
@@ -8035,10 +8092,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J2" sqref="J2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8052,7 +8109,7 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -8075,7 +8132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -8108,8 +8165,12 @@
         <f>H2/H6*100</f>
         <v>86.446761237395307</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <f>B2/H2</f>
+        <v>1.7465401344404905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -8138,8 +8199,12 @@
         <f>$D$3</f>
         <v>3.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f t="shared" ref="J3:J4" si="2">B3/H3</f>
+        <v>14.195718654434252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -8168,8 +8233,12 @@
         <f>$D$4</f>
         <v>4.66</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J4">
+        <f t="shared" si="2"/>
+        <v>1.9742489270386263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -8178,31 +8247,31 @@
         <v>143.95999999999998</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:H6" si="2">SUM(C2:C4)</f>
+        <f t="shared" ref="C6:H6" si="3">SUM(C2:C4)</f>
         <v>75.279999999999987</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.510000000000005</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>143.95999999999998</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>75.279999999999987</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.510000000000005</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>58.510000000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="B10">
         <f>B6/H6</f>
         <v>2.4604341138266959</v>
@@ -8215,10 +8284,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="I4" sqref="I4:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8232,7 +8301,7 @@
     <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -8255,7 +8324,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -8281,7 +8350,7 @@
         <v>21.28</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -8307,7 +8376,7 @@
         <v>24.55</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8332,8 +8401,12 @@
       <c r="H4">
         <v>1.23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <f>B4/H4</f>
+        <v>8.3252032520325212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -8358,8 +8431,12 @@
       <c r="H5">
         <v>1.77</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <f t="shared" ref="I5:I7" si="0">B5/H5</f>
+        <v>13.807909604519775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -8384,8 +8461,12 @@
       <c r="H6">
         <v>19.13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.68740198640878203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -8410,8 +8491,12 @@
       <c r="H7">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.2641509433962264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8420,43 +8505,43 @@
         <v>1579.9100000000003</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:H9" si="0">SUM(C2:C7)</f>
+        <f t="shared" ref="C9:H9" si="1">SUM(C2:C7)</f>
         <v>508.14</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>481.14</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1356.3400000000001</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>281.18</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>95.03</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>70.08</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="B13">
         <f>B2/B9*100</f>
         <v>53.007449791443804</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="B14">
         <f>G9/H9</f>
         <v>1.3560216894977168</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="B15">
         <f>B9/H9</f>
         <v>22.544377853881283</v>
@@ -8469,10 +8554,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F4" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8484,7 +8569,7 @@
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -8498,7 +8583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>'ARM MCL1'!A2</f>
         <v>FFT</v>
@@ -8515,8 +8600,12 @@
       <c r="E2">
         <v>24.381</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f t="shared" ref="F2:F3" si="0">B2/E2</f>
+        <v>3.8398342971986383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>'ARM MCL1'!A3</f>
         <v>MAG</v>
@@ -8533,8 +8622,12 @@
       <c r="E3">
         <v>14.919</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>28.947516589583753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>'ARM MCL1'!A4</f>
         <v>SC</v>
@@ -8551,8 +8644,12 @@
       <c r="E4">
         <v>1.7869999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f>B4/E4</f>
+        <v>1.4001119194180189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f>'ARM MCL1'!A5</f>
         <v>SR</v>
@@ -8569,8 +8666,12 @@
       <c r="E5">
         <v>3.1960000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" ref="F5:F7" si="1">B5/E5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f>'ARM MCL1'!A6</f>
         <v>SF</v>
@@ -8587,8 +8688,12 @@
       <c r="E6">
         <v>2.2450000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>1.0489977728285078</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f>'ARM MCL1'!A7</f>
         <v>MFCC</v>
@@ -8605,8 +8710,12 @@
       <c r="E7">
         <v>15.096</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>3.0684287228404874</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -8615,19 +8724,19 @@
         <v>579.86099999999999</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E9" si="0">SUM(C2:C7)</f>
+        <f t="shared" ref="C9:E9" si="2">SUM(C2:C7)</f>
         <v>125.30900000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61.626999999999995</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>61.623999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="B12">
         <f>B9/E9</f>
         <v>9.4096618200701023</v>
@@ -8637,7 +8746,7 @@
         <v>3.0684287228404874</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13">
         <f>B3/C3</f>
         <v>45.541284403669721</v>
@@ -8651,7 +8760,7 @@
         <v>3.8398342971986383</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="C14">
         <f>B6/C6</f>
         <v>1.0489977728285078</v>
@@ -8661,7 +8770,7 @@
         <v>2.0333457737679916</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="C15">
         <f>B9/C9</f>
         <v>4.6274489462049804</v>
@@ -8676,8 +8785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -8720,6 +8829,10 @@
       <c r="E2">
         <v>3.4489999999999998</v>
       </c>
+      <c r="H2">
+        <f t="shared" ref="H2:H4" si="0">B2/E2</f>
+        <v>0.78689475210205861</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="str">
@@ -8738,6 +8851,10 @@
       <c r="E3">
         <v>48.723999999999997</v>
       </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>3.835337821196946</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="str">
@@ -8756,6 +8873,10 @@
       <c r="E4">
         <v>29.667999999999999</v>
       </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>29.10213024133747</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="str">
@@ -8774,6 +8895,10 @@
       <c r="E5">
         <v>30.175999999999998</v>
       </c>
+      <c r="H5">
+        <f>B5/E5</f>
+        <v>3.0720440084835632</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="str">
@@ -8792,6 +8917,10 @@
       <c r="E6">
         <v>10.156000000000001</v>
       </c>
+      <c r="H6">
+        <f t="shared" ref="H6:H7" si="1">B6/E6</f>
+        <v>2.2390705001969278</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="str">
@@ -8818,6 +8947,10 @@
         <f>D9/E9</f>
         <v>1.0479529039379445</v>
       </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>2.4856224583497313</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
@@ -8828,15 +8961,15 @@
         <v>1357.91</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E9" si="0">SUM(C2:C7)</f>
+        <f t="shared" ref="C9:E9" si="2">SUM(C2:C7)</f>
         <v>334.774</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>207.917</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>198.40300000000002</v>
       </c>
       <c r="F9">
@@ -8884,61 +9017,61 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="str">
-        <f t="shared" ref="A14:A19" si="1">A2</f>
+        <f t="shared" ref="A14:A19" si="3">A2</f>
         <v>HAM</v>
       </c>
       <c r="B14">
-        <f t="shared" ref="B14:B19" si="2">B2/$B$9*100</f>
+        <f t="shared" ref="B14:B19" si="4">B2/$B$9*100</f>
         <v>0.19986597049878119</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>FFT</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.761810429262617</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MAG</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>63.58315352269296</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>MFCC</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6.8268147373537271</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>NASE</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6746323394039369</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>OSC</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13.953723000787976</v>
       </c>
     </row>
@@ -8995,29 +9128,29 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="str">
-        <f t="shared" ref="A25:C26" si="3">A5</f>
+        <f t="shared" ref="A25:C26" si="5">A5</f>
         <v>MFCC</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>92.701999999999998</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30.175999999999998</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>NASE</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.74</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.156000000000001</v>
       </c>
     </row>
@@ -9060,7 +9193,7 @@
         <v>HAM</v>
       </c>
       <c r="B31">
-        <f t="shared" ref="B31:B36" si="4">D2</f>
+        <f t="shared" ref="B31:B36" si="6">D2</f>
         <v>3.4470000000000001</v>
       </c>
     </row>
@@ -9070,7 +9203,7 @@
         <v>FFT</v>
       </c>
       <c r="B32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>48.723999999999997</v>
       </c>
     </row>
@@ -9080,7 +9213,7 @@
         <v>MAG</v>
       </c>
       <c r="B33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>29.673999999999999</v>
       </c>
     </row>
@@ -9090,7 +9223,7 @@
         <v>MFCC</v>
       </c>
       <c r="B34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>30.175999999999998</v>
       </c>
     </row>
@@ -9100,7 +9233,7 @@
         <v>NASE</v>
       </c>
       <c r="B35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>10.156000000000001</v>
       </c>
     </row>
@@ -9110,7 +9243,7 @@
         <v>OSC</v>
       </c>
       <c r="B36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>85.74</v>
       </c>
     </row>
@@ -9132,10 +9265,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9147,7 +9280,7 @@
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9161,7 +9294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>'ARM MCL3'!A2</f>
         <v>ZCR</v>
@@ -9178,8 +9311,12 @@
       <c r="E2">
         <v>3.323</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <f>B2/E2</f>
+        <v>7.7117062894974424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>'ARM MCL3'!A3</f>
         <v>RMS</v>
@@ -9196,8 +9333,12 @@
       <c r="E3">
         <v>3.5129999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <f t="shared" ref="F3:F4" si="0">B3/E3</f>
+        <v>1.3279248505550811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>'ARM MCL3'!A4</f>
         <v>LE</v>
@@ -9214,8 +9355,12 @@
       <c r="E4">
         <v>0.95499999999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.3863874345549738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -9232,11 +9377,11 @@
         <v>30.100999999999999</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6" si="0">SUM(E2:E4)</f>
+        <f t="shared" ref="E6" si="1">SUM(E2:E4)</f>
         <v>7.7910000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="B8">
         <f>B6/E6</f>
         <v>4.1804646386856632</v>
@@ -9246,7 +9391,7 @@
         <v>7.7138128197411975</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="B9">
         <f>B3/C3</f>
         <v>1.3279248505550811</v>
@@ -9256,13 +9401,13 @@
         <v>3.863560518547041</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="B10">
         <f>B4/C4</f>
         <v>2.3863874345549738</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="C11">
         <f>B6/C6</f>
         <v>1.0820238530281387</v>
@@ -9275,10 +9420,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -9290,7 +9435,7 @@
     <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -9304,7 +9449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="str">
         <f>'ARM MCL4'!A2</f>
         <v>FFT</v>
@@ -9322,7 +9467,7 @@
         <v>24.381</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="str">
         <f>'ARM MCL4'!A3</f>
         <v>MAG</v>
@@ -9340,7 +9485,7 @@
         <v>14.84</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="str">
         <f>'ARM MCL4'!A4</f>
         <v>SCF</v>
@@ -9357,8 +9502,12 @@
       <c r="E4">
         <v>1.8109999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f>B4/E4</f>
+        <v>2.1612368856985094</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="str">
         <f>'ARM MCL4'!A5</f>
         <v>SBER</v>
@@ -9375,8 +9524,12 @@
       <c r="E5">
         <v>3.79</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" ref="F5:F7" si="0">B5/E5</f>
+        <v>1.7548812664907651</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="str">
         <f>'ARM MCL4'!A6</f>
         <v>CV</v>
@@ -9393,8 +9546,12 @@
       <c r="E6">
         <v>6.3630000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="str">
         <f>'ARM MCL4'!A7</f>
         <v>AOMIC</v>
@@ -9411,8 +9568,12 @@
       <c r="E7">
         <v>0.61699999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -9421,19 +9582,19 @@
         <v>542.91199999999992</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:E9" si="0">SUM(C2:C7)</f>
+        <f t="shared" ref="C9:E9" si="1">SUM(C2:C7)</f>
         <v>115.55800000000001</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.806999999999995</v>
       </c>
       <c r="E9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>51.802</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="B12">
         <f>B9/E9</f>
         <v>10.480521987568046</v>
@@ -9443,25 +9604,25 @@
         <v>2.2305479954446312</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="B13">
         <f>B4/C4</f>
         <v>2.1612368856985094</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="B14">
         <f>B5/C5</f>
         <v>1.75441835927196</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="B15">
         <f>B9/C9</f>
         <v>4.6981775385520681</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="B16">
         <f>B2/D2</f>
         <v>3.8349124318116563</v>

--- a/Results/ResultsExtraktion2.xlsx
+++ b/Results/ResultsExtraktion2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="14115" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Feature Überblick" sheetId="9" r:id="rId1"/>
@@ -335,24 +335,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74798592"/>
-        <c:axId val="74800128"/>
+        <c:axId val="62045184"/>
+        <c:axId val="62051072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74798592"/>
+        <c:axId val="62045184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74800128"/>
+        <c:crossAx val="62051072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74800128"/>
+        <c:axId val="62051072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -360,7 +360,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74798592"/>
+        <c:crossAx val="62045184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -540,25 +540,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80765696"/>
-        <c:axId val="80767232"/>
+        <c:axId val="97626368"/>
+        <c:axId val="97636352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80765696"/>
+        <c:axId val="97626368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80767232"/>
+        <c:crossAx val="97636352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80767232"/>
+        <c:axId val="97636352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +583,7 @@
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80765696"/>
+        <c:crossAx val="97626368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -608,7 +608,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -852,11 +852,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80894592"/>
-        <c:axId val="80904576"/>
+        <c:axId val="97755520"/>
+        <c:axId val="97757056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80894592"/>
+        <c:axId val="97755520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,14 +864,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80904576"/>
+        <c:crossAx val="97757056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80904576"/>
+        <c:axId val="97757056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -893,18 +893,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80894592"/>
+        <c:crossAx val="97755520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1040,24 +1038,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80925440"/>
-        <c:axId val="80926976"/>
+        <c:axId val="97798400"/>
+        <c:axId val="97804288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80925440"/>
+        <c:axId val="97798400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80926976"/>
+        <c:crossAx val="97804288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80926976"/>
+        <c:axId val="97804288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,18 +1077,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80925440"/>
+        <c:crossAx val="97798400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1352,24 +1348,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80971648"/>
-        <c:axId val="80973184"/>
+        <c:axId val="97844608"/>
+        <c:axId val="97850496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80971648"/>
+        <c:axId val="97844608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80973184"/>
+        <c:crossAx val="97850496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80973184"/>
+        <c:axId val="97850496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +1390,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80971648"/>
+        <c:crossAx val="97844608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,24 +1482,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81001472"/>
-        <c:axId val="81003264"/>
+        <c:axId val="97874688"/>
+        <c:axId val="97876224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81001472"/>
+        <c:axId val="97874688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81003264"/>
+        <c:crossAx val="97876224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81003264"/>
+        <c:axId val="97876224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1528,7 +1524,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81001472"/>
+        <c:crossAx val="97874688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1617,24 +1613,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="81027072"/>
-        <c:axId val="81028608"/>
+        <c:axId val="97891840"/>
+        <c:axId val="97893376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="81027072"/>
+        <c:axId val="97891840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81028608"/>
+        <c:crossAx val="97893376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81028608"/>
+        <c:axId val="97893376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1655,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81027072"/>
+        <c:crossAx val="97891840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1924,11 +1920,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82318464"/>
-        <c:axId val="82320000"/>
+        <c:axId val="98065024"/>
+        <c:axId val="98070912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82318464"/>
+        <c:axId val="98065024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,14 +1932,14 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="82320000"/>
+        <c:crossAx val="98070912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82320000"/>
+        <c:axId val="98070912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70"/>
@@ -1970,7 +1966,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82318464"/>
+        <c:crossAx val="98065024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2277,24 +2273,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82369536"/>
-        <c:axId val="82379520"/>
+        <c:axId val="98124544"/>
+        <c:axId val="98126080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82369536"/>
+        <c:axId val="98124544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82379520"/>
+        <c:crossAx val="98126080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82379520"/>
+        <c:axId val="98126080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2316,18 +2312,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82369536"/>
+        <c:crossAx val="98124544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2509,24 +2503,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="82411520"/>
-        <c:axId val="82413056"/>
+        <c:axId val="98166272"/>
+        <c:axId val="98167808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82411520"/>
+        <c:axId val="98166272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82413056"/>
+        <c:crossAx val="98167808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82413056"/>
+        <c:axId val="98167808"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2549,18 +2543,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82411520"/>
+        <c:crossAx val="98166272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -2693,24 +2685,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79123584"/>
-        <c:axId val="79125120"/>
+        <c:axId val="62163584"/>
+        <c:axId val="62185856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79123584"/>
+        <c:axId val="62163584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79125120"/>
+        <c:crossAx val="62185856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79125120"/>
+        <c:axId val="62185856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2736,7 +2728,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79123584"/>
+        <c:crossAx val="62163584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2985,24 +2977,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79145984"/>
-        <c:axId val="79151872"/>
+        <c:axId val="75514624"/>
+        <c:axId val="75516160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79145984"/>
+        <c:axId val="75514624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79151872"/>
+        <c:crossAx val="75516160"/>
         <c:crossesAt val="0.1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79151872"/>
+        <c:axId val="75516160"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3029,7 +3021,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79145984"/>
+        <c:crossAx val="75514624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3326,24 +3318,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79385728"/>
-        <c:axId val="79387264"/>
+        <c:axId val="75545216"/>
+        <c:axId val="75551104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79385728"/>
+        <c:axId val="75545216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79387264"/>
-        <c:crossesAt val="1.0000000000000042E-4"/>
+        <c:crossAx val="75551104"/>
+        <c:crossesAt val="1.0000000000000044E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79387264"/>
+        <c:axId val="75551104"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3370,7 +3362,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79385728"/>
+        <c:crossAx val="75545216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3396,7 +3388,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3667,24 +3659,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="79420416"/>
-        <c:axId val="80544512"/>
+        <c:axId val="63275776"/>
+        <c:axId val="63277312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79420416"/>
+        <c:axId val="63275776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80544512"/>
-        <c:crossesAt val="1.0000000000000042E-4"/>
+        <c:crossAx val="63277312"/>
+        <c:crossesAt val="1.0000000000000044E-4"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80544512"/>
+        <c:axId val="63277312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3707,18 +3699,16 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79420416"/>
+        <c:crossAx val="63275776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -3737,7 +3727,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3925,25 +3915,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80587392"/>
-        <c:axId val="80601472"/>
+        <c:axId val="76030336"/>
+        <c:axId val="76031872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80587392"/>
+        <c:axId val="76030336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80601472"/>
+        <c:crossAx val="76031872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80601472"/>
+        <c:axId val="76031872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3968,7 +3958,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80587392"/>
+        <c:crossAx val="76030336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4161,25 +4151,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80623872"/>
-        <c:axId val="80629760"/>
+        <c:axId val="76054528"/>
+        <c:axId val="76056064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80623872"/>
+        <c:axId val="76054528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80629760"/>
+        <c:crossAx val="76056064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80629760"/>
+        <c:axId val="76056064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4204,7 +4194,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80623872"/>
+        <c:crossAx val="76054528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4229,7 +4219,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7000000000000004" r="0.7000000000000004" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.78740157499999996" l="0.70000000000000051" r="0.70000000000000051" t="0.78740157499999996" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
@@ -4397,25 +4387,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80680832"/>
-        <c:axId val="80682368"/>
+        <c:axId val="97537408"/>
+        <c:axId val="97555584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80680832"/>
+        <c:axId val="97537408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="80682368"/>
+        <c:crossAx val="97555584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80682368"/>
+        <c:axId val="97555584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4430,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80680832"/>
+        <c:crossAx val="97537408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4705,24 +4695,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80721024"/>
-        <c:axId val="80722560"/>
+        <c:axId val="97585792"/>
+        <c:axId val="97595776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80721024"/>
+        <c:axId val="97585792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80722560"/>
+        <c:crossAx val="97595776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80722560"/>
+        <c:axId val="97595776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4748,7 +4738,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80721024"/>
+        <c:crossAx val="97585792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5622,8 +5612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F107"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59:F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -6220,7 +6210,7 @@
         <v>1.4001119194180189</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="str">
         <f>A6</f>
         <v>SF</v>
@@ -6238,7 +6228,7 @@
         <v>1.0489977728285078</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" t="str">
         <f>A7</f>
         <v>MFCC</v>
@@ -6256,7 +6246,7 @@
         <v>3.0684287228404874</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" t="str">
         <f>A9</f>
         <v>NASE</v>
@@ -6274,7 +6264,7 @@
         <v>2.2390705001969278</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:6">
       <c r="A36" t="str">
         <f t="shared" ref="A36:A38" si="8">A10</f>
         <v>OSC</v>
@@ -6292,7 +6282,7 @@
         <v>2.4856224583497308</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" t="str">
         <f t="shared" si="8"/>
         <v>ZCR</v>
@@ -6310,7 +6300,7 @@
         <v>7.7117062894974433</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="str">
         <f t="shared" si="8"/>
         <v>RMS</v>
@@ -6328,7 +6318,7 @@
         <v>1.3279248505550814</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="str">
         <f>A13</f>
         <v>LE</v>
@@ -6346,7 +6336,7 @@
         <v>2.3863874345549738</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="str">
         <f>A14</f>
         <v>SCF</v>
@@ -6364,7 +6354,7 @@
         <v>2.1612368856985098</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="str">
         <f>A15</f>
         <v>SBER</v>
@@ -6382,7 +6372,7 @@
         <v>1.7548812664907651</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="B43" t="str">
         <f>'ARM MCL1'!B1</f>
         <v>ARM</v>
@@ -6400,7 +6390,7 @@
         <v>Libav NEON + Handopt.</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>28</v>
       </c>
@@ -6420,8 +6410,12 @@
         <f>1000/('ARM MCL1'!H9/1293)</f>
         <v>11578.758843019614</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44">
+        <f>100-(B44*100/E44)</f>
+        <v>93.476228866533475</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -6441,8 +6435,12 @@
         <f>1000/('ARM MCL 2'!$H$9/2585)</f>
         <v>4931.9825234197624</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <f t="shared" ref="F45:F47" si="10">100-(B45*100/E45)</f>
+        <v>85.671952696367214</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>30</v>
       </c>
@@ -6462,8 +6460,12 @@
         <f>1000/('ARM MCL3'!$H$6/1293)</f>
         <v>22098.786532216713</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46">
+        <f t="shared" si="10"/>
+        <v>59.35676576826895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -6483,8 +6485,12 @@
         <f>1000/('ARM MCL4'!$H$9/1293)</f>
         <v>18450.342465753427</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F47">
+        <f t="shared" si="10"/>
+        <v>95.564304295814324</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="B50" t="str">
         <f>'ARM MCL1'!B1</f>
         <v>ARM</v>
@@ -6502,7 +6508,7 @@
         <v>Libav NEON + Handopt.</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>28</v>
       </c>
@@ -6511,82 +6517,82 @@
         <v>4469.6551894356016</v>
       </c>
       <c r="C51">
-        <f t="shared" ref="B51:E54" si="10" xml:space="preserve"> C44/$B$56</f>
+        <f t="shared" ref="B51:E54" si="11" xml:space="preserve"> C44/$B$56</f>
         <v>14391.918086500435</v>
       </c>
       <c r="D51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55960.266047136465</v>
       </c>
       <c r="E51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>68513.365935027294</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>31</v>
       </c>
       <c r="B52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4181.4011181212163</v>
       </c>
       <c r="C52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>10624.853599998389</v>
       </c>
       <c r="D52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>23971.317507194413</v>
       </c>
       <c r="E52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>29183.328540945338</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>30</v>
       </c>
       <c r="B53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>53145.926465438301</v>
       </c>
       <c r="C53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>130762.05048648942</v>
       </c>
       <c r="D53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>130762.05048648942</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>130762.05048648942</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>29</v>
       </c>
       <c r="B54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4842.6097524317811</v>
       </c>
       <c r="C54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>15901.582853149806</v>
       </c>
       <c r="D54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80510.234388766679</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>109173.62405771257</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>32</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>0.16900000000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:6">
       <c r="B58" t="str">
         <f>E1</f>
         <v>DSP</v>
@@ -6611,7 +6617,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>28</v>
       </c>
@@ -6631,8 +6637,12 @@
         <f>1000/('DSP MCL1'!E9/1293)</f>
         <v>20982.084901986243</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59">
+        <f>100-(B59*100/E59)</f>
+        <v>89.372625508527051</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -6652,8 +6662,12 @@
         <f>1000/('DSP MCL2'!E9/2585)</f>
         <v>13029.036859321683</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60">
+        <f t="shared" ref="F60:F62" si="12">100-(B60*100/E60)</f>
+        <v>85.38909058774145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>30</v>
       </c>
@@ -6673,8 +6687,12 @@
         <f>1000/('DSP MCL3'!E6/1293)</f>
         <v>165960.72391220639</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61">
+        <f t="shared" si="12"/>
+        <v>76.079214000614058</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -6694,8 +6712,12 @@
         <f>1000/('DSP MCL4'!E9/1293)</f>
         <v>24960.426238369175</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F62">
+        <f t="shared" si="12"/>
+        <v>90.458490510432625</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="B64" t="str">
         <f>E1</f>
         <v>DSP</v>
@@ -6721,15 +6743,15 @@
         <v>11261.842114408508</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:E65" si="11">C59/$B$70</f>
+        <f t="shared" ref="C65:E65" si="13">C59/$B$70</f>
         <v>52113.59942464652</v>
       </c>
       <c r="D65">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>105964.96714594304</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>105970.1257676073</v>
       </c>
     </row>
@@ -6738,19 +6760,19 @@
         <v>31</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:E66" si="12">B60/$B$70</f>
+        <f t="shared" ref="B66:E66" si="14">B60/$B$70</f>
         <v>9614.4483475013476</v>
       </c>
       <c r="C66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>38998.116805831858</v>
       </c>
       <c r="D66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>62792.150500226329</v>
       </c>
       <c r="E66">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>65803.216461220625</v>
       </c>
     </row>
@@ -6759,19 +6781,19 @@
         <v>30</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:E67" si="13">B61/$B$70</f>
+        <f t="shared" ref="B67:E67" si="15">B61/$B$70</f>
         <v>200500.55358621528</v>
       </c>
       <c r="C67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>216946.38152563138</v>
       </c>
       <c r="D67">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>216946.38152563138</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>838185.47430407279</v>
       </c>
     </row>
@@ -6780,19 +6802,19 @@
         <v>29</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:E68" si="14">B62/$B$70</f>
+        <f t="shared" ref="B68:E68" si="16">B62/$B$70</f>
         <v>12028.290091769995</v>
       </c>
       <c r="C68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>56511.042336342187</v>
       </c>
       <c r="D68">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>126050.59220381477</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>126062.7587796423</v>
       </c>
     </row>
@@ -6819,11 +6841,11 @@
         <v>FFT</v>
       </c>
       <c r="B74">
-        <f t="shared" ref="B74:B89" si="15">E2*1000</f>
+        <f t="shared" ref="B74:B89" si="17">E2*1000</f>
         <v>72.404485692188715</v>
       </c>
       <c r="C74">
-        <f t="shared" ref="C74:C89" si="16">F2*1000</f>
+        <f t="shared" ref="C74:C89" si="18">F2*1000</f>
         <v>18.856148491879349</v>
       </c>
       <c r="D74">
@@ -6833,15 +6855,15 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="str">
-        <f t="shared" ref="A75:A89" si="17">A3</f>
+        <f t="shared" ref="A75:A89" si="19">A3</f>
         <v>MAG</v>
       </c>
       <c r="B75">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>334.0046403712297</v>
       </c>
       <c r="C75">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.538283062645013</v>
       </c>
       <c r="D75">
@@ -6851,197 +6873,197 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="str">
+        <f t="shared" si="19"/>
+        <v>SC</v>
+      </c>
+      <c r="B76">
         <f t="shared" si="17"/>
-        <v>SC</v>
-      </c>
-      <c r="B76">
-        <f t="shared" si="15"/>
         <v>1.9350348027842226</v>
       </c>
       <c r="C76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3820572312451662</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="str">
+        <f t="shared" si="19"/>
+        <v>SR</v>
+      </c>
+      <c r="B77">
         <f t="shared" si="17"/>
-        <v>SR</v>
-      </c>
-      <c r="B77">
-        <f t="shared" si="15"/>
         <v>2.4717710750193351</v>
       </c>
       <c r="C77">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.4717710750193351</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="str">
+        <f t="shared" si="19"/>
+        <v>SF</v>
+      </c>
+      <c r="B78">
         <f t="shared" si="17"/>
-        <v>SF</v>
-      </c>
-      <c r="B78">
-        <f t="shared" si="15"/>
         <v>1.8213457076566126</v>
       </c>
       <c r="C78">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7362722351121422</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="str">
+        <f t="shared" si="19"/>
+        <v>MFCC</v>
+      </c>
+      <c r="B79">
         <f t="shared" si="17"/>
-        <v>MFCC</v>
-      </c>
-      <c r="B79">
-        <f t="shared" si="15"/>
         <v>35.824439288476412</v>
       </c>
       <c r="C79">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>11.675174013921115</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="str">
+        <f t="shared" si="19"/>
+        <v>HAM</v>
+      </c>
+      <c r="B80">
         <f t="shared" si="17"/>
-        <v>HAM</v>
-      </c>
-      <c r="B80">
-        <f t="shared" si="15"/>
         <v>1.0499032882011605</v>
       </c>
       <c r="C80">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.3342359767891683</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="str">
+        <f t="shared" si="19"/>
+        <v>NASE</v>
+      </c>
+      <c r="B81">
         <f t="shared" si="17"/>
-        <v>NASE</v>
-      </c>
-      <c r="B81">
-        <f t="shared" si="15"/>
         <v>8.7969052224371378</v>
       </c>
       <c r="C81">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.9288201160541587</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="str">
+        <f t="shared" si="19"/>
+        <v>OSC</v>
+      </c>
+      <c r="B82">
         <f t="shared" si="17"/>
-        <v>OSC</v>
-      </c>
-      <c r="B82">
-        <f t="shared" si="15"/>
         <v>73.29941972920696</v>
       </c>
       <c r="C82">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>29.48936170212766</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="str">
+        <f t="shared" si="19"/>
+        <v>ZCR</v>
+      </c>
+      <c r="B83">
         <f t="shared" si="17"/>
-        <v>ZCR</v>
-      </c>
-      <c r="B83">
-        <f t="shared" si="15"/>
         <v>19.819025522041766</v>
       </c>
       <c r="C83">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.5699922660479504</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="str">
+        <f t="shared" si="19"/>
+        <v>RMS</v>
+      </c>
+      <c r="B84">
         <f t="shared" si="17"/>
-        <v>RMS</v>
-      </c>
-      <c r="B84">
-        <f t="shared" si="15"/>
         <v>3.6078886310904874</v>
       </c>
       <c r="C84">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.7169373549883988</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="str">
+        <f t="shared" si="19"/>
+        <v>LE</v>
+      </c>
+      <c r="B85">
         <f t="shared" si="17"/>
-        <v>LE</v>
-      </c>
-      <c r="B85">
-        <f t="shared" si="15"/>
         <v>1.7625676720804331</v>
       </c>
       <c r="C85">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.73859242072699149</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="str">
+        <f t="shared" si="19"/>
+        <v>SCF</v>
+      </c>
+      <c r="B86">
         <f t="shared" si="17"/>
-        <v>SCF</v>
-      </c>
-      <c r="B86">
-        <f t="shared" si="15"/>
         <v>3.0270688321732409</v>
       </c>
       <c r="C86">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.4006187161639596</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="str">
+        <f t="shared" si="19"/>
+        <v>SBER</v>
+      </c>
+      <c r="B87">
         <f t="shared" si="17"/>
-        <v>SBER</v>
-      </c>
-      <c r="B87">
-        <f t="shared" si="15"/>
         <v>5.1438515081206493</v>
       </c>
       <c r="C87">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.9311678267594741</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="str">
+        <f t="shared" si="19"/>
+        <v>CV</v>
+      </c>
+      <c r="B88">
         <f t="shared" si="17"/>
-        <v>CV</v>
-      </c>
-      <c r="B88">
-        <f t="shared" si="15"/>
         <v>4.9211136890951277</v>
       </c>
       <c r="C88">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>4.9211136890951277</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="str">
+        <f t="shared" si="19"/>
+        <v>AOMIC</v>
+      </c>
+      <c r="B89">
         <f t="shared" si="17"/>
-        <v>AOMIC</v>
-      </c>
-      <c r="B89">
-        <f t="shared" si="15"/>
         <v>0.47718484145398299</v>
       </c>
       <c r="C89">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.47718484145398299</v>
       </c>
     </row>
@@ -7069,169 +7091,169 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="str">
-        <f t="shared" ref="A93:A106" si="18">A75</f>
+        <f t="shared" ref="A93:A106" si="20">A75</f>
         <v>MAG</v>
       </c>
       <c r="B93">
-        <f t="shared" ref="B93:B107" si="19">B3*1000</f>
+        <f t="shared" ref="B93:B107" si="21">B3*1000</f>
         <v>38.48414539829853</v>
       </c>
       <c r="C93">
-        <f t="shared" ref="C93:C107" si="20">D3*1000</f>
+        <f t="shared" ref="C93:C107" si="22">D3*1000</f>
         <v>19.110595514307814</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>SC</v>
       </c>
       <c r="B94">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>12.242846094354215</v>
       </c>
       <c r="C94">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>12.242846094354215</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>SR</v>
       </c>
       <c r="B95">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>4.4470224284609436</v>
       </c>
       <c r="C95">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4.4470224284609436</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>SF</v>
       </c>
       <c r="B96">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.3201856148491879</v>
       </c>
       <c r="C96">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.3201856148491879</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>MFCC</v>
       </c>
       <c r="B97">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>38.174787316318643</v>
       </c>
       <c r="C97">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>31.848414539829854</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>HAM</v>
       </c>
       <c r="B98">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>23.361702127659576</v>
       </c>
       <c r="C98">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>6.9013539651837519</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>NASE</v>
       </c>
       <c r="B99">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>11.29980657640232</v>
       </c>
       <c r="C99">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>11.29980657640232</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>OSC</v>
       </c>
       <c r="B100">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>117.04448742746615</v>
       </c>
       <c r="C100">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>117.04448742746615</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>ZCR</v>
       </c>
       <c r="B101">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>39.118329466357309</v>
       </c>
       <c r="C101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>39.118329466357309</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>RMS</v>
       </c>
       <c r="B102">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>2.5290023201856147</v>
       </c>
       <c r="C102">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.5290023201856147</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>LE</v>
       </c>
       <c r="B103">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>3.6040216550657389</v>
       </c>
       <c r="C103">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3.6040216550657389</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>SCF</v>
       </c>
       <c r="B104">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.95127610208816704</v>
       </c>
       <c r="C104">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.95127610208816704</v>
       </c>
     </row>
@@ -7241,25 +7263,25 @@
         <v>SBER</v>
       </c>
       <c r="B105">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.3689095127610209</v>
       </c>
       <c r="C105">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.3689095127610209</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>CV</v>
       </c>
       <c r="B106">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>14.795050270688321</v>
       </c>
       <c r="C106">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>14.795050270688321</v>
       </c>
     </row>
@@ -7269,11 +7291,11 @@
         <v>AOMIC</v>
       </c>
       <c r="B107">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1.6395978344934261</v>
       </c>
       <c r="C107">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1.6395978344934261</v>
       </c>
     </row>
@@ -8785,7 +8807,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H2:H5"/>
     </sheetView>
   </sheetViews>
